--- a/Launches/8-inch-flight/Design/Calculations/trunk/Q-8in-motor_calc.xlsx
+++ b/Launches/8-inch-flight/Design/Calculations/trunk/Q-8in-motor_calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cflannery\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Triton_Rocket_Club\Propulsion\Launches\8-inch-flight\Design\Calculations\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
     <definedName name="ds">erosive!$H$7</definedName>
     <definedName name="Final_Nozzle_Throat_Diameter">'Bates Grain Kn Calculator'!$D$9</definedName>
     <definedName name="ig">erosive!$A$13:$A$22</definedName>
-    <definedName name="Increment">'Bates Grain Kn Calculator'!$B$18:$B$47</definedName>
+    <definedName name="Increment">'Bates Grain Kn Calculator'!$B$16:$B$45</definedName>
     <definedName name="lg">erosive!$B$7</definedName>
     <definedName name="ng">erosive!$E$7</definedName>
     <definedName name="Nozzle_Throat_Diameter">'Bates Grain Kn Calculator'!$D$8</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="201">
   <si>
     <t>Bates Grain Kn Calculator</t>
   </si>
@@ -518,12 +518,6 @@
     <t>giving Ae/A*</t>
   </si>
   <si>
-    <t>Middle</t>
-  </si>
-  <si>
-    <t>Range of Q</t>
-  </si>
-  <si>
     <t>OD</t>
   </si>
   <si>
@@ -661,6 +655,18 @@
   <si>
     <t>Erosive need below 1.4:</t>
   </si>
+  <si>
+    <t>Error Checking</t>
+  </si>
+  <si>
+    <t>Range of Q:</t>
+  </si>
+  <si>
+    <t>Middle:</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
 </sst>
 </file>
 
@@ -764,7 +770,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,8 +825,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1383,12 +1395,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1421,29 +1455,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="5" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -1487,38 +1499,8 @@
     </xf>
     <xf numFmtId="167" fontId="8" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="8" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1536,6 +1518,141 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1555,42 +1672,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1603,12 +1684,26 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1713,7 +1808,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Bates Grain Kn Calculator'!$Q$18:$Q$47</c:f>
+              <c:f>'Bates Grain Kn Calculator'!$Q$16:$Q$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2389,16 +2484,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>714374</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3660,10 +3755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V998"/>
+  <dimension ref="A1:V996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I9" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3678,2581 +3773,2663 @@
     <col min="10" max="10" width="12.7109375" style="28" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" style="28" customWidth="1"/>
     <col min="12" max="12" width="8" style="28" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="28" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="28" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="28" customWidth="1"/>
-    <col min="15" max="15" width="11" style="28" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="28" customWidth="1"/>
     <col min="16" max="16" width="9.85546875" style="28" customWidth="1"/>
-    <col min="17" max="17" width="14" style="28" customWidth="1"/>
-    <col min="18" max="23" width="8" style="28" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="28" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="28" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="28" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" style="28" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" style="28" customWidth="1"/>
+    <col min="22" max="23" width="8" style="28" customWidth="1"/>
     <col min="24" max="16384" width="17.28515625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="72" t="s">
+    <row r="1" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="137" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="29"/>
-      <c r="G2" s="91"/>
-      <c r="P2" s="29"/>
+      <c r="G2" s="73"/>
+      <c r="I2" s="138" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
       <c r="Q2" s="29"/>
-    </row>
-    <row r="3" spans="2:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="S2" s="105"/>
+      <c r="T2" s="107" t="b">
+        <f>AND(ISNUMBER(D4),ISNUMBER(D5),ISNUMBER(D6),ISNUMBER(D7),ISNUMBER(D8),ISNUMBER(D9),ISNUMBER(D10),ISNUMBER(D11),NOT(ISBLANK($D$4:$D$11)))</f>
+        <v>1</v>
+      </c>
+      <c r="U2" s="107"/>
+    </row>
+    <row r="3" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="93"/>
-      <c r="J3" s="29"/>
-      <c r="S3" s="29"/>
-    </row>
-    <row r="4" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="88">
+      <c r="F3" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="126"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="33"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+    </row>
+    <row r="4" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="70">
         <v>6</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95"/>
-      <c r="I4" s="32" t="s">
+      <c r="F4" s="127"/>
+      <c r="G4" s="128"/>
+      <c r="I4" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="83">
+      <c r="J4" s="102"/>
+      <c r="K4" s="65">
         <f>(($D$5-$D$6))/29</f>
         <v>0.12570114942528737</v>
       </c>
-      <c r="L4" s="110"/>
-      <c r="N4" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="O4" s="80"/>
-      <c r="P4" s="104">
+      <c r="L4" s="83"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="87" t="s">
+        <v>190</v>
+      </c>
+      <c r="O4" s="88"/>
+      <c r="P4" s="78">
         <f>estimate!P1</f>
         <v>745.97934257540339</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="89">
+    <row r="5" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="71">
         <v>7.0620000000000003</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97"/>
-      <c r="I5" s="36" t="s">
+      <c r="F5" s="129"/>
+      <c r="G5" s="130"/>
+      <c r="I5" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="84">
-        <f>$M$18</f>
+      <c r="J5" s="104"/>
+      <c r="K5" s="66">
+        <f>$M$16</f>
         <v>1261.6469550518068</v>
       </c>
-      <c r="L5" s="110"/>
-      <c r="N5" s="81" t="s">
-        <v>193</v>
-      </c>
-      <c r="O5" s="82"/>
-      <c r="P5" s="105">
+      <c r="L5" s="83"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="O5" s="98"/>
+      <c r="P5" s="79">
         <f>estimate!P2</f>
         <v>702.64610466323245</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="89">
+      <c r="R5" s="109" t="s">
+        <v>197</v>
+      </c>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="111"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="97" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="71">
         <f>erosive!O24</f>
         <v>3.4166666666666665</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="112">
+      <c r="E6" s="32"/>
+      <c r="F6" s="99">
         <v>3</v>
       </c>
-      <c r="G6" s="113"/>
-      <c r="I6" s="36" t="s">
+      <c r="G6" s="100"/>
+      <c r="I6" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="85">
+      <c r="J6" s="104"/>
+      <c r="K6" s="67">
         <f>PI()*Nozzle_Throat_Diameter^2/4</f>
         <v>4.0114996593688055</v>
       </c>
-      <c r="L6" s="109" t="s">
-        <v>189</v>
-      </c>
-      <c r="N6" s="81" t="s">
-        <v>194</v>
-      </c>
-      <c r="O6" s="82"/>
-      <c r="P6" s="105">
+      <c r="L6" s="84" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" s="82"/>
+      <c r="N6" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="O6" s="98"/>
+      <c r="P6" s="79">
         <f>estimate!P3</f>
         <v>4622.4000880041103</v>
       </c>
       <c r="Q6" s="29"/>
-      <c r="S6" s="29"/>
-    </row>
-    <row r="7" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="89">
+      <c r="R6" s="112" t="str">
+        <f>IF(ISNUMBER($D$4:$D$11), "", "Error: Input Values Must be Numerical")</f>
+        <v/>
+      </c>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="114"/>
+    </row>
+    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="98"/>
+      <c r="D7" s="71">
         <v>14</v>
       </c>
-      <c r="F7" s="114">
+      <c r="F7" s="131">
         <v>3</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="I7" s="36" t="s">
+      <c r="G7" s="132"/>
+      <c r="I7" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="86">
-        <f>$Q$18</f>
+      <c r="J7" s="104"/>
+      <c r="K7" s="68">
+        <f>$Q$16</f>
         <v>317.30939153909469</v>
       </c>
-      <c r="L7" s="111"/>
-      <c r="N7" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="O7" s="82"/>
-      <c r="P7" s="105">
+      <c r="L7" s="85"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="97" t="s">
+        <v>193</v>
+      </c>
+      <c r="O7" s="98"/>
+      <c r="P7" s="79">
         <f>estimate!P4</f>
         <v>4301.6910884659092</v>
       </c>
       <c r="Q7" s="29"/>
-    </row>
-    <row r="8" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="89">
+      <c r="R7" s="115" t="str">
+        <f>IF(NOT(ISBLANK($D$4:$D$11)),"", "Error: Must Enter All Input Values")</f>
+        <v/>
+      </c>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="117"/>
+    </row>
+    <row r="8" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="98"/>
+      <c r="D8" s="71">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F8" s="114">
+      <c r="F8" s="131">
         <v>3</v>
       </c>
-      <c r="G8" s="115"/>
-      <c r="I8" s="36" t="s">
+      <c r="G8" s="132"/>
+      <c r="I8" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="77"/>
-      <c r="K8" s="86">
-        <f>MAX(Q19:Q47)</f>
+      <c r="J8" s="104"/>
+      <c r="K8" s="68">
+        <f>MAX(Q17:Q45)</f>
         <v>357.8910079082417</v>
       </c>
-      <c r="L8" s="111"/>
-      <c r="N8" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="O8" s="82"/>
-      <c r="P8" s="105">
+      <c r="L8" s="85"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="O8" s="98"/>
+      <c r="P8" s="79">
         <f>estimate!P5</f>
         <v>7.5002918665422884</v>
       </c>
       <c r="Q8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="V8" s="29"/>
-    </row>
-    <row r="9" spans="2:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="89">
+      <c r="R8" s="115" t="str">
+        <f>IF(ISNUMBER($F$6:$F$11), "", "Error: Grain Core Diameter Values Must be Numerical")</f>
+        <v/>
+      </c>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="117"/>
+    </row>
+    <row r="9" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="98"/>
+      <c r="D9" s="71">
         <f>Nozzle_Throat_Diameter</f>
         <v>2.2599999999999998</v>
       </c>
-      <c r="F9" s="116">
+      <c r="F9" s="133">
         <v>3.4</v>
       </c>
-      <c r="G9" s="117"/>
+      <c r="G9" s="134"/>
       <c r="H9" s="29"/>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="78"/>
-      <c r="K9" s="87">
-        <f>$Q$47</f>
+      <c r="J9" s="124"/>
+      <c r="K9" s="69">
+        <f>$Q$45</f>
         <v>346.66503585185194</v>
       </c>
-      <c r="L9" s="111"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="81" t="s">
-        <v>197</v>
-      </c>
-      <c r="O9" s="82"/>
-      <c r="P9" s="105">
+      <c r="L9" s="85"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="O9" s="98"/>
+      <c r="P9" s="79">
         <f>estimate!P6</f>
         <v>32181.177321244992</v>
       </c>
       <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="117"/>
       <c r="V9" s="29"/>
     </row>
-    <row r="10" spans="2:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="89">
+    <row r="10" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="98"/>
+      <c r="D10" s="71">
         <v>9</v>
       </c>
-      <c r="F10" s="114">
+      <c r="F10" s="131">
         <v>3.8</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="109"/>
-      <c r="N10" s="106" t="s">
-        <v>198</v>
-      </c>
-      <c r="O10" s="107"/>
-      <c r="P10" s="108">
+      <c r="G10" s="132"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="O10" s="90"/>
+      <c r="P10" s="80">
         <f>MAX(erosive!K13:K18)</f>
         <v>1.3003654800962834</v>
       </c>
-    </row>
-    <row r="11" spans="2:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="90">
+      <c r="R10" s="118"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="120"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="123" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="124"/>
+      <c r="D11" s="72">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F11" s="118">
+      <c r="F11" s="121">
         <v>4.3</v>
       </c>
-      <c r="G11" s="119"/>
-      <c r="I11" s="98" t="s">
+      <c r="G11" s="122"/>
+      <c r="I11" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="99"/>
-      <c r="K11" s="100">
+      <c r="J11" s="136"/>
+      <c r="K11" s="74">
         <f>((D5*3)+D6)/2</f>
         <v>12.301333333333334</v>
       </c>
-      <c r="L11" s="109" t="s">
+      <c r="L11" s="84" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="75"/>
-    </row>
-    <row r="13" spans="2:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O13" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="P13" s="29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="35"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="33"/>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="64"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="N12" s="88"/>
+      <c r="O12" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="92"/>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="141"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="N13" s="90"/>
+      <c r="O13" s="93">
+        <f>(36800+18400)/2</f>
+        <v>27600</v>
+      </c>
+      <c r="P13" s="94"/>
+    </row>
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L14" s="30"/>
       <c r="M14" s="31"/>
-      <c r="O14" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="29">
-        <f>(36800+18400)/2</f>
-        <v>27600</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="29"/>
-    </row>
-    <row r="16" spans="2:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:19" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="101" t="s">
+    </row>
+    <row r="15" spans="1:22" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C15" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="103" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="102" t="s">
+      <c r="H15" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="G17" s="102" t="s">
+      <c r="I15" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="H17" s="102" t="s">
+      <c r="K15" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="I17" s="102" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="102" t="s">
+      <c r="L15" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="K17" s="102" t="s">
+      <c r="M15" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="L17" s="102" t="s">
+      <c r="N15" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="M17" s="102" t="s">
+      <c r="O15" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="N17" s="102" t="s">
+      <c r="P15" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="O17" s="102" t="s">
+      <c r="Q15" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="P17" s="102" t="s">
+      <c r="R15" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="Q17" s="102" t="s">
-        <v>179</v>
-      </c>
-      <c r="R17" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="S17" s="102" t="s">
+      <c r="S15" s="76" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42">
+    <row r="16" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="34">
         <v>0</v>
       </c>
-      <c r="C18" s="43">
-        <f>B18*$K$4</f>
+      <c r="C16" s="35">
+        <f>B16*$K$4</f>
         <v>0</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D16" s="36">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E18" s="43">
-        <f>$D7-C18</f>
+      <c r="E16" s="35">
+        <f>$D7-C16</f>
         <v>14</v>
       </c>
-      <c r="F18" s="45">
-        <f>$D6+C18</f>
+      <c r="F16" s="37">
+        <f>$D6+C16</f>
         <v>3.4166666666666665</v>
       </c>
-      <c r="G18" s="46">
-        <f t="shared" ref="G18:G47" si="0">(D18*(PI())*E18)</f>
+      <c r="G16" s="38">
+        <f t="shared" ref="G16:G45" si="0">(D16*(PI())*E16)</f>
         <v>310.60298247511571</v>
       </c>
-      <c r="H18" s="46">
-        <f t="shared" ref="H18:H47" si="1">((D18/2)^2)*PI()</f>
+      <c r="H16" s="38">
+        <f t="shared" ref="H16:H45" si="1">((D16/2)^2)*PI()</f>
         <v>39.169254682844056</v>
       </c>
-      <c r="I18" s="46">
-        <f t="shared" ref="I18:I47" si="2">((F18/2)^2)*PI()</f>
+      <c r="I16" s="38">
+        <f t="shared" ref="I16:I45" si="2">((F16/2)^2)*PI()</f>
         <v>9.1684327268827115</v>
       </c>
-      <c r="J18" s="46">
-        <f t="shared" ref="J18:J47" si="3">H18-I18</f>
+      <c r="J16" s="38">
+        <f t="shared" ref="J16:J45" si="3">H16-I16</f>
         <v>30.000821955961342</v>
       </c>
-      <c r="K18" s="46">
-        <f t="shared" ref="K18:K47" si="4">(F18*PI())*E18</f>
+      <c r="K16" s="38">
+        <f t="shared" ref="K16:K45" si="4">(F16*PI())*E16</f>
         <v>150.27284859671178</v>
       </c>
-      <c r="L18" s="46">
-        <f t="shared" ref="L18:L47" si="5">(J18*2)+K18</f>
+      <c r="L16" s="38">
+        <f t="shared" ref="L16:L45" si="5">(J16*2)+K16</f>
         <v>210.27449250863447</v>
       </c>
-      <c r="M18" s="46">
-        <f>L18*D4</f>
+      <c r="M16" s="38">
+        <f>L16*D4</f>
         <v>1261.6469550518068</v>
       </c>
-      <c r="N18" s="47">
-        <f t="shared" ref="N18:N47" si="6">(D18-F18)*0.5</f>
+      <c r="N16" s="39">
+        <f t="shared" ref="N16:N45" si="6">(D16-F16)*0.5</f>
         <v>1.8226666666666669</v>
       </c>
-      <c r="O18" s="48">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B18*S$6</f>
+      <c r="O16" s="40">
+        <f t="shared" ref="O16:O45" si="7">Nozzle_Throat_Diameter-boundry_layer*2+B16*S$6</f>
         <v>2.25</v>
       </c>
-      <c r="P18" s="48">
-        <f t="shared" ref="P18:P47" si="7">PI()*O18^2/4</f>
+      <c r="P16" s="40">
+        <f t="shared" ref="P16:P45" si="8">PI()*O16^2/4</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q18" s="49">
-        <f t="shared" ref="Q18:Q47" si="8">M18/(P18)</f>
+      <c r="Q16" s="41">
+        <f t="shared" ref="Q16:Q45" si="9">M16/(P16)</f>
         <v>317.30939153909469</v>
       </c>
-      <c r="R18" s="50">
-        <f>Nozzle_Throat_Diameter+B18*S$6</f>
+      <c r="R16" s="42">
+        <f t="shared" ref="R16:R45" si="10">Nozzle_Throat_Diameter+B16*S$6</f>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S18" s="51">
-        <f t="shared" ref="S18:S47" si="9">PI()*R18^2/4</f>
+      <c r="S16" s="43">
+        <f t="shared" ref="S16:S45" si="11">PI()*R16^2/4</f>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="52">
+    <row r="17" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="44">
         <v>1</v>
       </c>
-      <c r="C19" s="53">
-        <f>B19*K4</f>
+      <c r="C17" s="45">
+        <f>B17*K4</f>
         <v>0.12570114942528737</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D17" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E19" s="53">
-        <f>$D7-C19</f>
+      <c r="E17" s="45">
+        <f>$D7-C17</f>
         <v>13.874298850574712</v>
       </c>
-      <c r="F19" s="55">
-        <f>$D6+C19</f>
+      <c r="F17" s="47">
+        <f>$D6+C17</f>
         <v>3.5423678160919541</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G17" s="48">
         <f t="shared" si="0"/>
         <v>307.81418590996964</v>
       </c>
-      <c r="H19" s="56">
+      <c r="H17" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I17" s="48">
         <f t="shared" si="2"/>
         <v>9.8554665509499042</v>
       </c>
-      <c r="J19" s="56">
+      <c r="J17" s="48">
         <f t="shared" si="3"/>
         <v>29.31378813189415</v>
       </c>
-      <c r="K19" s="56">
+      <c r="K17" s="48">
         <f t="shared" si="4"/>
         <v>154.40258644916764</v>
       </c>
-      <c r="L19" s="56">
+      <c r="L17" s="48">
         <f t="shared" si="5"/>
         <v>213.03016271295593</v>
       </c>
-      <c r="M19" s="56">
-        <f>L19*D4</f>
+      <c r="M17" s="48">
+        <f>L17*D4</f>
         <v>1278.1809762777357</v>
       </c>
-      <c r="N19" s="57">
+      <c r="N17" s="49">
         <f t="shared" si="6"/>
         <v>1.7598160919540231</v>
       </c>
-      <c r="O19" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B19*S$6</f>
+      <c r="O17" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P19" s="58">
-        <f>PI()*O19^2/4</f>
+      <c r="P17" s="50">
+        <f>PI()*O17^2/4</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q19" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q17" s="51">
+        <f t="shared" si="9"/>
         <v>321.46776579259461</v>
       </c>
-      <c r="R19" s="60">
-        <f>Nozzle_Throat_Diameter+B19*S$6</f>
+      <c r="R17" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S19" s="61">
-        <f t="shared" si="9"/>
+      <c r="S17" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="52">
+    <row r="18" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="44">
         <v>2</v>
       </c>
-      <c r="C20" s="53">
-        <f>B20*K4</f>
+      <c r="C18" s="45">
+        <f>B18*K4</f>
         <v>0.25140229885057475</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D18" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E20" s="53">
-        <f>$D7-C20</f>
+      <c r="E18" s="45">
+        <f>$D7-C18</f>
         <v>13.748597701149425</v>
       </c>
-      <c r="F20" s="55">
-        <f>$D6+C20</f>
+      <c r="F18" s="47">
+        <f>$D6+C18</f>
         <v>3.6680689655172412</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G18" s="48">
         <f t="shared" si="0"/>
         <v>305.02538934482362</v>
       </c>
-      <c r="H20" s="56">
+      <c r="H18" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I20" s="56">
+      <c r="I18" s="48">
         <f t="shared" si="2"/>
         <v>10.567320180578701</v>
       </c>
-      <c r="J20" s="56">
+      <c r="J18" s="48">
         <f t="shared" si="3"/>
         <v>28.601934502265355</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K18" s="48">
         <f t="shared" si="4"/>
         <v>158.43304507937705</v>
       </c>
-      <c r="L20" s="56">
+      <c r="L18" s="48">
         <f t="shared" si="5"/>
         <v>215.63691408390775</v>
       </c>
-      <c r="M20" s="56">
-        <f>L20*D4</f>
+      <c r="M18" s="48">
+        <f>L18*D4</f>
         <v>1293.8214845034465</v>
       </c>
-      <c r="N20" s="57">
+      <c r="N18" s="49">
         <f t="shared" si="6"/>
         <v>1.6969655172413796</v>
       </c>
-      <c r="O20" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B20*S$6</f>
+      <c r="O18" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P20" s="58">
-        <f t="shared" si="7"/>
+      <c r="P18" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q20" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q18" s="51">
+        <f t="shared" si="9"/>
         <v>325.40141785634387</v>
       </c>
-      <c r="R20" s="60">
-        <f>Nozzle_Throat_Diameter+B20*S$6</f>
+      <c r="R18" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S20" s="61">
-        <f t="shared" si="9"/>
+      <c r="S18" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="52">
+    <row r="19" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="44">
         <v>3</v>
       </c>
-      <c r="C21" s="53">
-        <f>B21*K4</f>
+      <c r="C19" s="45">
+        <f>B19*K4</f>
         <v>0.37710344827586212</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D19" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E21" s="53">
-        <f>$D7-C21</f>
+      <c r="E19" s="45">
+        <f>$D7-C19</f>
         <v>13.622896551724137</v>
       </c>
-      <c r="F21" s="55">
-        <f>$D6+C21</f>
+      <c r="F19" s="47">
+        <f>$D6+C19</f>
         <v>3.7937701149425287</v>
       </c>
-      <c r="G21" s="56">
+      <c r="G19" s="48">
         <f t="shared" si="0"/>
         <v>302.23659277967761</v>
       </c>
-      <c r="H21" s="56">
+      <c r="H19" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I21" s="56">
+      <c r="I19" s="48">
         <f t="shared" si="2"/>
         <v>11.303993615769111</v>
       </c>
-      <c r="J21" s="56">
+      <c r="J19" s="48">
         <f t="shared" si="3"/>
         <v>27.865261067074947</v>
       </c>
-      <c r="K21" s="56">
+      <c r="K19" s="48">
         <f t="shared" si="4"/>
         <v>162.36422448734007</v>
       </c>
-      <c r="L21" s="56">
+      <c r="L19" s="48">
         <f t="shared" si="5"/>
         <v>218.09474662148995</v>
       </c>
-      <c r="M21" s="56">
-        <f>L21*D4</f>
+      <c r="M19" s="48">
+        <f>L19*D4</f>
         <v>1308.5684797289396</v>
       </c>
-      <c r="N21" s="57">
+      <c r="N19" s="49">
         <f t="shared" si="6"/>
         <v>1.6341149425287358</v>
       </c>
-      <c r="O21" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B21*S$6</f>
+      <c r="O19" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P21" s="58">
-        <f t="shared" si="7"/>
+      <c r="P19" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q21" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q19" s="51">
+        <f t="shared" si="9"/>
         <v>329.11034773034254</v>
       </c>
-      <c r="R21" s="60">
-        <f>Nozzle_Throat_Diameter+B21*S$6</f>
+      <c r="R19" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S21" s="61">
-        <f t="shared" si="9"/>
+      <c r="S19" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="52">
+    <row r="20" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="44">
         <v>4</v>
       </c>
-      <c r="C22" s="53">
-        <f>B22*K4</f>
+      <c r="C20" s="45">
+        <f>B20*K4</f>
         <v>0.50280459770114949</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D20" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E22" s="53">
-        <f>$D7-C22</f>
+      <c r="E20" s="45">
+        <f>$D7-C20</f>
         <v>13.49719540229885</v>
       </c>
-      <c r="F22" s="55">
-        <f>$D6+C22</f>
+      <c r="F20" s="47">
+        <f>$D6+C20</f>
         <v>3.9194712643678162</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G20" s="48">
         <f t="shared" si="0"/>
         <v>299.44779621453154</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H20" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I20" s="48">
         <f t="shared" si="2"/>
         <v>12.065486856521126</v>
       </c>
-      <c r="J22" s="56">
+      <c r="J20" s="48">
         <f t="shared" si="3"/>
         <v>27.10376782632293</v>
       </c>
-      <c r="K22" s="56">
+      <c r="K20" s="48">
         <f t="shared" si="4"/>
         <v>166.19612467305666</v>
       </c>
-      <c r="L22" s="56">
+      <c r="L20" s="48">
         <f t="shared" si="5"/>
         <v>220.4036603257025</v>
       </c>
-      <c r="M22" s="56">
-        <f>L22*D4</f>
+      <c r="M20" s="48">
+        <f>L20*D4</f>
         <v>1322.421961954215</v>
       </c>
-      <c r="N22" s="57">
+      <c r="N20" s="49">
         <f t="shared" si="6"/>
         <v>1.571264367816092</v>
       </c>
-      <c r="O22" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B22*S$6</f>
+      <c r="O20" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P22" s="58">
-        <f t="shared" si="7"/>
+      <c r="P20" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q22" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q20" s="51">
+        <f t="shared" si="9"/>
         <v>332.59455541459073</v>
       </c>
-      <c r="R22" s="60">
-        <f>Nozzle_Throat_Diameter+B22*S$6</f>
+      <c r="R20" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S22" s="61">
-        <f t="shared" si="9"/>
+      <c r="S20" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="52">
+    <row r="21" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="44">
         <v>5</v>
       </c>
-      <c r="C23" s="53">
-        <f>B23*K4</f>
+      <c r="C21" s="45">
+        <f>B21*K4</f>
         <v>0.62850574712643681</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D21" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E23" s="53">
-        <f>$D7-C23</f>
+      <c r="E21" s="45">
+        <f>$D7-C21</f>
         <v>13.371494252873564</v>
       </c>
-      <c r="F23" s="55">
-        <f>$D6+C23</f>
+      <c r="F21" s="47">
+        <f>$D6+C21</f>
         <v>4.0451724137931038</v>
       </c>
-      <c r="G23" s="56">
+      <c r="G21" s="48">
         <f t="shared" si="0"/>
         <v>296.65899964938558</v>
       </c>
-      <c r="H23" s="56">
+      <c r="H21" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I23" s="56">
+      <c r="I21" s="48">
         <f t="shared" si="2"/>
         <v>12.851799902834749</v>
       </c>
-      <c r="J23" s="56">
+      <c r="J21" s="48">
         <f t="shared" si="3"/>
         <v>26.317454780009307</v>
       </c>
-      <c r="K23" s="56">
+      <c r="K21" s="48">
         <f t="shared" si="4"/>
         <v>169.92874563652683</v>
       </c>
-      <c r="L23" s="56">
+      <c r="L21" s="48">
         <f t="shared" si="5"/>
         <v>222.56365519654543</v>
       </c>
-      <c r="M23" s="56">
-        <f>L23*D4</f>
+      <c r="M21" s="48">
+        <f>L21*D4</f>
         <v>1335.3819311792727</v>
       </c>
-      <c r="N23" s="57">
+      <c r="N21" s="49">
         <f t="shared" si="6"/>
         <v>1.5084137931034483</v>
       </c>
-      <c r="O23" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B23*S$6</f>
+      <c r="O21" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P23" s="58">
-        <f t="shared" si="7"/>
+      <c r="P21" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q23" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q21" s="51">
+        <f t="shared" si="9"/>
         <v>335.85404090908833</v>
       </c>
-      <c r="R23" s="60">
-        <f>Nozzle_Throat_Diameter+B23*S$6</f>
+      <c r="R21" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S23" s="61">
-        <f t="shared" si="9"/>
+      <c r="S21" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="52">
+    <row r="22" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="44">
         <v>6</v>
       </c>
-      <c r="C24" s="53">
-        <f>B24*K4</f>
+      <c r="C22" s="45">
+        <f>B22*K4</f>
         <v>0.75420689655172424</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D22" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E24" s="53">
-        <f>$D7-C24</f>
+      <c r="E22" s="45">
+        <f>$D7-C22</f>
         <v>13.245793103448277</v>
       </c>
-      <c r="F24" s="55">
-        <f>$D6+C24</f>
+      <c r="F22" s="47">
+        <f>$D6+C22</f>
         <v>4.1708735632183904</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G22" s="48">
         <f t="shared" si="0"/>
         <v>293.87020308423951</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H22" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I24" s="56">
+      <c r="I22" s="48">
         <f t="shared" si="2"/>
         <v>13.662932754709976</v>
       </c>
-      <c r="J24" s="56">
+      <c r="J22" s="48">
         <f t="shared" si="3"/>
         <v>25.506321928134078</v>
       </c>
-      <c r="K24" s="56">
+      <c r="K22" s="48">
         <f t="shared" si="4"/>
         <v>173.56208737775049</v>
       </c>
-      <c r="L24" s="56">
+      <c r="L22" s="48">
         <f t="shared" si="5"/>
         <v>224.57473123401866</v>
       </c>
-      <c r="M24" s="56">
-        <f>L24*D4</f>
+      <c r="M22" s="48">
+        <f>L22*D4</f>
         <v>1347.4483874041121</v>
       </c>
-      <c r="N24" s="57">
+      <c r="N22" s="49">
         <f t="shared" si="6"/>
         <v>1.4455632183908049</v>
       </c>
-      <c r="O24" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B24*S$6</f>
+      <c r="O22" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P24" s="58">
-        <f t="shared" si="7"/>
+      <c r="P22" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q24" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q22" s="51">
+        <f t="shared" si="9"/>
         <v>338.88880421383521</v>
       </c>
-      <c r="R24" s="60">
-        <f>Nozzle_Throat_Diameter+B24*S$6</f>
+      <c r="R22" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S24" s="61">
-        <f t="shared" si="9"/>
+      <c r="S22" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="52">
+    <row r="23" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="44">
         <v>7</v>
       </c>
-      <c r="C25" s="53">
-        <f>B25*K4</f>
+      <c r="C23" s="45">
+        <f>B23*K4</f>
         <v>0.87990804597701167</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D23" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E25" s="53">
-        <f>$D7-C25</f>
+      <c r="E23" s="45">
+        <f>$D7-C23</f>
         <v>13.120091954022989</v>
       </c>
-      <c r="F25" s="55">
-        <f>$D6+C25</f>
+      <c r="F23" s="47">
+        <f>$D6+C23</f>
         <v>4.296574712643678</v>
       </c>
-      <c r="G25" s="56">
+      <c r="G23" s="48">
         <f t="shared" si="0"/>
         <v>291.08140651909349</v>
       </c>
-      <c r="H25" s="56">
+      <c r="H23" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I25" s="56">
+      <c r="I23" s="48">
         <f t="shared" si="2"/>
         <v>14.498885412146816</v>
       </c>
-      <c r="J25" s="56">
+      <c r="J23" s="48">
         <f t="shared" si="3"/>
         <v>24.67036927069724</v>
       </c>
-      <c r="K25" s="56">
+      <c r="K23" s="48">
         <f t="shared" si="4"/>
         <v>177.09614989672778</v>
       </c>
-      <c r="L25" s="56">
+      <c r="L23" s="48">
         <f t="shared" si="5"/>
         <v>226.43688843812225</v>
       </c>
-      <c r="M25" s="56">
-        <f>L25*D4</f>
+      <c r="M23" s="48">
+        <f>L23*D4</f>
         <v>1358.6213306287336</v>
       </c>
-      <c r="N25" s="57">
+      <c r="N23" s="49">
         <f t="shared" si="6"/>
         <v>1.3827126436781612</v>
       </c>
-      <c r="O25" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B25*S$6</f>
+      <c r="O23" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P25" s="58">
-        <f t="shared" si="7"/>
+      <c r="P23" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q25" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q23" s="51">
+        <f t="shared" si="9"/>
         <v>341.69884532883157</v>
       </c>
-      <c r="R25" s="60">
-        <f>Nozzle_Throat_Diameter+B25*S$6</f>
+      <c r="R23" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S25" s="61">
-        <f t="shared" si="9"/>
+      <c r="S23" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="52">
+    <row r="24" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="44">
         <v>8</v>
       </c>
-      <c r="C26" s="53">
-        <f>B26*K4</f>
+      <c r="C24" s="45">
+        <f>B24*K4</f>
         <v>1.005609195402299</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D24" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E26" s="53">
-        <f>$D7-C26</f>
+      <c r="E24" s="45">
+        <f>$D7-C24</f>
         <v>12.994390804597701</v>
       </c>
-      <c r="F26" s="55">
-        <f>$D6+C26</f>
+      <c r="F24" s="47">
+        <f>$D6+C24</f>
         <v>4.4222758620689655</v>
       </c>
-      <c r="G26" s="56">
+      <c r="G24" s="48">
         <f t="shared" si="0"/>
         <v>288.29260995394748</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H24" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I26" s="56">
+      <c r="I24" s="48">
         <f t="shared" si="2"/>
         <v>15.359657875145263</v>
       </c>
-      <c r="J26" s="56">
+      <c r="J24" s="48">
         <f t="shared" si="3"/>
         <v>23.809596807698792</v>
       </c>
-      <c r="K26" s="56">
+      <c r="K24" s="48">
         <f t="shared" si="4"/>
         <v>180.53093319345865</v>
       </c>
-      <c r="L26" s="56">
+      <c r="L24" s="48">
         <f t="shared" si="5"/>
         <v>228.15012680885624</v>
       </c>
-      <c r="M26" s="56">
-        <f>L26*D4</f>
+      <c r="M24" s="48">
+        <f>L24*D4</f>
         <v>1368.9007608531374</v>
       </c>
-      <c r="N26" s="57">
+      <c r="N24" s="49">
         <f t="shared" si="6"/>
         <v>1.3198620689655174</v>
       </c>
-      <c r="O26" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B26*S$6</f>
+      <c r="O24" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P26" s="58">
-        <f t="shared" si="7"/>
+      <c r="P24" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q26" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q24" s="51">
+        <f t="shared" si="9"/>
         <v>344.28416425407738</v>
       </c>
-      <c r="R26" s="60">
-        <f>Nozzle_Throat_Diameter+B26*S$6</f>
+      <c r="R24" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S26" s="61">
-        <f t="shared" si="9"/>
+      <c r="S24" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="52">
+    <row r="25" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="44">
         <v>9</v>
       </c>
-      <c r="C27" s="53">
-        <f>B27*K4</f>
+      <c r="C25" s="45">
+        <f>B25*K4</f>
         <v>1.1313103448275863</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D25" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E27" s="53">
-        <f>$D7-C27</f>
+      <c r="E25" s="45">
+        <f>$D7-C25</f>
         <v>12.868689655172414</v>
       </c>
-      <c r="F27" s="55">
-        <f>$D6+C27</f>
+      <c r="F25" s="47">
+        <f>$D6+C25</f>
         <v>4.547977011494253</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G25" s="48">
         <f t="shared" si="0"/>
         <v>285.5038133888014</v>
       </c>
-      <c r="H27" s="56">
+      <c r="H25" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I27" s="56">
+      <c r="I25" s="48">
         <f t="shared" si="2"/>
         <v>16.24525014370532</v>
       </c>
-      <c r="J27" s="56">
+      <c r="J25" s="48">
         <f t="shared" si="3"/>
         <v>22.924004539138735</v>
       </c>
-      <c r="K27" s="56">
+      <c r="K25" s="48">
         <f t="shared" si="4"/>
         <v>183.86643726794307</v>
       </c>
-      <c r="L27" s="56">
+      <c r="L25" s="48">
         <f t="shared" si="5"/>
         <v>229.71444634622054</v>
       </c>
-      <c r="M27" s="56">
-        <f>L27*D4</f>
+      <c r="M25" s="48">
+        <f>L25*D4</f>
         <v>1378.2866780773234</v>
       </c>
-      <c r="N27" s="57">
+      <c r="N25" s="49">
         <f t="shared" si="6"/>
         <v>1.2570114942528736</v>
       </c>
-      <c r="O27" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B27*S$6</f>
+      <c r="O25" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P27" s="58">
-        <f t="shared" si="7"/>
+      <c r="P25" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q27" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q25" s="51">
+        <f t="shared" si="9"/>
         <v>346.64476098957255</v>
       </c>
-      <c r="R27" s="60">
-        <f>Nozzle_Throat_Diameter+B27*S$6</f>
+      <c r="R25" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S27" s="61">
-        <f t="shared" si="9"/>
+      <c r="S25" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="52">
+    <row r="26" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="44">
         <v>10</v>
       </c>
-      <c r="C28" s="53">
-        <f>B28*K4</f>
+      <c r="C26" s="45">
+        <f>B26*K4</f>
         <v>1.2570114942528736</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D26" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E28" s="53">
-        <f>$D7-C28</f>
+      <c r="E26" s="45">
+        <f>$D7-C26</f>
         <v>12.742988505747126</v>
       </c>
-      <c r="F28" s="55">
-        <f>$D6+C28</f>
+      <c r="F26" s="47">
+        <f>$D6+C26</f>
         <v>4.6736781609195397</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G26" s="48">
         <f t="shared" si="0"/>
         <v>282.71501682365539</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H26" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I26" s="48">
         <f t="shared" si="2"/>
         <v>17.155662217826976</v>
       </c>
-      <c r="J28" s="56">
+      <c r="J26" s="48">
         <f t="shared" si="3"/>
         <v>22.01359246501708</v>
       </c>
-      <c r="K28" s="56">
+      <c r="K26" s="48">
         <f t="shared" si="4"/>
         <v>187.10266212018104</v>
       </c>
-      <c r="L28" s="56">
+      <c r="L26" s="48">
         <f t="shared" si="5"/>
         <v>231.1298470502152</v>
       </c>
-      <c r="M28" s="56">
-        <f>L28*D4</f>
+      <c r="M26" s="48">
+        <f>L26*D4</f>
         <v>1386.7790823012913</v>
       </c>
-      <c r="N28" s="57">
+      <c r="N26" s="49">
         <f t="shared" si="6"/>
         <v>1.1941609195402303</v>
       </c>
-      <c r="O28" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B28*S$6</f>
+      <c r="O26" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P28" s="58">
-        <f t="shared" si="7"/>
+      <c r="P26" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q28" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q26" s="51">
+        <f t="shared" si="9"/>
         <v>348.78063553531712</v>
       </c>
-      <c r="R28" s="60">
-        <f>Nozzle_Throat_Diameter+B28*S$6</f>
+      <c r="R26" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S28" s="61">
-        <f t="shared" si="9"/>
+      <c r="S26" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="52">
+    <row r="27" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="44">
         <v>11</v>
       </c>
-      <c r="C29" s="53">
-        <f>B29*K4</f>
+      <c r="C27" s="45">
+        <f>B27*K4</f>
         <v>1.3827126436781612</v>
       </c>
-      <c r="D29" s="54">
+      <c r="D27" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E29" s="53">
-        <f>$D7-C29</f>
+      <c r="E27" s="45">
+        <f>$D7-C27</f>
         <v>12.617287356321839</v>
       </c>
-      <c r="F29" s="55">
-        <f>$D6+C29</f>
+      <c r="F27" s="47">
+        <f>$D6+C27</f>
         <v>4.7993793103448272</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G27" s="48">
         <f t="shared" si="0"/>
         <v>279.92622025850937</v>
       </c>
-      <c r="H29" s="56">
+      <c r="H27" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I29" s="56">
+      <c r="I27" s="48">
         <f t="shared" si="2"/>
         <v>18.090894097510247</v>
       </c>
-      <c r="J29" s="56">
+      <c r="J27" s="48">
         <f t="shared" si="3"/>
         <v>21.078360585333808</v>
       </c>
-      <c r="K29" s="56">
+      <c r="K27" s="48">
         <f t="shared" si="4"/>
         <v>190.23960775017258</v>
       </c>
-      <c r="L29" s="56">
+      <c r="L27" s="48">
         <f t="shared" si="5"/>
         <v>232.3963289208402</v>
       </c>
-      <c r="M29" s="56">
-        <f>L29*D4</f>
+      <c r="M27" s="48">
+        <f>L27*D4</f>
         <v>1394.3779735250412</v>
       </c>
-      <c r="N29" s="57">
+      <c r="N27" s="49">
         <f t="shared" si="6"/>
         <v>1.1313103448275865</v>
       </c>
-      <c r="O29" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B29*S$6</f>
+      <c r="O27" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P29" s="58">
-        <f t="shared" si="7"/>
+      <c r="P27" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q29" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q27" s="51">
+        <f t="shared" si="9"/>
         <v>350.69178789131109</v>
       </c>
-      <c r="R29" s="60">
-        <f>Nozzle_Throat_Diameter+B29*S$6</f>
+      <c r="R27" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S29" s="61">
-        <f t="shared" si="9"/>
+      <c r="S27" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="52">
+    <row r="28" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="44">
         <v>12</v>
       </c>
-      <c r="C30" s="53">
-        <f>B30*K4</f>
+      <c r="C28" s="45">
+        <f>B28*K4</f>
         <v>1.5084137931034485</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D28" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E30" s="53">
-        <f>$D7-C30</f>
+      <c r="E28" s="45">
+        <f>$D7-C28</f>
         <v>12.491586206896551</v>
       </c>
-      <c r="F30" s="55">
-        <f>$D6+C30</f>
+      <c r="F28" s="47">
+        <f>$D6+C28</f>
         <v>4.9250804597701148</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G28" s="48">
         <f t="shared" si="0"/>
         <v>277.1374236933633</v>
       </c>
-      <c r="H30" s="56">
+      <c r="H28" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I30" s="56">
+      <c r="I28" s="48">
         <f t="shared" si="2"/>
         <v>19.050945782755125</v>
       </c>
-      <c r="J30" s="56">
+      <c r="J28" s="48">
         <f t="shared" si="3"/>
         <v>20.11830890008893</v>
       </c>
-      <c r="K30" s="56">
+      <c r="K28" s="48">
         <f t="shared" si="4"/>
         <v>193.2772741579177</v>
       </c>
-      <c r="L30" s="56">
+      <c r="L28" s="48">
         <f t="shared" si="5"/>
         <v>233.51389195809557</v>
       </c>
-      <c r="M30" s="56">
-        <f>L30*D4</f>
+      <c r="M28" s="48">
+        <f>L28*D4</f>
         <v>1401.0833517485735</v>
       </c>
-      <c r="N30" s="57">
+      <c r="N28" s="49">
         <f t="shared" si="6"/>
         <v>1.0684597701149428</v>
       </c>
-      <c r="O30" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B30*S$6</f>
+      <c r="O28" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P30" s="58">
-        <f t="shared" si="7"/>
+      <c r="P28" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q30" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q28" s="51">
+        <f t="shared" si="9"/>
         <v>352.37821805755448</v>
       </c>
-      <c r="R30" s="60">
-        <f>Nozzle_Throat_Diameter+B30*S$6</f>
+      <c r="R28" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S30" s="61">
-        <f t="shared" si="9"/>
+      <c r="S28" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="52">
+    <row r="29" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="44">
         <v>13</v>
       </c>
-      <c r="C31" s="53">
-        <f>B31*K4</f>
+      <c r="C29" s="45">
+        <f>B29*K4</f>
         <v>1.6341149425287358</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D29" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E31" s="53">
-        <f>$D7-C31</f>
+      <c r="E29" s="45">
+        <f>$D7-C29</f>
         <v>12.365885057471264</v>
       </c>
-      <c r="F31" s="55">
-        <f>$D6+C31</f>
+      <c r="F29" s="47">
+        <f>$D6+C29</f>
         <v>5.0507816091954023</v>
       </c>
-      <c r="G31" s="56">
+      <c r="G29" s="48">
         <f t="shared" si="0"/>
         <v>274.34862712821729</v>
       </c>
-      <c r="H31" s="56">
+      <c r="H29" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I31" s="56">
+      <c r="I29" s="48">
         <f t="shared" si="2"/>
         <v>20.035817273561612</v>
       </c>
-      <c r="J31" s="56">
+      <c r="J29" s="48">
         <f t="shared" si="3"/>
         <v>19.133437409282443</v>
       </c>
-      <c r="K31" s="56">
+      <c r="K29" s="48">
         <f t="shared" si="4"/>
         <v>196.21566134341637</v>
       </c>
-      <c r="L31" s="56">
+      <c r="L29" s="48">
         <f t="shared" si="5"/>
         <v>234.48253616198127</v>
       </c>
-      <c r="M31" s="56">
-        <f>L31*D4</f>
+      <c r="M29" s="48">
+        <f>L29*D4</f>
         <v>1406.8952169718877</v>
       </c>
-      <c r="N31" s="57">
+      <c r="N29" s="49">
         <f t="shared" si="6"/>
         <v>1.005609195402299</v>
       </c>
-      <c r="O31" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B31*S$6</f>
+      <c r="O29" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P31" s="58">
-        <f t="shared" si="7"/>
+      <c r="P29" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q31" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q29" s="51">
+        <f t="shared" si="9"/>
         <v>353.83992603404727</v>
       </c>
-      <c r="R31" s="60">
-        <f>Nozzle_Throat_Diameter+B31*S$6</f>
+      <c r="R29" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S31" s="61">
-        <f t="shared" si="9"/>
+      <c r="S29" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="52">
+    <row r="30" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="44">
         <v>14</v>
       </c>
-      <c r="C32" s="53">
-        <f>B32*K4</f>
+      <c r="C30" s="45">
+        <f>B30*K4</f>
         <v>1.7598160919540233</v>
       </c>
-      <c r="D32" s="54">
+      <c r="D30" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E32" s="53">
-        <f>$D7-C32</f>
+      <c r="E30" s="45">
+        <f>$D7-C30</f>
         <v>12.240183908045976</v>
       </c>
-      <c r="F32" s="55">
-        <f>$D6+C32</f>
+      <c r="F30" s="47">
+        <f>$D6+C30</f>
         <v>5.1764827586206899</v>
       </c>
-      <c r="G32" s="56">
+      <c r="G30" s="48">
         <f t="shared" si="0"/>
         <v>271.55983056307127</v>
       </c>
-      <c r="H32" s="56">
+      <c r="H30" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I32" s="56">
+      <c r="I30" s="48">
         <f t="shared" si="2"/>
         <v>21.045508569929709</v>
       </c>
-      <c r="J32" s="56">
+      <c r="J30" s="48">
         <f t="shared" si="3"/>
         <v>18.123746112914347</v>
       </c>
-      <c r="K32" s="56">
+      <c r="K30" s="48">
         <f t="shared" si="4"/>
         <v>199.05476930666867</v>
       </c>
-      <c r="L32" s="56">
+      <c r="L30" s="48">
         <f t="shared" si="5"/>
         <v>235.30226153249737</v>
       </c>
-      <c r="M32" s="56">
-        <f>L32*D4</f>
+      <c r="M30" s="48">
+        <f>L30*D4</f>
         <v>1411.8135691949842</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N30" s="49">
         <f t="shared" si="6"/>
         <v>0.94275862068965521</v>
       </c>
-      <c r="O32" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B32*S$6</f>
+      <c r="O30" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P32" s="58">
-        <f t="shared" si="7"/>
+      <c r="P30" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q32" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q30" s="51">
+        <f t="shared" si="9"/>
         <v>355.07691182078952</v>
       </c>
-      <c r="R32" s="60">
-        <f>Nozzle_Throat_Diameter+B32*S$6</f>
+      <c r="R30" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S32" s="61">
-        <f t="shared" si="9"/>
+      <c r="S30" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="33" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="52">
+    <row r="31" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="44">
         <v>15</v>
       </c>
-      <c r="C33" s="53">
-        <f>B33*K4</f>
+      <c r="C31" s="45">
+        <f>B31*K4</f>
         <v>1.8855172413793106</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D31" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E33" s="53">
-        <f>$D7-C33</f>
+      <c r="E31" s="45">
+        <f>$D7-C31</f>
         <v>12.114482758620689</v>
       </c>
-      <c r="F33" s="55">
-        <f>$D6+C33</f>
+      <c r="F31" s="47">
+        <f>$D6+C31</f>
         <v>5.3021839080459774</v>
       </c>
-      <c r="G33" s="56">
+      <c r="G31" s="48">
         <f t="shared" si="0"/>
         <v>268.7710339979252</v>
       </c>
-      <c r="H33" s="56">
+      <c r="H31" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I33" s="56">
+      <c r="I31" s="48">
         <f t="shared" si="2"/>
         <v>22.080019671859411</v>
       </c>
-      <c r="J33" s="56">
+      <c r="J31" s="48">
         <f t="shared" si="3"/>
         <v>17.089235010984645</v>
       </c>
-      <c r="K33" s="56">
+      <c r="K31" s="48">
         <f t="shared" si="4"/>
         <v>201.7945980476745</v>
       </c>
-      <c r="L33" s="56">
+      <c r="L31" s="48">
         <f t="shared" si="5"/>
         <v>235.97306806964377</v>
       </c>
-      <c r="M33" s="56">
-        <f>L33*D4</f>
+      <c r="M31" s="48">
+        <f>L31*D4</f>
         <v>1415.8384084178626</v>
       </c>
-      <c r="N33" s="57">
+      <c r="N31" s="49">
         <f t="shared" si="6"/>
         <v>0.87990804597701144</v>
       </c>
-      <c r="O33" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B33*S$6</f>
+      <c r="O31" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P33" s="58">
-        <f t="shared" si="7"/>
+      <c r="P31" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q33" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q31" s="51">
+        <f t="shared" si="9"/>
         <v>356.08917541778112</v>
       </c>
-      <c r="R33" s="60">
-        <f>Nozzle_Throat_Diameter+B33*S$6</f>
+      <c r="R31" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S33" s="61">
-        <f t="shared" si="9"/>
+      <c r="S31" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="34" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="52">
+    <row r="32" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="44">
         <v>16</v>
       </c>
-      <c r="C34" s="53">
-        <f>B34*K4</f>
+      <c r="C32" s="45">
+        <f>B32*K4</f>
         <v>2.011218390804598</v>
       </c>
-      <c r="D34" s="54">
+      <c r="D32" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E34" s="53">
-        <f>$D7-C34</f>
+      <c r="E32" s="45">
+        <f>$D7-C32</f>
         <v>11.988781609195403</v>
       </c>
-      <c r="F34" s="55">
-        <f>$D6+C34</f>
+      <c r="F32" s="47">
+        <f>$D6+C32</f>
         <v>5.4278850574712649</v>
       </c>
-      <c r="G34" s="56">
+      <c r="G32" s="48">
         <f t="shared" si="0"/>
         <v>265.98223743277924</v>
       </c>
-      <c r="H34" s="56">
+      <c r="H32" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I34" s="56">
+      <c r="I32" s="48">
         <f t="shared" si="2"/>
         <v>23.139350579350722</v>
       </c>
-      <c r="J34" s="56">
+      <c r="J32" s="48">
         <f t="shared" si="3"/>
         <v>16.029904103493333</v>
       </c>
-      <c r="K34" s="56">
+      <c r="K32" s="48">
         <f t="shared" si="4"/>
         <v>204.43514756643393</v>
       </c>
-      <c r="L34" s="56">
+      <c r="L32" s="48">
         <f t="shared" si="5"/>
         <v>236.4949557734206</v>
       </c>
-      <c r="M34" s="56">
-        <f>L34*D4</f>
+      <c r="M32" s="48">
+        <f>L32*D4</f>
         <v>1418.9697346405237</v>
       </c>
-      <c r="N34" s="57">
+      <c r="N32" s="49">
         <f t="shared" si="6"/>
         <v>0.81705747126436767</v>
       </c>
-      <c r="O34" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B34*S$6</f>
+      <c r="O32" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P34" s="58">
-        <f t="shared" si="7"/>
+      <c r="P32" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q34" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q32" s="51">
+        <f t="shared" si="9"/>
         <v>356.87671682502224</v>
       </c>
-      <c r="R34" s="60">
-        <f>Nozzle_Throat_Diameter+B34*S$6</f>
+      <c r="R32" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S34" s="61">
-        <f t="shared" si="9"/>
+      <c r="S32" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="35" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="52">
+    <row r="33" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="44">
         <v>17</v>
       </c>
-      <c r="C35" s="53">
-        <f>B35*K4</f>
+      <c r="C33" s="45">
+        <f>B33*K4</f>
         <v>2.1369195402298855</v>
       </c>
-      <c r="D35" s="54">
+      <c r="D33" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E35" s="53">
-        <f>$D7-C35</f>
+      <c r="E33" s="45">
+        <f>$D7-C33</f>
         <v>11.863080459770114</v>
       </c>
-      <c r="F35" s="55">
-        <f>$D6+C35</f>
+      <c r="F33" s="47">
+        <f>$D6+C33</f>
         <v>5.5535862068965525</v>
       </c>
-      <c r="G35" s="56">
+      <c r="G33" s="48">
         <f t="shared" si="0"/>
         <v>263.19344086763317</v>
       </c>
-      <c r="H35" s="56">
+      <c r="H33" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I35" s="56">
+      <c r="I33" s="48">
         <f t="shared" si="2"/>
         <v>24.223501292403643</v>
       </c>
-      <c r="J35" s="56">
+      <c r="J33" s="48">
         <f t="shared" si="3"/>
         <v>14.945753390440412</v>
       </c>
-      <c r="K35" s="56">
+      <c r="K33" s="48">
         <f t="shared" si="4"/>
         <v>206.97641786294685</v>
       </c>
-      <c r="L35" s="56">
+      <c r="L33" s="48">
         <f t="shared" si="5"/>
         <v>236.86792464382768</v>
       </c>
-      <c r="M35" s="56">
-        <f>L35*D4</f>
+      <c r="M33" s="48">
+        <f>L33*D4</f>
         <v>1421.2075478629661</v>
       </c>
-      <c r="N35" s="57">
+      <c r="N33" s="49">
         <f t="shared" si="6"/>
         <v>0.7542068965517239</v>
       </c>
-      <c r="O35" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B35*S$6</f>
+      <c r="O33" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P35" s="58">
-        <f t="shared" si="7"/>
+      <c r="P33" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q35" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q33" s="51">
+        <f t="shared" si="9"/>
         <v>357.4395360425126</v>
       </c>
-      <c r="R35" s="60">
-        <f>Nozzle_Throat_Diameter+B35*S$6</f>
+      <c r="R33" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S35" s="61">
-        <f t="shared" si="9"/>
+      <c r="S33" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="36" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="52">
+    <row r="34" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="44">
         <v>18</v>
       </c>
-      <c r="C36" s="53">
-        <f>B36*K4</f>
+      <c r="C34" s="45">
+        <f>B34*K4</f>
         <v>2.2626206896551726</v>
       </c>
-      <c r="D36" s="54">
+      <c r="D34" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E36" s="53">
-        <f>$D7-C36</f>
+      <c r="E34" s="45">
+        <f>$D7-C34</f>
         <v>11.737379310344828</v>
       </c>
-      <c r="F36" s="55">
-        <f>$D6+C36</f>
+      <c r="F34" s="47">
+        <f>$D6+C34</f>
         <v>5.6792873563218391</v>
       </c>
-      <c r="G36" s="56">
+      <c r="G34" s="48">
         <f t="shared" si="0"/>
         <v>260.40464430248716</v>
       </c>
-      <c r="H36" s="56">
+      <c r="H34" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I36" s="56">
+      <c r="I34" s="48">
         <f t="shared" si="2"/>
         <v>25.332471811018163</v>
       </c>
-      <c r="J36" s="56">
+      <c r="J34" s="48">
         <f t="shared" si="3"/>
         <v>13.836782871825893</v>
       </c>
-      <c r="K36" s="56">
+      <c r="K34" s="48">
         <f t="shared" si="4"/>
         <v>209.4184089372134</v>
       </c>
-      <c r="L36" s="56">
+      <c r="L34" s="48">
         <f t="shared" si="5"/>
         <v>237.09197468086518</v>
       </c>
-      <c r="M36" s="56">
-        <f>L36*D4</f>
+      <c r="M34" s="48">
+        <f>L34*D4</f>
         <v>1422.5518480851911</v>
       </c>
-      <c r="N36" s="57">
+      <c r="N34" s="49">
         <f t="shared" si="6"/>
         <v>0.69135632183908058</v>
       </c>
-      <c r="O36" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B36*S$6</f>
+      <c r="O34" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P36" s="58">
-        <f t="shared" si="7"/>
+      <c r="P34" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q36" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q34" s="51">
+        <f t="shared" si="9"/>
         <v>357.77763307025248</v>
       </c>
-      <c r="R36" s="60">
-        <f>Nozzle_Throat_Diameter+B36*S$6</f>
+      <c r="R34" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S36" s="61">
-        <f t="shared" si="9"/>
+      <c r="S34" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="37" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="52">
+    <row r="35" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="44">
         <v>19</v>
       </c>
-      <c r="C37" s="53">
-        <f>B37*K4</f>
+      <c r="C35" s="45">
+        <f>B35*K4</f>
         <v>2.3883218390804601</v>
       </c>
-      <c r="D37" s="54">
+      <c r="D35" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E37" s="53">
-        <f>$D7-C37</f>
+      <c r="E35" s="45">
+        <f>$D7-C35</f>
         <v>11.61167816091954</v>
       </c>
-      <c r="F37" s="55">
-        <f>$D6+C37</f>
+      <c r="F35" s="47">
+        <f>$D6+C35</f>
         <v>5.8049885057471267</v>
       </c>
-      <c r="G37" s="56">
+      <c r="G35" s="48">
         <f t="shared" si="0"/>
         <v>257.61584773734114</v>
       </c>
-      <c r="H37" s="56">
+      <c r="H35" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I37" s="56">
+      <c r="I35" s="48">
         <f t="shared" si="2"/>
         <v>26.466262135194295</v>
       </c>
-      <c r="J37" s="56">
+      <c r="J35" s="48">
         <f t="shared" si="3"/>
         <v>12.70299254764976</v>
       </c>
-      <c r="K37" s="56">
+      <c r="K35" s="48">
         <f t="shared" si="4"/>
         <v>211.7611207892335</v>
       </c>
-      <c r="L37" s="56">
+      <c r="L35" s="48">
         <f t="shared" si="5"/>
         <v>237.16710588453302</v>
       </c>
-      <c r="M37" s="56">
-        <f>L37*D4</f>
+      <c r="M35" s="48">
+        <f>L35*D4</f>
         <v>1423.002635307198</v>
       </c>
-      <c r="N37" s="57">
+      <c r="N35" s="49">
         <f t="shared" si="6"/>
         <v>0.62850574712643681</v>
       </c>
-      <c r="O37" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B37*S$6</f>
+      <c r="O35" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P37" s="58">
-        <f t="shared" si="7"/>
+      <c r="P35" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q37" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q35" s="51">
+        <f t="shared" si="9"/>
         <v>357.8910079082417</v>
       </c>
-      <c r="R37" s="60">
-        <f>Nozzle_Throat_Diameter+B37*S$6</f>
+      <c r="R35" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S37" s="61">
-        <f t="shared" si="9"/>
+      <c r="S35" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="52">
+    <row r="36" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="44">
         <v>20</v>
       </c>
-      <c r="C38" s="53">
-        <f>B38*K4</f>
+      <c r="C36" s="45">
+        <f>B36*K4</f>
         <v>2.5140229885057472</v>
       </c>
-      <c r="D38" s="54">
+      <c r="D36" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E38" s="53">
-        <f>$D7-C38</f>
+      <c r="E36" s="45">
+        <f>$D7-C36</f>
         <v>11.485977011494253</v>
       </c>
-      <c r="F38" s="55">
-        <f>$D6+C38</f>
+      <c r="F36" s="47">
+        <f>$D6+C36</f>
         <v>5.9306896551724133</v>
       </c>
-      <c r="G38" s="56">
+      <c r="G36" s="48">
         <f t="shared" si="0"/>
         <v>254.82705117219507</v>
       </c>
-      <c r="H38" s="56">
+      <c r="H36" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I38" s="56">
+      <c r="I36" s="48">
         <f t="shared" si="2"/>
         <v>27.62487226493203</v>
       </c>
-      <c r="J38" s="56">
+      <c r="J36" s="48">
         <f t="shared" si="3"/>
         <v>11.544382417912026</v>
       </c>
-      <c r="K38" s="56">
+      <c r="K36" s="48">
         <f t="shared" si="4"/>
         <v>214.00455341900712</v>
       </c>
-      <c r="L38" s="56">
+      <c r="L36" s="48">
         <f t="shared" si="5"/>
         <v>237.09331825483116</v>
       </c>
-      <c r="M38" s="56">
-        <f>L38*D4</f>
+      <c r="M36" s="48">
+        <f>L36*D4</f>
         <v>1422.559909528987</v>
       </c>
-      <c r="N38" s="57">
+      <c r="N36" s="49">
         <f t="shared" si="6"/>
         <v>0.56565517241379348</v>
       </c>
-      <c r="O38" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B38*S$6</f>
+      <c r="O36" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P38" s="58">
-        <f t="shared" si="7"/>
+      <c r="P36" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q38" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q36" s="51">
+        <f t="shared" si="9"/>
         <v>357.77966055648034</v>
       </c>
-      <c r="R38" s="60">
-        <f>Nozzle_Throat_Diameter+B38*S$6</f>
+      <c r="R36" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S38" s="61">
-        <f t="shared" si="9"/>
+      <c r="S36" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="39" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="52">
+    <row r="37" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="44">
         <v>21</v>
       </c>
-      <c r="C39" s="53">
-        <f>B39*K4</f>
+      <c r="C37" s="45">
+        <f>B37*K4</f>
         <v>2.6397241379310348</v>
       </c>
-      <c r="D39" s="54">
+      <c r="D37" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E39" s="53">
-        <f>$D7-C39</f>
+      <c r="E37" s="45">
+        <f>$D7-C37</f>
         <v>11.360275862068965</v>
       </c>
-      <c r="F39" s="55">
-        <f>$D6+C39</f>
+      <c r="F37" s="47">
+        <f>$D6+C37</f>
         <v>6.0563908045977008</v>
       </c>
-      <c r="G39" s="56">
+      <c r="G37" s="48">
         <f t="shared" si="0"/>
         <v>252.03825460704905</v>
       </c>
-      <c r="H39" s="56">
+      <c r="H37" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I39" s="56">
+      <c r="I37" s="48">
         <f t="shared" si="2"/>
         <v>28.808302200231378</v>
       </c>
-      <c r="J39" s="56">
+      <c r="J37" s="48">
         <f t="shared" si="3"/>
         <v>10.360952482612678</v>
       </c>
-      <c r="K39" s="56">
+      <c r="K37" s="48">
         <f t="shared" si="4"/>
         <v>216.14870682653438</v>
       </c>
-      <c r="L39" s="56">
+      <c r="L37" s="48">
         <f t="shared" si="5"/>
         <v>236.87061179175973</v>
       </c>
-      <c r="M39" s="56">
-        <f>L39*D4</f>
+      <c r="M37" s="48">
+        <f>L37*D4</f>
         <v>1421.2236707505583</v>
       </c>
-      <c r="N39" s="57">
+      <c r="N37" s="49">
         <f t="shared" si="6"/>
         <v>0.50280459770114971</v>
       </c>
-      <c r="O39" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B39*S$6</f>
+      <c r="O37" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P39" s="58">
-        <f t="shared" si="7"/>
+      <c r="P37" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q39" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q37" s="51">
+        <f t="shared" si="9"/>
         <v>357.44359101496843</v>
       </c>
-      <c r="R39" s="60">
-        <f>Nozzle_Throat_Diameter+B39*S$6</f>
+      <c r="R37" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S39" s="61">
-        <f t="shared" si="9"/>
+      <c r="S37" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="40" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="52">
+    <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="44">
         <v>22</v>
       </c>
-      <c r="C40" s="53">
-        <f>B40*K4</f>
+      <c r="C38" s="45">
+        <f>B38*K4</f>
         <v>2.7654252873563223</v>
       </c>
-      <c r="D40" s="54">
+      <c r="D38" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E40" s="53">
-        <f>$D7-C40</f>
+      <c r="E38" s="45">
+        <f>$D7-C38</f>
         <v>11.234574712643678</v>
       </c>
-      <c r="F40" s="55">
-        <f>$D6+C40</f>
+      <c r="F38" s="47">
+        <f>$D6+C38</f>
         <v>6.1820919540229884</v>
       </c>
-      <c r="G40" s="56">
+      <c r="G38" s="48">
         <f t="shared" si="0"/>
         <v>249.24945804190301</v>
       </c>
-      <c r="H40" s="56">
+      <c r="H38" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I40" s="56">
+      <c r="I38" s="48">
         <f t="shared" si="2"/>
         <v>30.016551941092338</v>
       </c>
-      <c r="J40" s="56">
+      <c r="J38" s="48">
         <f t="shared" si="3"/>
         <v>9.1527027417517175</v>
       </c>
-      <c r="K40" s="56">
+      <c r="K38" s="48">
         <f t="shared" si="4"/>
         <v>218.19358101181518</v>
       </c>
-      <c r="L40" s="56">
+      <c r="L38" s="48">
         <f t="shared" si="5"/>
         <v>236.4989864953186</v>
       </c>
-      <c r="M40" s="56">
-        <f>L40*D4</f>
+      <c r="M38" s="48">
+        <f>L38*D4</f>
         <v>1418.9939189719116</v>
       </c>
-      <c r="N40" s="57">
+      <c r="N38" s="49">
         <f t="shared" si="6"/>
         <v>0.43995402298850594</v>
       </c>
-      <c r="O40" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B40*S$6</f>
+      <c r="O38" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P40" s="58">
-        <f t="shared" si="7"/>
+      <c r="P38" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q40" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q38" s="51">
+        <f t="shared" si="9"/>
         <v>356.88279928370594</v>
       </c>
-      <c r="R40" s="60">
-        <f>Nozzle_Throat_Diameter+B40*S$6</f>
+      <c r="R38" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S40" s="61">
-        <f t="shared" si="9"/>
+      <c r="S38" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="41" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="52">
+    <row r="39" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="44">
         <v>23</v>
       </c>
-      <c r="C41" s="53">
-        <f>B41*K4</f>
+      <c r="C39" s="45">
+        <f>B39*K4</f>
         <v>2.8911264367816094</v>
       </c>
-      <c r="D41" s="54">
+      <c r="D39" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E41" s="53">
-        <f>$D7-C41</f>
+      <c r="E39" s="45">
+        <f>$D7-C39</f>
         <v>11.10887356321839</v>
       </c>
-      <c r="F41" s="55">
-        <f>$D6+C41</f>
+      <c r="F39" s="47">
+        <f>$D6+C39</f>
         <v>6.3077931034482759</v>
       </c>
-      <c r="G41" s="56">
+      <c r="G39" s="48">
         <f t="shared" si="0"/>
         <v>246.46066147675697</v>
       </c>
-      <c r="H41" s="56">
+      <c r="H39" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I41" s="56">
+      <c r="I39" s="48">
         <f t="shared" si="2"/>
         <v>31.249621487514897</v>
       </c>
-      <c r="J41" s="56">
+      <c r="J39" s="48">
         <f t="shared" si="3"/>
         <v>7.9196331953291583</v>
       </c>
-      <c r="K41" s="56">
+      <c r="K39" s="48">
         <f t="shared" si="4"/>
         <v>220.13917597484959</v>
       </c>
-      <c r="L41" s="56">
+      <c r="L39" s="48">
         <f t="shared" si="5"/>
         <v>235.9784423655079</v>
       </c>
-      <c r="M41" s="56">
-        <f>L41*D4</f>
+      <c r="M39" s="48">
+        <f>L39*D4</f>
         <v>1415.8706541930474</v>
       </c>
-      <c r="N41" s="57">
+      <c r="N39" s="49">
         <f t="shared" si="6"/>
         <v>0.37710344827586217</v>
       </c>
-      <c r="O41" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B41*S$6</f>
+      <c r="O39" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P41" s="58">
-        <f t="shared" si="7"/>
+      <c r="P39" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q41" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q39" s="51">
+        <f t="shared" si="9"/>
         <v>356.0972853626929</v>
       </c>
-      <c r="R41" s="60">
-        <f>Nozzle_Throat_Diameter+B41*S$6</f>
+      <c r="R39" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S41" s="61">
-        <f t="shared" si="9"/>
+      <c r="S39" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="42" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="52">
+    <row r="40" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="44">
         <v>24</v>
       </c>
-      <c r="C42" s="53">
-        <f>B42*K4</f>
+      <c r="C40" s="45">
+        <f>B40*K4</f>
         <v>3.0168275862068969</v>
       </c>
-      <c r="D42" s="54">
+      <c r="D40" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E42" s="53">
-        <f>$D7-C42</f>
+      <c r="E40" s="45">
+        <f>$D7-C40</f>
         <v>10.983172413793103</v>
       </c>
-      <c r="F42" s="55">
-        <f>$D6+C42</f>
+      <c r="F40" s="47">
+        <f>$D6+C40</f>
         <v>6.4334942528735635</v>
       </c>
-      <c r="G42" s="56">
+      <c r="G40" s="48">
         <f t="shared" si="0"/>
         <v>243.67186491161095</v>
       </c>
-      <c r="H42" s="56">
+      <c r="H40" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I42" s="56">
+      <c r="I40" s="48">
         <f t="shared" si="2"/>
         <v>32.507510839499076</v>
       </c>
-      <c r="J42" s="56">
+      <c r="J40" s="48">
         <f t="shared" si="3"/>
         <v>6.6617438433449792</v>
       </c>
-      <c r="K42" s="56">
+      <c r="K40" s="48">
         <f t="shared" si="4"/>
         <v>221.98549171563752</v>
       </c>
-      <c r="L42" s="56">
+      <c r="L40" s="48">
         <f t="shared" si="5"/>
         <v>235.30897940232748</v>
       </c>
-      <c r="M42" s="56">
-        <f>L42*D4</f>
+      <c r="M40" s="48">
+        <f>L40*D4</f>
         <v>1411.8538764139648</v>
       </c>
-      <c r="N42" s="57">
+      <c r="N40" s="49">
         <f t="shared" si="6"/>
         <v>0.3142528735632184</v>
       </c>
-      <c r="O42" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B42*S$6</f>
+      <c r="O40" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P42" s="58">
-        <f t="shared" si="7"/>
+      <c r="P40" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q42" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q40" s="51">
+        <f t="shared" si="9"/>
         <v>355.08704925192916</v>
       </c>
-      <c r="R42" s="60">
-        <f>Nozzle_Throat_Diameter+B42*S$6</f>
+      <c r="R40" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S42" s="61">
-        <f t="shared" si="9"/>
+      <c r="S40" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="43" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="52">
+    <row r="41" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="44">
         <v>25</v>
       </c>
-      <c r="C43" s="53">
-        <f>B43*K4</f>
+      <c r="C41" s="45">
+        <f>B41*K4</f>
         <v>3.1425287356321845</v>
       </c>
-      <c r="D43" s="54">
+      <c r="D41" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E43" s="53">
-        <f>$D7-C43</f>
+      <c r="E41" s="45">
+        <f>$D7-C41</f>
         <v>10.857471264367815</v>
       </c>
-      <c r="F43" s="55">
-        <f>$D6+C43</f>
+      <c r="F41" s="47">
+        <f>$D6+C41</f>
         <v>6.559195402298851</v>
       </c>
-      <c r="G43" s="56">
+      <c r="G41" s="48">
         <f t="shared" si="0"/>
         <v>240.88306834646491</v>
       </c>
-      <c r="H43" s="56">
+      <c r="H41" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I43" s="56">
+      <c r="I41" s="48">
         <f t="shared" si="2"/>
         <v>33.790219997044858</v>
       </c>
-      <c r="J43" s="56">
+      <c r="J41" s="48">
         <f t="shared" si="3"/>
         <v>5.3790346857991977</v>
       </c>
-      <c r="K43" s="56">
+      <c r="K41" s="48">
         <f t="shared" si="4"/>
         <v>223.73252823417906</v>
       </c>
-      <c r="L43" s="56">
+      <c r="L41" s="48">
         <f t="shared" si="5"/>
         <v>234.49059760577745</v>
       </c>
-      <c r="M43" s="56">
-        <f>L43*D4</f>
+      <c r="M41" s="48">
+        <f>L41*D4</f>
         <v>1406.9435856346647</v>
       </c>
-      <c r="N43" s="57">
+      <c r="N41" s="49">
         <f t="shared" si="6"/>
         <v>0.25140229885057463</v>
       </c>
-      <c r="O43" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B43*S$6</f>
+      <c r="O41" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P43" s="58">
-        <f t="shared" si="7"/>
+      <c r="P41" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q43" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q41" s="51">
+        <f t="shared" si="9"/>
         <v>353.85209095141494</v>
       </c>
-      <c r="R43" s="60">
-        <f>Nozzle_Throat_Diameter+B43*S$6</f>
+      <c r="R41" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S43" s="61">
-        <f t="shared" si="9"/>
+      <c r="S41" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="44" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="52">
+    <row r="42" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="44">
         <v>26</v>
       </c>
-      <c r="C44" s="53">
-        <f>B44*K4</f>
+      <c r="C42" s="45">
+        <f>B42*K4</f>
         <v>3.2682298850574716</v>
       </c>
-      <c r="D44" s="54">
+      <c r="D42" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E44" s="53">
-        <f>$D7-C44</f>
+      <c r="E42" s="45">
+        <f>$D7-C42</f>
         <v>10.731770114942528</v>
       </c>
-      <c r="F44" s="55">
-        <f>$D6+C44</f>
+      <c r="F42" s="47">
+        <f>$D6+C42</f>
         <v>6.6848965517241385</v>
       </c>
-      <c r="G44" s="56">
+      <c r="G42" s="48">
         <f t="shared" si="0"/>
         <v>238.09427178131887</v>
       </c>
-      <c r="H44" s="56">
+      <c r="H42" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I44" s="56">
+      <c r="I42" s="48">
         <f t="shared" si="2"/>
         <v>35.097748960152245</v>
       </c>
-      <c r="J44" s="56">
+      <c r="J42" s="48">
         <f t="shared" si="3"/>
         <v>4.0715057226918105</v>
       </c>
-      <c r="K44" s="56">
+      <c r="K42" s="48">
         <f t="shared" si="4"/>
         <v>225.38028553047411</v>
       </c>
-      <c r="L44" s="56">
+      <c r="L42" s="48">
         <f t="shared" si="5"/>
         <v>233.52329697585773</v>
       </c>
-      <c r="M44" s="56">
-        <f>L44*D4</f>
+      <c r="M42" s="48">
+        <f>L42*D4</f>
         <v>1401.1397818551463</v>
       </c>
-      <c r="N44" s="57">
+      <c r="N42" s="49">
         <f t="shared" si="6"/>
         <v>0.18855172413793087</v>
       </c>
-      <c r="O44" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B44*S$6</f>
+      <c r="O42" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P44" s="58">
-        <f t="shared" si="7"/>
+      <c r="P42" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q44" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q42" s="51">
+        <f t="shared" si="9"/>
         <v>352.39241046115001</v>
       </c>
-      <c r="R44" s="60">
-        <f>Nozzle_Throat_Diameter+B44*S$6</f>
+      <c r="R42" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S44" s="61">
-        <f t="shared" si="9"/>
+      <c r="S42" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="45" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="52">
+    <row r="43" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="44">
         <v>27</v>
       </c>
-      <c r="C45" s="53">
-        <f>B45*K4</f>
+      <c r="C43" s="45">
+        <f>B43*K4</f>
         <v>3.3939310344827591</v>
       </c>
-      <c r="D45" s="54">
+      <c r="D43" s="46">
         <f>D5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E45" s="53">
-        <f>$D7-C45</f>
+      <c r="E43" s="45">
+        <f>$D7-C43</f>
         <v>10.606068965517242</v>
       </c>
-      <c r="F45" s="55">
-        <f>$D6+C45</f>
+      <c r="F43" s="47">
+        <f>$D6+C43</f>
         <v>6.8105977011494261</v>
       </c>
-      <c r="G45" s="56">
+      <c r="G43" s="48">
         <f t="shared" si="0"/>
         <v>235.30547521617288</v>
       </c>
-      <c r="H45" s="56">
+      <c r="H43" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I45" s="56">
+      <c r="I43" s="48">
         <f t="shared" si="2"/>
         <v>36.430097728821245</v>
       </c>
-      <c r="J45" s="56">
+      <c r="J43" s="48">
         <f t="shared" si="3"/>
         <v>2.7391569540228105</v>
       </c>
-      <c r="K45" s="56">
+      <c r="K43" s="48">
         <f t="shared" si="4"/>
         <v>226.9287636045228</v>
       </c>
-      <c r="L45" s="56">
+      <c r="L43" s="48">
         <f t="shared" si="5"/>
         <v>232.40707751256843</v>
       </c>
-      <c r="M45" s="56">
-        <f>L45*D4</f>
+      <c r="M43" s="48">
+        <f>L43*D4</f>
         <v>1394.4424650754106</v>
       </c>
-      <c r="N45" s="57">
+      <c r="N43" s="49">
         <f t="shared" si="6"/>
         <v>0.1257011494252871</v>
       </c>
-      <c r="O45" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B45*S$6</f>
+      <c r="O43" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P45" s="58">
-        <f t="shared" si="7"/>
+      <c r="P43" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q45" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q43" s="51">
+        <f t="shared" si="9"/>
         <v>350.7080077811346</v>
       </c>
-      <c r="R45" s="60">
-        <f>Nozzle_Throat_Diameter+B45*S$6</f>
+      <c r="R43" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S45" s="61">
-        <f t="shared" si="9"/>
+      <c r="S43" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="46" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="52">
+    <row r="44" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="44">
         <v>28</v>
       </c>
-      <c r="C46" s="53">
-        <f>B46*$K$4</f>
+      <c r="C44" s="45">
+        <f>B44*$K$4</f>
         <v>3.5196321839080467</v>
       </c>
-      <c r="D46" s="54">
-        <f t="shared" ref="D46:D47" si="10">$D$5</f>
+      <c r="D44" s="46">
+        <f t="shared" ref="D44:D45" si="12">$D$5</f>
         <v>7.0620000000000003</v>
       </c>
-      <c r="E46" s="53">
-        <f t="shared" ref="E46:E47" si="11">$D$7-C46</f>
+      <c r="E44" s="45">
+        <f t="shared" ref="E44:E45" si="13">$D$7-C44</f>
         <v>10.480367816091952</v>
       </c>
-      <c r="F46" s="55">
-        <f t="shared" ref="F46:F47" si="12">$D$6+C46</f>
+      <c r="F44" s="47">
+        <f t="shared" ref="F44:F45" si="14">$D$6+C44</f>
         <v>6.9362988505747136</v>
       </c>
-      <c r="G46" s="56">
+      <c r="G44" s="48">
         <f t="shared" si="0"/>
         <v>232.51667865102681</v>
       </c>
-      <c r="H46" s="56">
+      <c r="H44" s="48">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I46" s="56">
+      <c r="I44" s="48">
         <f t="shared" si="2"/>
         <v>37.787266303051851</v>
       </c>
-      <c r="J46" s="56">
+      <c r="J44" s="48">
         <f t="shared" si="3"/>
         <v>1.3819883797922046</v>
       </c>
-      <c r="K46" s="56">
+      <c r="K44" s="48">
         <f t="shared" si="4"/>
         <v>228.37796245632498</v>
       </c>
-      <c r="L46" s="56">
+      <c r="L44" s="48">
         <f t="shared" si="5"/>
         <v>231.14193921590939</v>
       </c>
-      <c r="M46" s="56">
-        <f t="shared" ref="M46:M47" si="13">L46*$D$4</f>
+      <c r="M44" s="48">
+        <f t="shared" ref="M44:M45" si="15">L44*$D$4</f>
         <v>1386.8516352954564</v>
       </c>
-      <c r="N46" s="57">
+      <c r="N44" s="49">
         <f t="shared" si="6"/>
         <v>6.2850574712643326E-2</v>
       </c>
-      <c r="O46" s="58">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B46*S$6</f>
+      <c r="O44" s="50">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P46" s="58">
-        <f t="shared" si="7"/>
+      <c r="P44" s="50">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q46" s="59">
-        <f t="shared" si="8"/>
+      <c r="Q44" s="51">
+        <f t="shared" si="9"/>
         <v>348.79888291136848</v>
       </c>
-      <c r="R46" s="60">
-        <f>Nozzle_Throat_Diameter+B46*S$6</f>
+      <c r="R44" s="52">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S46" s="61">
-        <f t="shared" si="9"/>
+      <c r="S44" s="53">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
-    <row r="47" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="62">
+    <row r="45" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="54">
         <v>29</v>
       </c>
-      <c r="C47" s="63">
-        <f>B47*$K$4</f>
+      <c r="C45" s="55">
+        <f>B45*$K$4</f>
         <v>3.6453333333333338</v>
       </c>
-      <c r="D47" s="64">
-        <f t="shared" si="10"/>
-        <v>7.0620000000000003</v>
-      </c>
-      <c r="E47" s="63">
-        <f t="shared" si="11"/>
-        <v>10.354666666666667</v>
-      </c>
-      <c r="F47" s="65">
+      <c r="D45" s="56">
         <f t="shared" si="12"/>
         <v>7.0620000000000003</v>
       </c>
-      <c r="G47" s="66">
+      <c r="E45" s="55">
+        <f t="shared" si="13"/>
+        <v>10.354666666666667</v>
+      </c>
+      <c r="F45" s="57">
+        <f t="shared" si="14"/>
+        <v>7.0620000000000003</v>
+      </c>
+      <c r="G45" s="58">
         <f t="shared" si="0"/>
         <v>229.72788208588082</v>
       </c>
-      <c r="H47" s="66">
+      <c r="H45" s="58">
         <f t="shared" si="1"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="I47" s="66">
+      <c r="I45" s="58">
         <f t="shared" si="2"/>
         <v>39.169254682844056</v>
       </c>
-      <c r="J47" s="66">
+      <c r="J45" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K47" s="66">
+      <c r="K45" s="58">
         <f t="shared" si="4"/>
         <v>229.72788208588082</v>
       </c>
-      <c r="L47" s="66">
+      <c r="L45" s="58">
         <f t="shared" si="5"/>
         <v>229.72788208588082</v>
       </c>
-      <c r="M47" s="66">
-        <f t="shared" si="13"/>
+      <c r="M45" s="58">
+        <f t="shared" si="15"/>
         <v>1378.367292515285</v>
       </c>
-      <c r="N47" s="67">
+      <c r="N45" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O47" s="68">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B47*S$6</f>
+      <c r="O45" s="60">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P47" s="68">
-        <f t="shared" si="7"/>
+      <c r="P45" s="60">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
-      <c r="Q47" s="69">
-        <f t="shared" si="8"/>
+      <c r="Q45" s="61">
+        <f t="shared" si="9"/>
         <v>346.66503585185194</v>
       </c>
-      <c r="R47" s="70">
-        <f>Nozzle_Throat_Diameter+B47*S$6</f>
+      <c r="R45" s="62">
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="S47" s="71">
-        <f t="shared" si="9"/>
+      <c r="S45" s="63">
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
+    <row r="46" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+    </row>
+    <row r="47" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+    </row>
     <row r="48" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="29"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
-      <c r="L48" s="29"/>
+      <c r="E48" s="29"/>
       <c r="M48" s="29"/>
       <c r="N48" s="29"/>
       <c r="O48" s="29"/>
       <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
     </row>
     <row r="49" spans="3:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="29"/>
@@ -15704,37 +15881,11 @@
       <c r="P993" s="29"/>
       <c r="Q993" s="29"/>
     </row>
-    <row r="994" spans="3:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C994" s="29"/>
-      <c r="D994" s="29"/>
-      <c r="E994" s="29"/>
-      <c r="M994" s="29"/>
-      <c r="N994" s="29"/>
-      <c r="O994" s="29"/>
-      <c r="P994" s="29"/>
-      <c r="Q994" s="29"/>
-    </row>
-    <row r="995" spans="3:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C995" s="29"/>
-      <c r="D995" s="29"/>
-      <c r="E995" s="29"/>
-      <c r="M995" s="29"/>
-      <c r="N995" s="29"/>
-      <c r="O995" s="29"/>
-      <c r="P995" s="29"/>
-      <c r="Q995" s="29"/>
-    </row>
+    <row r="994" spans="3:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" spans="3:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" spans="3:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" spans="3:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" spans="3:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
+  <mergeCells count="43">
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="F3:G5"/>
@@ -15750,24 +15901,41 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="T2:U3"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="I2:P2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D14:E15">
+  <conditionalFormatting sqref="T2:U3">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",D14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",T2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",D14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",T2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15780,7 +15948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -15861,7 +16029,7 @@
         <v>702.64610466323245</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15990,7 +16158,7 @@
     </row>
     <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="10">
-        <f>'Bates Grain Kn Calculator'!Q18</f>
+        <f>'Bates Grain Kn Calculator'!Q16</f>
         <v>317.30939153909469</v>
       </c>
       <c r="C8" s="12">
@@ -15998,7 +16166,7 @@
         <v>575.1148430950891</v>
       </c>
       <c r="D8" s="13">
-        <f>'Bates Grain Kn Calculator'!P18</f>
+        <f>'Bates Grain Kn Calculator'!P16</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E8" s="1">
@@ -16010,7 +16178,7 @@
         <v>3473.6613816813619</v>
       </c>
       <c r="G8" s="14">
-        <f>'Bates Grain Kn Calculator'!N18-'Bates Grain Kn Calculator'!N19</f>
+        <f>'Bates Grain Kn Calculator'!N16-'Bates Grain Kn Calculator'!N17</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H8" s="12">
@@ -16037,7 +16205,7 @@
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10">
-        <f>'Bates Grain Kn Calculator'!Q19</f>
+        <f>'Bates Grain Kn Calculator'!Q17</f>
         <v>321.46776579259461</v>
       </c>
       <c r="C9" s="15">
@@ -16045,7 +16213,7 @@
         <v>590.65076875914372</v>
       </c>
       <c r="D9" s="13">
-        <f>'Bates Grain Kn Calculator'!P19</f>
+        <f>'Bates Grain Kn Calculator'!P17</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E9" s="1">
@@ -16057,7 +16225,7 @@
         <v>3577.5181221814914</v>
       </c>
       <c r="G9" s="14">
-        <f>'Bates Grain Kn Calculator'!N19-'Bates Grain Kn Calculator'!N20</f>
+        <f>'Bates Grain Kn Calculator'!N17-'Bates Grain Kn Calculator'!N18</f>
         <v>6.2850574712643548E-2</v>
       </c>
       <c r="H9" s="15">
@@ -16084,7 +16252,7 @@
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10">
-        <f>'Bates Grain Kn Calculator'!Q20</f>
+        <f>'Bates Grain Kn Calculator'!Q18</f>
         <v>325.40141785634387</v>
       </c>
       <c r="C10" s="15">
@@ -16092,7 +16260,7 @@
         <v>605.73320700939644</v>
       </c>
       <c r="D10" s="13">
-        <f>'Bates Grain Kn Calculator'!P20</f>
+        <f>'Bates Grain Kn Calculator'!P18</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E10" s="1">
@@ -16104,7 +16272,7 @@
         <v>3678.4666582882714</v>
       </c>
       <c r="G10" s="14">
-        <f>'Bates Grain Kn Calculator'!N20-'Bates Grain Kn Calculator'!N21</f>
+        <f>'Bates Grain Kn Calculator'!N18-'Bates Grain Kn Calculator'!N19</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H10" s="15">
@@ -16131,7 +16299,7 @@
     </row>
     <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10">
-        <f>'Bates Grain Kn Calculator'!Q21</f>
+        <f>'Bates Grain Kn Calculator'!Q19</f>
         <v>329.11034773034254</v>
       </c>
       <c r="C11" s="15">
@@ -16139,7 +16307,7 @@
         <v>620.30660324232576</v>
       </c>
       <c r="D11" s="13">
-        <f>'Bates Grain Kn Calculator'!P21</f>
+        <f>'Bates Grain Kn Calculator'!P19</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E11" s="1">
@@ -16151,7 +16319,7 @@
         <v>3776.1202529437273</v>
       </c>
       <c r="G11" s="14">
-        <f>'Bates Grain Kn Calculator'!N21-'Bates Grain Kn Calculator'!N22</f>
+        <f>'Bates Grain Kn Calculator'!N19-'Bates Grain Kn Calculator'!N20</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H11" s="15">
@@ -16178,7 +16346,7 @@
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10">
-        <f>'Bates Grain Kn Calculator'!Q22</f>
+        <f>'Bates Grain Kn Calculator'!Q20</f>
         <v>332.59455541459073</v>
       </c>
       <c r="C12" s="15">
@@ -16186,7 +16354,7 @@
         <v>634.3162508336834</v>
       </c>
       <c r="D12" s="13">
-        <f>'Bates Grain Kn Calculator'!P22</f>
+        <f>'Bates Grain Kn Calculator'!P20</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E12" s="1">
@@ -16198,7 +16366,7 @@
         <v>3870.0973717525544</v>
       </c>
       <c r="G12" s="14">
-        <f>'Bates Grain Kn Calculator'!N22-'Bates Grain Kn Calculator'!N23</f>
+        <f>'Bates Grain Kn Calculator'!N20-'Bates Grain Kn Calculator'!N21</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H12" s="15">
@@ -16225,7 +16393,7 @@
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10">
-        <f>'Bates Grain Kn Calculator'!Q23</f>
+        <f>'Bates Grain Kn Calculator'!Q21</f>
         <v>335.85404090908833</v>
       </c>
       <c r="C13" s="15">
@@ -16233,7 +16401,7 @@
         <v>647.70863017371903</v>
       </c>
       <c r="D13" s="13">
-        <f>'Bates Grain Kn Calculator'!P23</f>
+        <f>'Bates Grain Kn Calculator'!P21</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E13" s="1">
@@ -16245,7 +16413,7 @@
         <v>3960.0241320906525</v>
       </c>
       <c r="G13" s="14">
-        <f>'Bates Grain Kn Calculator'!N23-'Bates Grain Kn Calculator'!N24</f>
+        <f>'Bates Grain Kn Calculator'!N21-'Bates Grain Kn Calculator'!N22</f>
         <v>6.2850574712643326E-2</v>
       </c>
       <c r="H13" s="15">
@@ -16272,7 +16440,7 @@
     </row>
     <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10">
-        <f>'Bates Grain Kn Calculator'!Q24</f>
+        <f>'Bates Grain Kn Calculator'!Q22</f>
         <v>338.88880421383521</v>
       </c>
       <c r="C14" s="15">
@@ -16280,7 +16448,7 @@
         <v>660.43174696738538</v>
       </c>
       <c r="D14" s="13">
-        <f>'Bates Grain Kn Calculator'!P24</f>
+        <f>'Bates Grain Kn Calculator'!P22</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E14" s="1">
@@ -16292,7 +16460,7 @@
         <v>4045.5367510012306</v>
       </c>
       <c r="G14" s="14">
-        <f>'Bates Grain Kn Calculator'!N24-'Bates Grain Kn Calculator'!N25</f>
+        <f>'Bates Grain Kn Calculator'!N22-'Bates Grain Kn Calculator'!N23</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H14" s="15">
@@ -16319,7 +16487,7 @@
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10">
-        <f>'Bates Grain Kn Calculator'!Q25</f>
+        <f>'Bates Grain Kn Calculator'!Q23</f>
         <v>341.69884532883157</v>
       </c>
       <c r="C15" s="15">
@@ -16327,7 +16495,7 @@
         <v>672.43546683081513</v>
       </c>
       <c r="D15" s="13">
-        <f>'Bates Grain Kn Calculator'!P25</f>
+        <f>'Bates Grain Kn Calculator'!P23</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E15" s="1">
@@ -16339,7 +16507,7 @@
         <v>4126.2839699645874</v>
       </c>
       <c r="G15" s="14">
-        <f>'Bates Grain Kn Calculator'!N25-'Bates Grain Kn Calculator'!N26</f>
+        <f>'Bates Grain Kn Calculator'!N23-'Bates Grain Kn Calculator'!N24</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H15" s="15">
@@ -16366,7 +16534,7 @@
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10">
-        <f>'Bates Grain Kn Calculator'!Q26</f>
+        <f>'Bates Grain Kn Calculator'!Q24</f>
         <v>344.28416425407738</v>
       </c>
       <c r="C16" s="15">
@@ -16374,7 +16542,7 @@
         <v>683.67184318821376</v>
       </c>
       <c r="D16" s="13">
-        <f>'Bates Grain Kn Calculator'!P26</f>
+        <f>'Bates Grain Kn Calculator'!P24</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E16" s="1">
@@ -16386,7 +16554,7 @@
         <v>4201.9294343753118</v>
       </c>
       <c r="G16" s="14">
-        <f>'Bates Grain Kn Calculator'!N26-'Bates Grain Kn Calculator'!N27</f>
+        <f>'Bates Grain Kn Calculator'!N24-'Bates Grain Kn Calculator'!N25</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H16" s="15">
@@ -16413,7 +16581,7 @@
     </row>
     <row r="17" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10">
-        <f>'Bates Grain Kn Calculator'!Q27</f>
+        <f>'Bates Grain Kn Calculator'!Q25</f>
         <v>346.64476098957255</v>
       </c>
       <c r="C17" s="15">
@@ -16421,7 +16589,7 @@
         <v>694.09543548046304</v>
       </c>
       <c r="D17" s="13">
-        <f>'Bates Grain Kn Calculator'!P27</f>
+        <f>'Bates Grain Kn Calculator'!P25</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E17" s="1">
@@ -16433,7 +16601,7 @@
         <v>4272.1540055689065</v>
       </c>
       <c r="G17" s="14">
-        <f>'Bates Grain Kn Calculator'!N27-'Bates Grain Kn Calculator'!N28</f>
+        <f>'Bates Grain Kn Calculator'!N25-'Bates Grain Kn Calculator'!N26</f>
         <v>6.2850574712643326E-2</v>
       </c>
       <c r="H17" s="15">
@@ -16460,7 +16628,7 @@
     </row>
     <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10">
-        <f>'Bates Grain Kn Calculator'!Q28</f>
+        <f>'Bates Grain Kn Calculator'!Q26</f>
         <v>348.78063553531712</v>
       </c>
       <c r="C18" s="15">
@@ -16468,7 +16636,7 @@
         <v>703.66361473867153</v>
       </c>
       <c r="D18" s="13">
-        <f>'Bates Grain Kn Calculator'!P28</f>
+        <f>'Bates Grain Kn Calculator'!P26</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E18" s="1">
@@ -16480,7 +16648,7 @@
         <v>4336.6579835129041</v>
       </c>
       <c r="G18" s="14">
-        <f>'Bates Grain Kn Calculator'!N28-'Bates Grain Kn Calculator'!N29</f>
+        <f>'Bates Grain Kn Calculator'!N26-'Bates Grain Kn Calculator'!N27</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H18" s="15">
@@ -16507,7 +16675,7 @@
     </row>
     <row r="19" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10">
-        <f>'Bates Grain Kn Calculator'!Q29</f>
+        <f>'Bates Grain Kn Calculator'!Q27</f>
         <v>350.69178789131109</v>
       </c>
       <c r="C19" s="15">
@@ -16515,7 +16683,7 @@
         <v>712.33685365283884</v>
       </c>
       <c r="D19" s="13">
-        <f>'Bates Grain Kn Calculator'!P29</f>
+        <f>'Bates Grain Kn Calculator'!P27</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E19" s="1">
@@ -16527,7 +16695,7 @@
         <v>4395.1632188168414</v>
       </c>
       <c r="G19" s="14">
-        <f>'Bates Grain Kn Calculator'!N29-'Bates Grain Kn Calculator'!N30</f>
+        <f>'Bates Grain Kn Calculator'!N27-'Bates Grain Kn Calculator'!N28</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H19" s="15">
@@ -16554,7 +16722,7 @@
     </row>
     <row r="20" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10">
-        <f>'Bates Grain Kn Calculator'!Q30</f>
+        <f>'Bates Grain Kn Calculator'!Q28</f>
         <v>352.37821805755448</v>
       </c>
       <c r="C20" s="15">
@@ -16562,7 +16730,7 @@
         <v>720.07899837729121</v>
       </c>
       <c r="D20" s="13">
-        <f>'Bates Grain Kn Calculator'!P30</f>
+        <f>'Bates Grain Kn Calculator'!P28</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E20" s="1">
@@ -16574,7 +16742,7 @@
         <v>4447.4150935180487</v>
       </c>
       <c r="G20" s="14">
-        <f>'Bates Grain Kn Calculator'!N30-'Bates Grain Kn Calculator'!N31</f>
+        <f>'Bates Grain Kn Calculator'!N28-'Bates Grain Kn Calculator'!N29</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H20" s="15">
@@ -16601,7 +16769,7 @@
     </row>
     <row r="21" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10">
-        <f>'Bates Grain Kn Calculator'!Q31</f>
+        <f>'Bates Grain Kn Calculator'!Q29</f>
         <v>353.83992603404727</v>
       </c>
       <c r="C21" s="15">
@@ -16609,7 +16777,7 @@
         <v>726.85751945969025</v>
       </c>
       <c r="D21" s="13">
-        <f>'Bates Grain Kn Calculator'!P31</f>
+        <f>'Bates Grain Kn Calculator'!P29</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E21" s="1">
@@ -16621,7 +16789,7 @@
         <v>4493.1843511593233</v>
       </c>
       <c r="G21" s="14">
-        <f>'Bates Grain Kn Calculator'!N31-'Bates Grain Kn Calculator'!N32</f>
+        <f>'Bates Grain Kn Calculator'!N29-'Bates Grain Kn Calculator'!N30</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H21" s="15">
@@ -16648,7 +16816,7 @@
     </row>
     <row r="22" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10">
-        <f>'Bates Grain Kn Calculator'!Q32</f>
+        <f>'Bates Grain Kn Calculator'!Q30</f>
         <v>355.07691182078952</v>
       </c>
       <c r="C22" s="15">
@@ -16656,7 +16824,7 @@
         <v>732.64373945781813</v>
       </c>
       <c r="D22" s="13">
-        <f>'Bates Grain Kn Calculator'!P32</f>
+        <f>'Bates Grain Kn Calculator'!P30</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E22" s="1">
@@ -16668,7 +16836,7 @@
         <v>4532.2687579796493</v>
       </c>
       <c r="G22" s="14">
-        <f>'Bates Grain Kn Calculator'!N32-'Bates Grain Kn Calculator'!N33</f>
+        <f>'Bates Grain Kn Calculator'!N30-'Bates Grain Kn Calculator'!N31</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H22" s="15">
@@ -16695,7 +16863,7 @@
     </row>
     <row r="23" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10">
-        <f>'Bates Grain Kn Calculator'!Q33</f>
+        <f>'Bates Grain Kn Calculator'!Q31</f>
         <v>356.08917541778112</v>
       </c>
       <c r="C23" s="15">
@@ -16703,7 +16871,7 @@
         <v>737.41303501612072</v>
       </c>
       <c r="D23" s="13">
-        <f>'Bates Grain Kn Calculator'!P33</f>
+        <f>'Bates Grain Kn Calculator'!P31</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E23" s="1">
@@ -16715,7 +16883,7 @@
         <v>4564.4945785760347</v>
       </c>
       <c r="G23" s="14">
-        <f>'Bates Grain Kn Calculator'!N33-'Bates Grain Kn Calculator'!N34</f>
+        <f>'Bates Grain Kn Calculator'!N31-'Bates Grain Kn Calculator'!N32</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H23" s="15">
@@ -16742,7 +16910,7 @@
     </row>
     <row r="24" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10">
-        <f>'Bates Grain Kn Calculator'!Q34</f>
+        <f>'Bates Grain Kn Calculator'!Q32</f>
         <v>356.87671682502224</v>
       </c>
       <c r="C24" s="15">
@@ -16750,7 +16918,7 @@
         <v>741.14501140978359</v>
       </c>
       <c r="D24" s="13">
-        <f>'Bates Grain Kn Calculator'!P34</f>
+        <f>'Bates Grain Kn Calculator'!P32</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E24" s="1">
@@ -16762,7 +16930,7 @@
         <v>4589.7178511452885</v>
       </c>
       <c r="G24" s="14">
-        <f>'Bates Grain Kn Calculator'!N34-'Bates Grain Kn Calculator'!N35</f>
+        <f>'Bates Grain Kn Calculator'!N32-'Bates Grain Kn Calculator'!N33</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H24" s="15">
@@ -16789,7 +16957,7 @@
     </row>
     <row r="25" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10">
-        <f>'Bates Grain Kn Calculator'!Q35</f>
+        <f>'Bates Grain Kn Calculator'!Q33</f>
         <v>357.4395360425126</v>
       </c>
       <c r="C25" s="15">
@@ -16797,7 +16965,7 @@
         <v>743.82364782513105</v>
       </c>
       <c r="D25" s="13">
-        <f>'Bates Grain Kn Calculator'!P35</f>
+        <f>'Bates Grain Kn Calculator'!P33</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E25" s="1">
@@ -16809,7 +16977,7 @@
         <v>4607.8254493580098</v>
       </c>
       <c r="G25" s="14">
-        <f>'Bates Grain Kn Calculator'!N35-'Bates Grain Kn Calculator'!N36</f>
+        <f>'Bates Grain Kn Calculator'!N33-'Bates Grain Kn Calculator'!N34</f>
         <v>6.2850574712643326E-2</v>
       </c>
       <c r="H25" s="15">
@@ -16836,7 +17004,7 @@
     </row>
     <row r="26" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10">
-        <f>'Bates Grain Kn Calculator'!Q36</f>
+        <f>'Bates Grain Kn Calculator'!Q34</f>
         <v>357.77763307025248</v>
       </c>
       <c r="C26" s="15">
@@ -16844,7 +17012,7 @@
         <v>745.43741192825814</v>
       </c>
       <c r="D26" s="13">
-        <f>'Bates Grain Kn Calculator'!P36</f>
+        <f>'Bates Grain Kn Calculator'!P34</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E26" s="1">
@@ -16856,7 +17024,7 @@
         <v>4618.7359200292767</v>
       </c>
       <c r="G26" s="14">
-        <f>'Bates Grain Kn Calculator'!N36-'Bates Grain Kn Calculator'!N37</f>
+        <f>'Bates Grain Kn Calculator'!N34-'Bates Grain Kn Calculator'!N35</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H26" s="15">
@@ -16883,7 +17051,7 @@
     </row>
     <row r="27" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10">
-        <f>'Bates Grain Kn Calculator'!Q37</f>
+        <f>'Bates Grain Kn Calculator'!Q35</f>
         <v>357.8910079082417</v>
       </c>
       <c r="C27" s="15">
@@ -16891,7 +17059,7 @@
         <v>745.97934257540339</v>
       </c>
       <c r="D27" s="13">
-        <f>'Bates Grain Kn Calculator'!P37</f>
+        <f>'Bates Grain Kn Calculator'!P35</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E27" s="1">
@@ -16903,7 +17071,7 @@
         <v>4622.4000880041103</v>
       </c>
       <c r="G27" s="14">
-        <f>'Bates Grain Kn Calculator'!N37-'Bates Grain Kn Calculator'!N38</f>
+        <f>'Bates Grain Kn Calculator'!N35-'Bates Grain Kn Calculator'!N36</f>
         <v>6.2850574712643326E-2</v>
       </c>
       <c r="H27" s="15">
@@ -16930,7 +17098,7 @@
     </row>
     <row r="28" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10">
-        <f>'Bates Grain Kn Calculator'!Q38</f>
+        <f>'Bates Grain Kn Calculator'!Q36</f>
         <v>357.77966055648034</v>
       </c>
       <c r="C28" s="15">
@@ -16938,7 +17106,7 @@
         <v>745.44709983500479</v>
       </c>
       <c r="D28" s="13">
-        <f>'Bates Grain Kn Calculator'!P38</f>
+        <f>'Bates Grain Kn Calculator'!P36</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E28" s="1">
@@ -16950,7 +17118,7 @@
         <v>4618.8014220426421</v>
       </c>
       <c r="G28" s="14">
-        <f>'Bates Grain Kn Calculator'!N38-'Bates Grain Kn Calculator'!N39</f>
+        <f>'Bates Grain Kn Calculator'!N36-'Bates Grain Kn Calculator'!N37</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H28" s="15">
@@ -16977,7 +17145,7 @@
     </row>
     <row r="29" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10">
-        <f>'Bates Grain Kn Calculator'!Q39</f>
+        <f>'Bates Grain Kn Calculator'!Q37</f>
         <v>357.44359101496843</v>
       </c>
       <c r="C29" s="15">
@@ -16985,7 +17153,7 @@
         <v>743.84298181842735</v>
       </c>
       <c r="D29" s="13">
-        <f>'Bates Grain Kn Calculator'!P39</f>
+        <f>'Bates Grain Kn Calculator'!P37</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E29" s="1">
@@ -16997,7 +17165,7 @@
         <v>4607.9561579380115</v>
       </c>
       <c r="G29" s="14">
-        <f>'Bates Grain Kn Calculator'!N39-'Bates Grain Kn Calculator'!N40</f>
+        <f>'Bates Grain Kn Calculator'!N37-'Bates Grain Kn Calculator'!N38</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H29" s="15">
@@ -17024,7 +17192,7 @@
     </row>
     <row r="30" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10">
-        <f>'Bates Grain Kn Calculator'!Q40</f>
+        <f>'Bates Grain Kn Calculator'!Q38</f>
         <v>356.88279928370594</v>
       </c>
       <c r="C30" s="15">
@@ -17032,7 +17200,7 @@
         <v>741.17390814996736</v>
       </c>
       <c r="D30" s="13">
-        <f>'Bates Grain Kn Calculator'!P40</f>
+        <f>'Bates Grain Kn Calculator'!P38</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E30" s="1">
@@ -17044,7 +17212,7 @@
         <v>4589.9131775982951</v>
       </c>
       <c r="G30" s="14">
-        <f>'Bates Grain Kn Calculator'!N40-'Bates Grain Kn Calculator'!N41</f>
+        <f>'Bates Grain Kn Calculator'!N38-'Bates Grain Kn Calculator'!N39</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H30" s="15">
@@ -17071,7 +17239,7 @@
     </row>
     <row r="31" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10">
-        <f>'Bates Grain Kn Calculator'!Q41</f>
+        <f>'Bates Grain Kn Calculator'!Q39</f>
         <v>356.0972853626929</v>
       </c>
       <c r="C31" s="15">
@@ -17079,7 +17247,7 @@
         <v>737.45137024251028</v>
       </c>
       <c r="D31" s="13">
-        <f>'Bates Grain Kn Calculator'!P41</f>
+        <f>'Bates Grain Kn Calculator'!P39</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E31" s="1">
@@ -17091,7 +17259,7 @@
         <v>4564.7536453385692</v>
       </c>
       <c r="G31" s="14">
-        <f>'Bates Grain Kn Calculator'!N41-'Bates Grain Kn Calculator'!N42</f>
+        <f>'Bates Grain Kn Calculator'!N39-'Bates Grain Kn Calculator'!N40</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H31" s="15">
@@ -17118,7 +17286,7 @@
     </row>
     <row r="32" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10">
-        <f>'Bates Grain Kn Calculator'!Q42</f>
+        <f>'Bates Grain Kn Calculator'!Q40</f>
         <v>355.08704925192916</v>
       </c>
       <c r="C32" s="15">
@@ -17126,7 +17294,7 @@
         <v>732.69134887884354</v>
       </c>
       <c r="D32" s="13">
-        <f>'Bates Grain Kn Calculator'!P42</f>
+        <f>'Bates Grain Kn Calculator'!P40</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E32" s="1">
@@ -17138,7 +17306,7 @@
         <v>4532.5904051275311</v>
       </c>
       <c r="G32" s="14">
-        <f>'Bates Grain Kn Calculator'!N42-'Bates Grain Kn Calculator'!N43</f>
+        <f>'Bates Grain Kn Calculator'!N40-'Bates Grain Kn Calculator'!N41</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H32" s="15">
@@ -17165,7 +17333,7 @@
     </row>
     <row r="33" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10">
-        <f>'Bates Grain Kn Calculator'!Q43</f>
+        <f>'Bates Grain Kn Calculator'!Q41</f>
         <v>353.85209095141494</v>
       </c>
       <c r="C33" s="15">
@@ -17173,7 +17341,7 @@
         <v>726.91419992580643</v>
       </c>
       <c r="D33" s="13">
-        <f>'Bates Grain Kn Calculator'!P43</f>
+        <f>'Bates Grain Kn Calculator'!P41</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E33" s="1">
@@ -17185,7 +17353,7 @@
         <v>4493.5671449822339</v>
       </c>
       <c r="G33" s="14">
-        <f>'Bates Grain Kn Calculator'!N43-'Bates Grain Kn Calculator'!N44</f>
+        <f>'Bates Grain Kn Calculator'!N41-'Bates Grain Kn Calculator'!N42</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H33" s="15">
@@ -17212,7 +17380,7 @@
     </row>
     <row r="34" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10">
-        <f>'Bates Grain Kn Calculator'!Q44</f>
+        <f>'Bates Grain Kn Calculator'!Q42</f>
         <v>352.39241046115001</v>
       </c>
       <c r="C34" s="15">
@@ -17220,7 +17388,7 @@
         <v>720.14450932493742</v>
       </c>
       <c r="D34" s="13">
-        <f>'Bates Grain Kn Calculator'!P44</f>
+        <f>'Bates Grain Kn Calculator'!P42</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E34" s="1">
@@ -17232,7 +17400,7 @@
         <v>4447.8573370716904</v>
       </c>
       <c r="G34" s="14">
-        <f>'Bates Grain Kn Calculator'!N44-'Bates Grain Kn Calculator'!N45</f>
+        <f>'Bates Grain Kn Calculator'!N42-'Bates Grain Kn Calculator'!N43</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H34" s="15">
@@ -17259,7 +17427,7 @@
     </row>
     <row r="35" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="10">
-        <f>'Bates Grain Kn Calculator'!Q45</f>
+        <f>'Bates Grain Kn Calculator'!Q43</f>
         <v>350.7080077811346</v>
       </c>
       <c r="C35" s="15">
@@ -17267,7 +17435,7 @@
         <v>712.41091880509725</v>
       </c>
       <c r="D35" s="13">
-        <f>'Bates Grain Kn Calculator'!P45</f>
+        <f>'Bates Grain Kn Calculator'!P43</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E35" s="1">
@@ -17279,7 +17447,7 @@
         <v>4395.6629643453643</v>
       </c>
       <c r="G35" s="14">
-        <f>'Bates Grain Kn Calculator'!N45-'Bates Grain Kn Calculator'!N46</f>
+        <f>'Bates Grain Kn Calculator'!N43-'Bates Grain Kn Calculator'!N44</f>
         <v>6.285057471264377E-2</v>
       </c>
       <c r="H35" s="15">
@@ -17306,7 +17474,7 @@
     </row>
     <row r="36" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10">
-        <f>'Bates Grain Kn Calculator'!Q46</f>
+        <f>'Bates Grain Kn Calculator'!Q44</f>
         <v>348.79888291136848</v>
       </c>
       <c r="C36" s="15">
@@ -17314,7 +17482,7 @@
         <v>703.74592404579312</v>
       </c>
       <c r="D36" s="13">
-        <f>'Bates Grain Kn Calculator'!P46</f>
+        <f>'Bates Grain Kn Calculator'!P44</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E36" s="1">
@@ -17326,7 +17494,7 @@
         <v>4337.2130466157405</v>
       </c>
       <c r="G36" s="14">
-        <f>'Bates Grain Kn Calculator'!N46-'Bates Grain Kn Calculator'!N47</f>
+        <f>'Bates Grain Kn Calculator'!N44-'Bates Grain Kn Calculator'!N45</f>
         <v>6.2850574712643326E-2</v>
       </c>
       <c r="H36" s="15">
@@ -17353,7 +17521,7 @@
     </row>
     <row r="37" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10">
-        <f>'Bates Grain Kn Calculator'!Q47</f>
+        <f>'Bates Grain Kn Calculator'!Q45</f>
         <v>346.66503585185194</v>
       </c>
       <c r="C37" s="15">
@@ -17361,7 +17529,7 @@
         <v>694.18564728120077</v>
       </c>
       <c r="D37" s="13">
-        <f>'Bates Grain Kn Calculator'!P47</f>
+        <f>'Bates Grain Kn Calculator'!P45</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="E37" s="1">
@@ -17463,7 +17631,7 @@
     </row>
     <row r="43" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -17479,7 +17647,7 @@
     </row>
     <row r="44" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B44" s="26">
         <v>1.4109999999999999E-2</v>
@@ -17495,7 +17663,7 @@
     </row>
     <row r="45" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B45" s="26">
         <v>0.44005699999999998</v>
@@ -17525,7 +17693,7 @@
     </row>
     <row r="48" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -17536,7 +17704,7 @@
     </row>
     <row r="49" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B49">
         <v>75.234999999999999</v>
@@ -17550,7 +17718,7 @@
     </row>
     <row r="50" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B50">
         <v>6.4099999999999999E-3</v>
@@ -26239,7 +26407,7 @@
         <v>7.0620000000000003</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -26255,7 +26423,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C30">
         <f>PI()*((($A$29/2)^2)-((A30/2)^2))</f>
@@ -26273,7 +26441,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C31">
         <f t="shared" ref="C31:C35" si="13">PI()*((($A$29/2)^2)-((A31/2)^2))</f>
@@ -26291,7 +26459,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C32">
         <f t="shared" si="13"/>
@@ -26309,7 +26477,7 @@
         <v>3.4</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C33">
         <f t="shared" si="13"/>
@@ -26327,7 +26495,7 @@
         <v>3.8</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C34">
         <f t="shared" si="13"/>
@@ -26345,7 +26513,7 @@
         <v>4.3</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C35">
         <f t="shared" si="13"/>
@@ -26363,7 +26531,7 @@
         <v>1788.6741339578073</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P36" s="1"/>
     </row>

--- a/Launches/8-inch-flight/Design/Calculations/trunk/Q-8in-motor_calc.xlsx
+++ b/Launches/8-inch-flight/Design/Calculations/trunk/Q-8in-motor_calc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28680" windowHeight="17460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28680" windowHeight="17460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bates Grain Kn Calculator" sheetId="1" r:id="rId1"/>
@@ -393,9 +393,6 @@
     <t>Volume Grain [in^3]</t>
   </si>
   <si>
-    <t>Chart Force</t>
-  </si>
-  <si>
     <t>Total Impulse [lb * s]</t>
   </si>
   <si>
@@ -478,6 +475,9 @@
   </si>
   <si>
     <t>Mean Impulse of Q:</t>
+  </si>
+  <si>
+    <t>Chart Force [lbs]</t>
   </si>
 </sst>
 </file>
@@ -1431,174 +1431,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
@@ -1608,59 +1440,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="3" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="3" applyBorder="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1695,23 +1479,8 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="45" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="48" xfId="4" applyBorder="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1724,27 +1493,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1757,20 +1505,8 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1809,37 +1545,10 @@
     <xf numFmtId="165" fontId="5" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="6" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="6" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="6" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1886,15 +1595,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1902,12 +1602,6 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1920,6 +1614,312 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="6" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="6" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="6" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3989,7 +3989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U996"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -4020,45 +4020,45 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="175" t="s">
+      <c r="C2" s="177"/>
+      <c r="D2" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="174"/>
-      <c r="G2" s="173"/>
-      <c r="I2" s="107" t="s">
+      <c r="E2" s="147"/>
+      <c r="G2" s="87"/>
+      <c r="I2" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="109"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="137"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="92" t="s">
+      <c r="R2" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="92"/>
-      <c r="T2" s="79" t="b">
+      <c r="S2" s="166"/>
+      <c r="T2" s="180" t="b">
         <f>AND(ISNUMBER(D5),ISNUMBER(D6),ISNUMBER(D7),ISNUMBER(D8),ISNUMBER(D9),ISNUMBER(D10),ISNUMBER(D11),ISNUMBER(D12),NOT(ISBLANK($D$5:$D$12)))</f>
         <v>1</v>
       </c>
-      <c r="U2" s="79"/>
+      <c r="U2" s="180"/>
     </row>
     <row r="3" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120" t="s">
+      <c r="C3" s="143"/>
+      <c r="D3" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="121"/>
+      <c r="E3" s="145"/>
       <c r="G3" s="52"/>
       <c r="I3" s="51"/>
       <c r="J3" s="5"/>
@@ -4068,17 +4068,17 @@
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
       <c r="P3" s="7"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="181"/>
+      <c r="U3" s="181"/>
     </row>
     <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="176"/>
-      <c r="I4" s="90" t="s">
+      <c r="G4" s="88"/>
+      <c r="I4" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="91"/>
+      <c r="J4" s="163"/>
       <c r="K4" s="37">
         <f>(($D$6-$D$7))/29</f>
         <v>0.12570114942528737</v>
@@ -4087,72 +4087,72 @@
         <v>58</v>
       </c>
       <c r="M4" s="52"/>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="66"/>
+      <c r="O4" s="155"/>
       <c r="P4" s="48">
         <f>Estimate!L4</f>
         <v>745.97934257540339</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="179"/>
       <c r="D5" s="42">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="I5" s="71" t="s">
+      <c r="G5" s="149"/>
+      <c r="I5" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="165"/>
       <c r="K5" s="38">
         <f>$M$16</f>
         <v>1261.6469550518068</v>
       </c>
       <c r="L5" s="53"/>
       <c r="M5" s="52"/>
-      <c r="N5" s="77" t="s">
+      <c r="N5" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="78"/>
+      <c r="O5" s="175"/>
       <c r="P5" s="49">
         <f>Estimate!L5</f>
         <v>698.39506261096119</v>
       </c>
-      <c r="R5" s="81" t="s">
+      <c r="R5" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="83"/>
+      <c r="S5" s="183"/>
+      <c r="T5" s="183"/>
+      <c r="U5" s="184"/>
     </row>
     <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="172"/>
+      <c r="C6" s="139"/>
       <c r="D6" s="43">
         <v>7.0620000000000003</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="I6" s="71" t="s">
+      <c r="F6" s="150"/>
+      <c r="G6" s="151"/>
+      <c r="I6" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="72"/>
+      <c r="J6" s="165"/>
       <c r="K6" s="39">
         <f>PI()*Nozzle_Throat_Diameter^2/4</f>
         <v>4.0114996593688055</v>
@@ -4161,172 +4161,172 @@
         <v>42</v>
       </c>
       <c r="M6" s="52"/>
-      <c r="N6" s="77" t="s">
+      <c r="N6" s="174" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="78"/>
+      <c r="O6" s="175"/>
       <c r="P6" s="49">
         <f>Estimate!L6</f>
         <v>4622.4000880041103</v>
       </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="84" t="str">
+      <c r="R6" s="185" t="str">
         <f>IF(ISNUMBER($D$5:$D$12), "", "Error: Input Values Must be Numerical")</f>
         <v/>
       </c>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="86"/>
+      <c r="S6" s="186"/>
+      <c r="T6" s="186"/>
+      <c r="U6" s="187"/>
     </row>
     <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="136">
+      <c r="C7" s="139"/>
+      <c r="D7" s="64">
         <f>'Erosive Burning'!S5</f>
         <v>3.4166666666666665</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="101">
+      <c r="F7" s="152">
         <v>3</v>
       </c>
-      <c r="G7" s="102"/>
+      <c r="G7" s="153"/>
       <c r="H7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="72"/>
+      <c r="J7" s="165"/>
       <c r="K7" s="40">
         <f>$Q$16</f>
         <v>317.30939153909469</v>
       </c>
       <c r="L7" s="55"/>
       <c r="M7" s="52"/>
-      <c r="N7" s="77" t="s">
+      <c r="N7" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="78"/>
+      <c r="O7" s="175"/>
       <c r="P7" s="49">
         <f>Estimate!L7</f>
         <v>4301.6910884659092</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="87" t="str">
+      <c r="R7" s="168" t="str">
         <f>IF(NOT(ISBLANK($D$5:$D$12)),"", "Error: Must Enter All Input Values")</f>
         <v/>
       </c>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="89"/>
+      <c r="S7" s="169"/>
+      <c r="T7" s="169"/>
+      <c r="U7" s="170"/>
     </row>
     <row r="8" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="172"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="43">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="190">
         <v>3</v>
       </c>
-      <c r="G8" s="68"/>
+      <c r="G8" s="191"/>
       <c r="H8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="71" t="s">
+      <c r="I8" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="72"/>
+      <c r="J8" s="165"/>
       <c r="K8" s="40">
         <f>MAX(Q17:Q45)</f>
         <v>357.8910079082417</v>
       </c>
       <c r="L8" s="55"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="77" t="s">
+      <c r="N8" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="78"/>
+      <c r="O8" s="175"/>
       <c r="P8" s="49">
         <f>Estimate!L8</f>
         <v>7.5002918665422884</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="87" t="str">
+      <c r="R8" s="168" t="str">
         <f>IF(ISNUMBER($F$7:$F$12), "", "Error: Grain Core Diameter Values Must be Numerical")</f>
         <v/>
       </c>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="89"/>
+      <c r="S8" s="169"/>
+      <c r="T8" s="169"/>
+      <c r="U8" s="170"/>
     </row>
     <row r="9" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="172"/>
+      <c r="C9" s="139"/>
       <c r="D9" s="43">
         <v>2.2599999999999998</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="190">
         <v>3</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="191"/>
       <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="74"/>
+      <c r="J9" s="195"/>
       <c r="K9" s="41">
         <f>$Q$45</f>
         <v>346.66503585185194</v>
       </c>
       <c r="L9" s="55"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="77" t="s">
+      <c r="N9" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="78"/>
+      <c r="O9" s="175"/>
       <c r="P9" s="49">
         <f>Estimate!L9</f>
         <v>32181.177321244992</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="89"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="169"/>
+      <c r="T9" s="169"/>
+      <c r="U9" s="170"/>
     </row>
     <row r="10" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="172"/>
-      <c r="D10" s="136">
+      <c r="C10" s="139"/>
+      <c r="D10" s="64">
         <f>Nozzle_Throat_Diameter</f>
         <v>2.2599999999999998</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="192">
         <v>3.4</v>
       </c>
-      <c r="G10" s="70"/>
+      <c r="G10" s="193"/>
       <c r="H10" s="3" t="s">
         <v>54</v>
       </c>
@@ -4335,41 +4335,41 @@
       <c r="K10" s="56"/>
       <c r="L10" s="54"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="97" t="s">
+      <c r="N10" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="98"/>
+      <c r="O10" s="157"/>
       <c r="P10" s="50">
         <f>MAX('Erosive Burning'!L14:L19)</f>
         <v>1.3003654800962834</v>
       </c>
-      <c r="R10" s="94"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="96"/>
+      <c r="R10" s="171"/>
+      <c r="S10" s="172"/>
+      <c r="T10" s="172"/>
+      <c r="U10" s="173"/>
     </row>
     <row r="11" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="172"/>
+      <c r="C11" s="139"/>
       <c r="D11" s="43">
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="190">
         <v>3.8</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="191"/>
       <c r="H11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="75" t="s">
+      <c r="I11" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="76"/>
+      <c r="J11" s="197"/>
       <c r="K11" s="44">
         <f>((D6*3)+D7)/2</f>
         <v>12.301333333333334</v>
@@ -4383,20 +4383,20 @@
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="190"/>
-      <c r="D12" s="191">
+      <c r="C12" s="141"/>
+      <c r="D12" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="188">
         <v>4.3</v>
       </c>
-      <c r="G12" s="60"/>
+      <c r="G12" s="189"/>
       <c r="H12" s="2" t="s">
         <v>54</v>
       </c>
@@ -4404,21 +4404,21 @@
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
-      <c r="M12" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="N12" s="66"/>
-      <c r="O12" s="103" t="s">
+      <c r="M12" s="154" t="s">
+        <v>135</v>
+      </c>
+      <c r="N12" s="155"/>
+      <c r="O12" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="P12" s="104"/>
+      <c r="P12" s="159"/>
     </row>
     <row r="13" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="134" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="149"/>
-      <c r="D13" s="140">
+      <c r="B13" s="133" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="134"/>
+      <c r="D13" s="68">
         <f>(D10-D9)/29</f>
         <v>0</v>
       </c>
@@ -4426,15 +4426,15 @@
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
       <c r="L13" s="58"/>
-      <c r="M13" s="97" t="s">
-        <v>137</v>
-      </c>
-      <c r="N13" s="98"/>
-      <c r="O13" s="105">
+      <c r="M13" s="156" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" s="157"/>
+      <c r="O13" s="160">
         <f>(36800+18400)/2</f>
         <v>27600</v>
       </c>
-      <c r="P13" s="106"/>
+      <c r="P13" s="161"/>
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L14" s="4"/>
@@ -4550,23 +4550,23 @@
         <v>1.8226666666666669</v>
       </c>
       <c r="O16" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B16*$D$13</f>
+        <f t="shared" ref="O16:O45" si="7">Nozzle_Throat_Diameter-boundry_layer*2+B16*$D$13</f>
         <v>2.25</v>
       </c>
       <c r="P16" s="14">
-        <f t="shared" ref="P16:P45" si="7">PI()*O16^2/4</f>
+        <f t="shared" ref="P16:P45" si="8">PI()*O16^2/4</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q16" s="15">
-        <f t="shared" ref="Q16:Q45" si="8">M16/(P16)</f>
+        <f t="shared" ref="Q16:Q45" si="9">M16/(P16)</f>
         <v>317.30939153909469</v>
       </c>
       <c r="R16" s="16">
-        <f t="shared" ref="R16:R45" si="9">Nozzle_Throat_Diameter+B16*S$6</f>
+        <f t="shared" ref="R16:R45" si="10">Nozzle_Throat_Diameter+B16*S$6</f>
         <v>2.2599999999999998</v>
       </c>
       <c r="S16" s="17">
-        <f t="shared" ref="S16:S45" si="10">PI()*R16^2/4</f>
+        <f t="shared" ref="S16:S45" si="11">PI()*R16^2/4</f>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4623,7 +4623,7 @@
         <v>1.7598160919540231</v>
       </c>
       <c r="O17" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B17*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P17" s="24">
@@ -4631,15 +4631,15 @@
         <v>3.9760782021995817</v>
       </c>
       <c r="Q17" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>321.46776579259461</v>
       </c>
       <c r="R17" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S17" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4696,23 +4696,23 @@
         <v>1.6969655172413796</v>
       </c>
       <c r="O18" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B18*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P18" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q18" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>325.40141785634387</v>
       </c>
       <c r="R18" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S18" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4769,7 +4769,7 @@
         <v>1.6341149425287358</v>
       </c>
       <c r="O19" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B19*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P19" s="24">
@@ -4777,15 +4777,15 @@
         <v>3.9760782021995817</v>
       </c>
       <c r="Q19" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>329.11034773034254</v>
       </c>
       <c r="R19" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S19" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4842,23 +4842,23 @@
         <v>1.571264367816092</v>
       </c>
       <c r="O20" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B20*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P20" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q20" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>332.59455541459073</v>
       </c>
       <c r="R20" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S20" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4915,23 +4915,23 @@
         <v>1.5084137931034483</v>
       </c>
       <c r="O21" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B21*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P21" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q21" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>335.85404090908833</v>
       </c>
       <c r="R21" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S21" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4988,23 +4988,23 @@
         <v>1.4455632183908049</v>
       </c>
       <c r="O22" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B22*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P22" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q22" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>338.88880421383521</v>
       </c>
       <c r="R22" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S22" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5061,23 +5061,23 @@
         <v>1.3827126436781612</v>
       </c>
       <c r="O23" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B23*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P23" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q23" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>341.69884532883157</v>
       </c>
       <c r="R23" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S23" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5134,23 +5134,23 @@
         <v>1.3198620689655174</v>
       </c>
       <c r="O24" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B24*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P24" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q24" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>344.28416425407738</v>
       </c>
       <c r="R24" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S24" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5207,23 +5207,23 @@
         <v>1.2570114942528736</v>
       </c>
       <c r="O25" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B25*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P25" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q25" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>346.64476098957255</v>
       </c>
       <c r="R25" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S25" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5280,23 +5280,23 @@
         <v>1.1941609195402303</v>
       </c>
       <c r="O26" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B26*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P26" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q26" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>348.78063553531712</v>
       </c>
       <c r="R26" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S26" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5353,23 +5353,23 @@
         <v>1.1313103448275865</v>
       </c>
       <c r="O27" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B27*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P27" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q27" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>350.69178789131109</v>
       </c>
       <c r="R27" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S27" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5426,23 +5426,23 @@
         <v>1.0684597701149428</v>
       </c>
       <c r="O28" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B28*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P28" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q28" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>352.37821805755448</v>
       </c>
       <c r="R28" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S28" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5499,23 +5499,23 @@
         <v>1.005609195402299</v>
       </c>
       <c r="O29" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B29*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P29" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q29" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>353.83992603404727</v>
       </c>
       <c r="R29" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S29" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5572,23 +5572,23 @@
         <v>0.94275862068965521</v>
       </c>
       <c r="O30" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B30*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P30" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q30" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>355.07691182078952</v>
       </c>
       <c r="R30" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S30" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5645,23 +5645,23 @@
         <v>0.87990804597701144</v>
       </c>
       <c r="O31" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B31*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P31" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q31" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>356.08917541778112</v>
       </c>
       <c r="R31" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S31" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5718,23 +5718,23 @@
         <v>0.81705747126436767</v>
       </c>
       <c r="O32" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B32*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P32" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q32" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>356.87671682502224</v>
       </c>
       <c r="R32" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S32" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5791,23 +5791,23 @@
         <v>0.7542068965517239</v>
       </c>
       <c r="O33" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B33*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P33" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q33" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>357.4395360425126</v>
       </c>
       <c r="R33" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S33" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5864,23 +5864,23 @@
         <v>0.69135632183908058</v>
       </c>
       <c r="O34" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B34*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P34" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q34" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>357.77763307025248</v>
       </c>
       <c r="R34" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S34" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5937,23 +5937,23 @@
         <v>0.62850574712643681</v>
       </c>
       <c r="O35" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B35*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P35" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q35" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>357.8910079082417</v>
       </c>
       <c r="R35" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S35" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6010,23 +6010,23 @@
         <v>0.56565517241379348</v>
       </c>
       <c r="O36" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B36*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P36" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q36" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>357.77966055648034</v>
       </c>
       <c r="R36" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S36" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6083,23 +6083,23 @@
         <v>0.50280459770114971</v>
       </c>
       <c r="O37" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B37*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P37" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q37" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>357.44359101496843</v>
       </c>
       <c r="R37" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S37" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6156,23 +6156,23 @@
         <v>0.43995402298850594</v>
       </c>
       <c r="O38" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B38*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P38" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q38" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>356.88279928370594</v>
       </c>
       <c r="R38" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S38" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6229,23 +6229,23 @@
         <v>0.37710344827586217</v>
       </c>
       <c r="O39" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B39*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P39" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q39" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>356.0972853626929</v>
       </c>
       <c r="R39" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6302,23 +6302,23 @@
         <v>0.3142528735632184</v>
       </c>
       <c r="O40" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B40*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P40" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q40" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>355.08704925192916</v>
       </c>
       <c r="R40" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S40" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6375,23 +6375,23 @@
         <v>0.25140229885057463</v>
       </c>
       <c r="O41" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B41*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P41" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q41" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>353.85209095141494</v>
       </c>
       <c r="R41" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S41" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6448,23 +6448,23 @@
         <v>0.18855172413793087</v>
       </c>
       <c r="O42" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B42*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P42" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q42" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>352.39241046115001</v>
       </c>
       <c r="R42" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S42" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6521,23 +6521,23 @@
         <v>0.1257011494252871</v>
       </c>
       <c r="O43" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B43*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P43" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q43" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>350.7080077811346</v>
       </c>
       <c r="R43" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S43" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6593,24 +6593,24 @@
         <f t="shared" si="6"/>
         <v>6.2850574712643326E-2</v>
       </c>
-      <c r="O44" s="230">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B44*$D$13</f>
+      <c r="O44" s="128">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P44" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q44" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>348.79888291136848</v>
       </c>
       <c r="R44" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6662,28 +6662,28 @@
         <f>L45*$D$5</f>
         <v>1378.367292515285</v>
       </c>
-      <c r="N45" s="228">
+      <c r="N45" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O45" s="33">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B45*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P45" s="229">
-        <f t="shared" si="7"/>
+      <c r="P45" s="127">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q45" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>346.66503585185194</v>
       </c>
       <c r="R45" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S45" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -16172,6 +16172,37 @@
     <row r="996" spans="3:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="T2:U3"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="R8:U8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="B9:C9"/>
@@ -16188,37 +16219,6 @@
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="T2:U3"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="T2:U3">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
@@ -16238,7 +16238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -16256,36 +16256,36 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
-      <c r="N2" s="162" t="s">
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="222"/>
+      <c r="N2" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="164"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
     </row>
     <row r="3" spans="2:34" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120" t="str">
+      <c r="C3" s="143"/>
+      <c r="D3" s="144" t="str">
         <f>'Bates Grain Kn Calculator'!D3</f>
         <v>Q-Motor</v>
       </c>
-      <c r="E3" s="121"/>
-      <c r="N3" s="158" t="s">
+      <c r="E3" s="145"/>
+      <c r="N3" s="209" t="s">
         <v>107</v>
       </c>
-      <c r="O3" s="159" t="s">
+      <c r="O3" s="211" t="s">
         <v>108</v>
       </c>
       <c r="P3" s="52"/>
@@ -16303,8 +16303,8 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="159"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="211"/>
       <c r="P4" s="52"/>
       <c r="Q4" s="52"/>
       <c r="R4" s="52"/>
@@ -16312,32 +16312,32 @@
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="138">
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="66">
         <f>'Bates Grain Kn Calculator'!D6</f>
         <v>7.0620000000000003</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="192" t="s">
-        <v>126</v>
-      </c>
-      <c r="I5" s="193"/>
-      <c r="J5" s="193"/>
-      <c r="K5" s="194"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="161"/>
+      <c r="H5" s="201" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="203"/>
+      <c r="N5" s="210"/>
+      <c r="O5" s="212"/>
       <c r="P5" s="52"/>
-      <c r="Q5" s="130" t="s">
+      <c r="Q5" s="207" t="s">
         <v>86</v>
       </c>
-      <c r="R5" s="151"/>
-      <c r="S5" s="153">
+      <c r="R5" s="208"/>
+      <c r="S5" s="76">
         <f>SUM(O14+O15+O16+O17+O18+O19+O20+O21+O22+O23)/ng</f>
         <v>3.4166666666666665</v>
       </c>
@@ -16346,43 +16346,43 @@
       </c>
     </row>
     <row r="6" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="216" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="139">
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="67">
         <f>'Bates Grain Kn Calculator'!D8</f>
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="130" t="s">
+      <c r="H6" s="207" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="137">
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="65">
         <v>0.57499999999999996</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="144">
-        <f>PI()*((($R$17/2)^2)-((R18/2)^2))</f>
+      <c r="N6" s="72">
+        <f t="shared" ref="N6:N11" si="0">PI()*((($R$17/2)^2)-((R18/2)^2))</f>
         <v>32.100671212267017</v>
       </c>
-      <c r="O6" s="144">
-        <f>N6*lg</f>
+      <c r="O6" s="72">
+        <f t="shared" ref="O6:O11" si="1">N6*lg</f>
         <v>449.40939697173826</v>
       </c>
       <c r="P6" s="52"/>
-      <c r="Q6" s="132" t="s">
+      <c r="Q6" s="205" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="152"/>
-      <c r="S6" s="154">
+      <c r="R6" s="206"/>
+      <c r="S6" s="77">
         <f>AVERAGE(E14:E19)</f>
         <v>29.811235565963457</v>
       </c>
@@ -16391,42 +16391,42 @@
       </c>
     </row>
     <row r="7" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="216" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="128">
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="62">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="132" t="s">
+      <c r="H7" s="205" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="137">
+      <c r="I7" s="213"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="65">
         <v>0.1</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N7" s="145">
-        <f>PI()*((($R$17/2)^2)-((R19/2)^2))</f>
+      <c r="N7" s="73">
+        <f t="shared" si="0"/>
         <v>32.100671212267017</v>
       </c>
-      <c r="O7" s="145">
-        <f>N7*lg</f>
+      <c r="O7" s="73">
+        <f t="shared" si="1"/>
         <v>449.40939697173826</v>
       </c>
       <c r="P7" s="52"/>
-      <c r="Q7" s="132" t="s">
+      <c r="Q7" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="R7" s="152"/>
-      <c r="S7" s="154">
+      <c r="R7" s="206"/>
+      <c r="S7" s="77">
         <f>(C14+C15+C16+C17+C18+C19)/ng</f>
         <v>3.4166666666666665</v>
       </c>
@@ -16435,43 +16435,43 @@
       </c>
     </row>
     <row r="8" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="216" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="139">
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="67">
         <f>Estimate!D10</f>
         <v>0.25165922323104589</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="132" t="s">
+      <c r="H8" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="137">
+      <c r="I8" s="213"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="65">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="145">
-        <f>PI()*((($R$17/2)^2)-((R20/2)^2))</f>
+      <c r="N8" s="73">
+        <f t="shared" si="0"/>
         <v>32.100671212267017</v>
       </c>
-      <c r="O8" s="145">
-        <f>N8*lg</f>
+      <c r="O8" s="73">
+        <f t="shared" si="1"/>
         <v>449.40939697173826</v>
       </c>
       <c r="P8" s="52"/>
-      <c r="Q8" s="132" t="s">
+      <c r="Q8" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="R8" s="152"/>
-      <c r="S8" s="154">
+      <c r="R8" s="206"/>
+      <c r="S8" s="77">
         <f>SUM(O6:O11)</f>
         <v>2504.1437875409301</v>
       </c>
@@ -16480,94 +16480,94 @@
       </c>
     </row>
     <row r="9" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="216" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="139">
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="67">
         <f>[0]!Num_Grains</f>
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="132" t="s">
+      <c r="H9" s="205" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="137">
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="65">
         <f>PI()/4*ds^2</f>
         <v>0.25967226777328128</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="145">
-        <f>PI()*((($R$17/2)^2)-((R21/2)^2))</f>
+      <c r="N9" s="73">
+        <f t="shared" si="0"/>
         <v>30.090051913969553</v>
       </c>
-      <c r="O9" s="145">
-        <f>N9*lg</f>
+      <c r="O9" s="73">
+        <f t="shared" si="1"/>
         <v>421.26072679557376</v>
       </c>
       <c r="P9" s="52"/>
-      <c r="Q9" s="132" t="s">
+      <c r="Q9" s="205" t="s">
         <v>84</v>
       </c>
-      <c r="R9" s="152"/>
-      <c r="S9" s="154">
+      <c r="R9" s="206"/>
+      <c r="S9" s="77">
         <f>S10*rhop</f>
         <v>147.74448346491488</v>
       </c>
-      <c r="T9" s="156" t="s">
+      <c r="T9" s="79" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="218" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="150">
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="75">
         <f>[0]!boundary_layer</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="132" t="s">
+      <c r="H10" s="205" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="137">
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="65">
         <f>As*sdots</f>
         <v>2.5967226777328128E-2</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N10" s="145">
-        <f>PI()*((($R$17/2)^2)-((R22/2)^2))</f>
+      <c r="N10" s="73">
+        <f t="shared" si="0"/>
         <v>27.828105203384901</v>
       </c>
-      <c r="O10" s="145">
-        <f>N10*lg</f>
+      <c r="O10" s="73">
+        <f t="shared" si="1"/>
         <v>389.59347284738863</v>
       </c>
       <c r="P10" s="52"/>
-      <c r="Q10" s="134" t="s">
+      <c r="Q10" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="149"/>
-      <c r="S10" s="155">
+      <c r="R10" s="134"/>
+      <c r="S10" s="78">
         <f>S8</f>
         <v>2504.1437875409301</v>
       </c>
-      <c r="T10" s="156" t="s">
+      <c r="T10" s="79" t="s">
         <v>81</v>
       </c>
       <c r="AA10" s="3"/>
@@ -16579,43 +16579,43 @@
       <c r="AH10" s="3"/>
     </row>
     <row r="11" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="129">
+      <c r="C11" s="204"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="63">
         <v>1.4</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="134" t="s">
+      <c r="H11" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="140">
+      <c r="I11" s="204"/>
+      <c r="J11" s="204"/>
+      <c r="K11" s="68">
         <f>Vdots*rhos</f>
         <v>1.8177058744129691E-3</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N11" s="146">
-        <f>PI()*((($R$17/2)^2)-((R23/2)^2))</f>
+      <c r="N11" s="74">
+        <f t="shared" si="0"/>
         <v>24.647242641625237</v>
       </c>
-      <c r="O11" s="146">
-        <f>N11*lg</f>
+      <c r="O11" s="74">
+        <f t="shared" si="1"/>
         <v>345.06139698275331</v>
       </c>
       <c r="P11" s="58"/>
       <c r="Q11" s="58"/>
       <c r="R11" s="58"/>
       <c r="S11" s="58"/>
-      <c r="T11" s="157"/>
+      <c r="T11" s="80"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
@@ -16645,49 +16645,49 @@
       <c r="AH12" s="3"/>
     </row>
     <row r="13" spans="2:34" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="116" t="s">
+      <c r="E13" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="116" t="s">
+      <c r="G13" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="116" t="s">
+      <c r="H13" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="116" t="s">
+      <c r="I13" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="116" t="s">
+      <c r="J13" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="116" t="s">
+      <c r="K13" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="116" t="s">
+      <c r="L13" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="116" t="s">
+      <c r="M13" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="116" t="s">
+      <c r="N13" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="O13" s="116" t="s">
+      <c r="O13" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="Q13" s="115"/>
+      <c r="Q13" s="59"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
@@ -16697,621 +16697,621 @@
       <c r="AH13" s="3"/>
     </row>
     <row r="14" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="177">
+      <c r="B14" s="89">
         <v>1</v>
       </c>
-      <c r="C14" s="178">
+      <c r="C14" s="90">
         <f>'Bates Grain Kn Calculator'!F7</f>
         <v>3</v>
       </c>
-      <c r="D14" s="179">
-        <f t="shared" ref="D14:D23" si="0">IF(ig&gt;ng,0,PI()*lg*dc)</f>
+      <c r="D14" s="91">
+        <f t="shared" ref="D14:D23" si="2">IF(ig&gt;ng,0,PI()*lg*dc)</f>
         <v>131.94689145077132</v>
       </c>
-      <c r="E14" s="179">
-        <f t="shared" ref="E14:E23" si="1">IF(ig&gt;ng,0,PI()/4*(dg^2-dc^2))</f>
+      <c r="E14" s="91">
+        <f t="shared" ref="E14:E23" si="3">IF(ig&gt;ng,0,PI()/4*(dg^2-dc^2))</f>
         <v>32.100671212267017</v>
       </c>
-      <c r="F14" s="179">
-        <f t="shared" ref="F14:F23" si="2">IF(ig&gt;ng,0,Acyl+2*Aend)</f>
+      <c r="F14" s="91">
+        <f t="shared" ref="F14:F23" si="4">IF(ig&gt;ng,0,Acyl+2*Aend)</f>
         <v>196.14823387530535</v>
       </c>
-      <c r="G14" s="179">
-        <f t="shared" ref="G14:G23" si="3">Aseg*sdot</f>
+      <c r="G14" s="91">
+        <f t="shared" ref="G14:G23" si="5">Aseg*sdot</f>
         <v>49.36251217520087</v>
       </c>
-      <c r="H14" s="179">
-        <f t="shared" ref="H14:H23" si="4">Aend*sdot</f>
+      <c r="H14" s="91">
+        <f t="shared" ref="H14:H23" si="6">Aend*sdot</f>
         <v>8.0784299824743133</v>
       </c>
-      <c r="I14" s="179">
+      <c r="I14" s="91">
         <f>0+Vdot-Vdote</f>
         <v>41.284082192726558</v>
       </c>
-      <c r="J14" s="179">
-        <f t="shared" ref="J14:J23" si="5">IF(ig&gt;ng,0,VdotAbove*rhop+Wdots)</f>
+      <c r="J14" s="91">
+        <f t="shared" ref="J14:J23" si="7">IF(ig&gt;ng,0,VdotAbove*rhop+Wdots)</f>
         <v>2.4375785552452798</v>
       </c>
-      <c r="K14" s="179">
+      <c r="K14" s="91">
         <f>PI()/4*dc^2</f>
         <v>7.0685834705770345</v>
       </c>
-      <c r="L14" s="179">
+      <c r="L14" s="91">
         <f>WdotAbove/Ac</f>
         <v>0.34484682332629951</v>
       </c>
-      <c r="M14" s="179">
+      <c r="M14" s="91">
         <f>PI()/4*(dc-2*bl)^2</f>
         <v>7.0215381205895282</v>
       </c>
-      <c r="N14" s="179">
+      <c r="N14" s="91">
         <f>WdotAbove/M14</f>
         <v>0.34715734834472717</v>
       </c>
-      <c r="O14" s="180">
-        <f>IF(ig&gt;ng,0,C14)</f>
+      <c r="O14" s="92">
+        <f t="shared" ref="O14:O23" si="8">IF(ig&gt;ng,0,C14)</f>
         <v>3</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="U14" s="3"/>
     </row>
     <row r="15" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="181">
+      <c r="B15" s="93">
         <v>2</v>
       </c>
-      <c r="C15" s="182">
+      <c r="C15" s="94">
         <f>'Bates Grain Kn Calculator'!F8</f>
         <v>3</v>
       </c>
-      <c r="D15" s="183">
-        <f t="shared" si="0"/>
+      <c r="D15" s="95">
+        <f t="shared" si="2"/>
         <v>131.94689145077132</v>
       </c>
-      <c r="E15" s="183">
-        <f t="shared" si="1"/>
+      <c r="E15" s="95">
+        <f t="shared" si="3"/>
         <v>32.100671212267017</v>
       </c>
-      <c r="F15" s="183">
-        <f t="shared" si="2"/>
+      <c r="F15" s="95">
+        <f t="shared" si="4"/>
         <v>196.14823387530535</v>
       </c>
-      <c r="G15" s="183">
-        <f t="shared" si="3"/>
+      <c r="G15" s="95">
+        <f t="shared" si="5"/>
         <v>49.36251217520087</v>
       </c>
-      <c r="H15" s="183">
-        <f t="shared" si="4"/>
+      <c r="H15" s="95">
+        <f t="shared" si="6"/>
         <v>8.0784299824743133</v>
       </c>
-      <c r="I15" s="183">
-        <f t="shared" ref="I15:I23" si="6">IF(ig&gt;ng,0,I14+H14+Vdot-Vdote)</f>
+      <c r="I15" s="95">
+        <f t="shared" ref="I15:I23" si="9">IF(ig&gt;ng,0,I14+H14+Vdot-Vdote)</f>
         <v>90.64659436792742</v>
       </c>
-      <c r="J15" s="183">
-        <f t="shared" si="5"/>
+      <c r="J15" s="95">
+        <f t="shared" si="7"/>
         <v>5.349966773582131</v>
       </c>
-      <c r="K15" s="183">
-        <f t="shared" ref="K15:K23" si="7">IF(ig&gt;ng,0,PI()/4*dc^2)</f>
+      <c r="K15" s="95">
+        <f t="shared" ref="K15:K23" si="10">IF(ig&gt;ng,0,PI()/4*dc^2)</f>
         <v>7.0685834705770345</v>
       </c>
-      <c r="L15" s="183">
-        <f t="shared" ref="L15:L23" si="8">IF(ig&gt;ng,0,WdotAbove/Ac)</f>
+      <c r="L15" s="95">
+        <f t="shared" ref="L15:L23" si="11">IF(ig&gt;ng,0,WdotAbove/Ac)</f>
         <v>0.75686547323821773</v>
       </c>
-      <c r="M15" s="183">
-        <f t="shared" ref="M15:M23" si="9">IF(ig&gt;ng,0,PI()/4*(dc-2*bl)^2)</f>
+      <c r="M15" s="95">
+        <f t="shared" ref="M15:M23" si="12">IF(ig&gt;ng,0,PI()/4*(dc-2*bl)^2)</f>
         <v>7.0215381205895282</v>
       </c>
-      <c r="N15" s="183">
-        <f t="shared" ref="N15:N23" si="10">IF(ig&gt;ng,0,WdotAbove/M15)</f>
+      <c r="N15" s="95">
+        <f t="shared" ref="N15:N23" si="13">IF(ig&gt;ng,0,WdotAbove/M15)</f>
         <v>0.76193658450620905</v>
       </c>
-      <c r="O15" s="184">
-        <f>IF(ig&gt;ng,0,C15)</f>
+      <c r="O15" s="96">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="181">
+      <c r="B16" s="93">
         <v>3</v>
       </c>
-      <c r="C16" s="182">
+      <c r="C16" s="94">
         <f>'Bates Grain Kn Calculator'!F9</f>
         <v>3</v>
       </c>
-      <c r="D16" s="183">
-        <f t="shared" si="0"/>
+      <c r="D16" s="95">
+        <f t="shared" si="2"/>
         <v>131.94689145077132</v>
       </c>
-      <c r="E16" s="183">
-        <f t="shared" si="1"/>
+      <c r="E16" s="95">
+        <f t="shared" si="3"/>
         <v>32.100671212267017</v>
       </c>
-      <c r="F16" s="183">
-        <f t="shared" si="2"/>
+      <c r="F16" s="95">
+        <f t="shared" si="4"/>
         <v>196.14823387530535</v>
       </c>
-      <c r="G16" s="183">
-        <f t="shared" si="3"/>
+      <c r="G16" s="95">
+        <f t="shared" si="5"/>
         <v>49.36251217520087</v>
       </c>
-      <c r="H16" s="183">
-        <f t="shared" si="4"/>
+      <c r="H16" s="95">
+        <f t="shared" si="6"/>
         <v>8.0784299824743133</v>
       </c>
-      <c r="I16" s="183">
-        <f t="shared" si="6"/>
+      <c r="I16" s="95">
+        <f t="shared" si="9"/>
         <v>140.0091065431283</v>
       </c>
-      <c r="J16" s="183">
-        <f t="shared" si="5"/>
+      <c r="J16" s="95">
+        <f t="shared" si="7"/>
         <v>8.2623549919189809</v>
       </c>
-      <c r="K16" s="183">
-        <f t="shared" si="7"/>
+      <c r="K16" s="95">
+        <f t="shared" si="10"/>
         <v>7.0685834705770345</v>
       </c>
-      <c r="L16" s="183">
+      <c r="L16" s="95">
+        <f t="shared" si="11"/>
+        <v>1.1688841231501359</v>
+      </c>
+      <c r="M16" s="95">
+        <f t="shared" si="12"/>
+        <v>7.0215381205895282</v>
+      </c>
+      <c r="N16" s="95">
+        <f t="shared" si="13"/>
+        <v>1.1767158206676906</v>
+      </c>
+      <c r="O16" s="96">
         <f t="shared" si="8"/>
-        <v>1.1688841231501359</v>
-      </c>
-      <c r="M16" s="183">
-        <f t="shared" si="9"/>
-        <v>7.0215381205895282</v>
-      </c>
-      <c r="N16" s="183">
-        <f t="shared" si="10"/>
-        <v>1.1767158206676906</v>
-      </c>
-      <c r="O16" s="184">
-        <f>IF(ig&gt;ng,0,C16)</f>
         <v>3</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="181">
+      <c r="B17" s="93">
         <v>4</v>
       </c>
-      <c r="C17" s="182">
+      <c r="C17" s="94">
         <f>'Bates Grain Kn Calculator'!F10</f>
         <v>3.4</v>
       </c>
-      <c r="D17" s="183">
-        <f t="shared" si="0"/>
+      <c r="D17" s="95">
+        <f t="shared" si="2"/>
         <v>149.53981031087415</v>
       </c>
-      <c r="E17" s="183">
-        <f t="shared" si="1"/>
+      <c r="E17" s="95">
+        <f t="shared" si="3"/>
         <v>30.090051913969553</v>
       </c>
-      <c r="F17" s="183">
-        <f t="shared" si="2"/>
+      <c r="F17" s="95">
+        <f t="shared" si="4"/>
         <v>209.71991413881324</v>
       </c>
-      <c r="G17" s="183">
-        <f t="shared" si="3"/>
+      <c r="G17" s="95">
+        <f t="shared" si="5"/>
         <v>52.77795068825538</v>
       </c>
-      <c r="H17" s="183">
-        <f t="shared" si="4"/>
+      <c r="H17" s="95">
+        <f t="shared" si="6"/>
         <v>7.5724390916514235</v>
       </c>
-      <c r="I17" s="183">
-        <f t="shared" si="6"/>
+      <c r="I17" s="95">
+        <f t="shared" si="9"/>
         <v>193.29304812220656</v>
       </c>
-      <c r="J17" s="183">
-        <f t="shared" si="5"/>
+      <c r="J17" s="95">
+        <f t="shared" si="7"/>
         <v>11.406107545084598</v>
       </c>
-      <c r="K17" s="183">
-        <f t="shared" si="7"/>
+      <c r="K17" s="95">
+        <f t="shared" si="10"/>
         <v>9.0792027688745005</v>
       </c>
-      <c r="L17" s="183">
+      <c r="L17" s="95">
+        <f t="shared" si="11"/>
+        <v>1.2562895482615761</v>
+      </c>
+      <c r="M17" s="95">
+        <f t="shared" si="12"/>
+        <v>9.025874233579815</v>
+      </c>
+      <c r="N17" s="95">
+        <f t="shared" si="13"/>
+        <v>1.2637122177760218</v>
+      </c>
+      <c r="O17" s="96">
         <f t="shared" si="8"/>
-        <v>1.2562895482615761</v>
-      </c>
-      <c r="M17" s="183">
-        <f t="shared" si="9"/>
-        <v>9.025874233579815</v>
-      </c>
-      <c r="N17" s="183">
-        <f t="shared" si="10"/>
-        <v>1.2637122177760218</v>
-      </c>
-      <c r="O17" s="184">
-        <f>IF(ig&gt;ng,0,C17)</f>
         <v>3.4</v>
       </c>
-      <c r="Q17" s="141" t="s">
+      <c r="Q17" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="R17" s="138">
+      <c r="R17" s="66">
         <f>'Bates Grain Kn Calculator'!D6</f>
         <v>7.0620000000000003</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="181">
+      <c r="B18" s="93">
         <v>5</v>
       </c>
-      <c r="C18" s="182">
+      <c r="C18" s="94">
         <f>'Bates Grain Kn Calculator'!F11</f>
         <v>3.8</v>
       </c>
-      <c r="D18" s="183">
-        <f t="shared" si="0"/>
+      <c r="D18" s="95">
+        <f t="shared" si="2"/>
         <v>167.13272917097697</v>
       </c>
-      <c r="E18" s="183">
-        <f t="shared" si="1"/>
+      <c r="E18" s="95">
+        <f t="shared" si="3"/>
         <v>27.828105203384901</v>
       </c>
-      <c r="F18" s="183">
-        <f t="shared" si="2"/>
+      <c r="F18" s="95">
+        <f t="shared" si="4"/>
         <v>222.78893957774676</v>
       </c>
-      <c r="G18" s="183">
-        <f t="shared" si="3"/>
+      <c r="G18" s="95">
+        <f t="shared" si="5"/>
         <v>56.06689147860417</v>
       </c>
-      <c r="H18" s="183">
-        <f t="shared" si="4"/>
+      <c r="H18" s="95">
+        <f t="shared" si="6"/>
         <v>7.0031993394756702</v>
       </c>
-      <c r="I18" s="183">
-        <f t="shared" si="6"/>
+      <c r="I18" s="95">
+        <f t="shared" si="9"/>
         <v>249.92917935298652</v>
       </c>
-      <c r="J18" s="183">
-        <f t="shared" si="5"/>
+      <c r="J18" s="95">
+        <f t="shared" si="7"/>
         <v>14.747639287700617</v>
       </c>
-      <c r="K18" s="183">
-        <f t="shared" si="7"/>
+      <c r="K18" s="95">
+        <f t="shared" si="10"/>
         <v>11.341149479459153</v>
       </c>
-      <c r="L18" s="183">
+      <c r="L18" s="95">
+        <f t="shared" si="11"/>
+        <v>1.3003654800962834</v>
+      </c>
+      <c r="M18" s="95">
+        <f t="shared" si="12"/>
+        <v>11.281537758857286</v>
+      </c>
+      <c r="N18" s="95">
+        <f t="shared" si="13"/>
+        <v>1.3072366199476704</v>
+      </c>
+      <c r="O18" s="96">
         <f t="shared" si="8"/>
-        <v>1.3003654800962834</v>
-      </c>
-      <c r="M18" s="183">
-        <f t="shared" si="9"/>
-        <v>11.281537758857286</v>
-      </c>
-      <c r="N18" s="183">
-        <f t="shared" si="10"/>
-        <v>1.3072366199476704</v>
-      </c>
-      <c r="O18" s="184">
-        <f>IF(ig&gt;ng,0,C18)</f>
         <v>3.8</v>
       </c>
-      <c r="Q18" s="142" t="s">
+      <c r="Q18" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="R18" s="139">
-        <f>C14</f>
+      <c r="R18" s="67">
+        <f t="shared" ref="R18:R23" si="14">C14</f>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="181">
+      <c r="B19" s="93">
         <v>6</v>
       </c>
-      <c r="C19" s="182">
+      <c r="C19" s="94">
         <f>'Bates Grain Kn Calculator'!F12</f>
         <v>4.3</v>
       </c>
-      <c r="D19" s="183">
-        <f t="shared" si="0"/>
+      <c r="D19" s="95">
+        <f t="shared" si="2"/>
         <v>189.12387774610553</v>
       </c>
-      <c r="E19" s="183">
-        <f t="shared" si="1"/>
+      <c r="E19" s="95">
+        <f t="shared" si="3"/>
         <v>24.647242641625237</v>
       </c>
-      <c r="F19" s="183">
-        <f t="shared" si="2"/>
+      <c r="F19" s="95">
+        <f t="shared" si="4"/>
         <v>238.41836302935602</v>
       </c>
-      <c r="G19" s="183">
-        <f t="shared" si="3"/>
+      <c r="G19" s="95">
+        <f t="shared" si="5"/>
         <v>60.000180043985246</v>
       </c>
-      <c r="H19" s="183">
-        <f t="shared" si="4"/>
+      <c r="H19" s="95">
+        <f t="shared" si="6"/>
         <v>6.2027059379785188</v>
       </c>
-      <c r="I19" s="183">
-        <f t="shared" si="6"/>
+      <c r="I19" s="95">
+        <f t="shared" si="9"/>
         <v>310.72985279846893</v>
       </c>
-      <c r="J19" s="183">
-        <f t="shared" si="5"/>
+      <c r="J19" s="95">
+        <f t="shared" si="7"/>
         <v>18.334879020984079</v>
       </c>
-      <c r="K19" s="183">
-        <f t="shared" si="7"/>
+      <c r="K19" s="95">
+        <f t="shared" si="10"/>
         <v>14.522012041218817</v>
       </c>
-      <c r="L19" s="183">
+      <c r="L19" s="95">
+        <f t="shared" si="11"/>
+        <v>1.2625577618957307</v>
+      </c>
+      <c r="M19" s="95">
+        <f t="shared" si="12"/>
+        <v>14.454546338982977</v>
+      </c>
+      <c r="N19" s="95">
+        <f t="shared" si="13"/>
+        <v>1.2684506722660742</v>
+      </c>
+      <c r="O19" s="96">
         <f t="shared" si="8"/>
-        <v>1.2625577618957307</v>
-      </c>
-      <c r="M19" s="183">
-        <f t="shared" si="9"/>
-        <v>14.454546338982977</v>
-      </c>
-      <c r="N19" s="183">
-        <f t="shared" si="10"/>
-        <v>1.2684506722660742</v>
-      </c>
-      <c r="O19" s="184">
-        <f>IF(ig&gt;ng,0,C19)</f>
         <v>4.3</v>
       </c>
-      <c r="Q19" s="142" t="s">
+      <c r="Q19" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="R19" s="139">
-        <f>C15</f>
+      <c r="R19" s="67">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="181">
+      <c r="B20" s="93">
         <v>7</v>
       </c>
-      <c r="C20" s="182">
+      <c r="C20" s="94">
         <v>0</v>
       </c>
-      <c r="D20" s="183">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="183">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="183">
+      <c r="D20" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="183">
+      <c r="E20" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H20" s="183">
+      <c r="F20" s="95">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I20" s="183">
+      <c r="G20" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J20" s="183">
+      <c r="I20" s="95">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="95">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="95">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="95">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="95">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="R20" s="67">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="93">
+        <v>8</v>
+      </c>
+      <c r="C21" s="94">
+        <v>0</v>
+      </c>
+      <c r="D21" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="95">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K20" s="183">
+      <c r="H21" s="95">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="95">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="95">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L20" s="183">
+      <c r="K21" s="95">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="95">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="95">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="95">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="96">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M20" s="183">
+      <c r="Q21" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="R21" s="67">
+        <f t="shared" si="14"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="93">
+        <v>9</v>
+      </c>
+      <c r="C22" s="94">
+        <v>0</v>
+      </c>
+      <c r="D22" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="95">
+        <f>IF(ig&gt;ng,0,Acyl+2*Aend)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="95">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="95">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N20" s="183">
+      <c r="J22" s="95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="95">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O20" s="184">
-        <f>IF(ig&gt;ng,0,C20)</f>
+      <c r="L22" s="95">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="142" t="s">
-        <v>76</v>
-      </c>
-      <c r="R20" s="139">
-        <f>C16</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="181">
-        <v>8</v>
-      </c>
-      <c r="C21" s="182">
+      <c r="M22" s="95">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D21" s="183">
-        <f t="shared" si="0"/>
+      <c r="N22" s="95">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E21" s="183">
-        <f t="shared" si="1"/>
+      <c r="O22" s="96">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F21" s="183">
+      <c r="Q22" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="R22" s="67">
+        <f t="shared" si="14"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="97">
+        <v>10</v>
+      </c>
+      <c r="C23" s="98">
+        <v>0</v>
+      </c>
+      <c r="D23" s="99">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G21" s="183">
+      <c r="E23" s="99">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H21" s="183">
+      <c r="F23" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I21" s="183">
+      <c r="G23" s="99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J21" s="183">
-        <f t="shared" si="5"/>
+      <c r="I23" s="99">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K21" s="183">
+      <c r="J23" s="99">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L21" s="183">
+      <c r="K23" s="99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="99">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="100">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M21" s="183">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="183">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="184">
-        <f>IF(ig&gt;ng,0,C21)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="142" t="s">
-        <v>77</v>
-      </c>
-      <c r="R21" s="139">
-        <f>C17</f>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="181">
-        <v>9</v>
-      </c>
-      <c r="C22" s="182">
-        <v>0</v>
-      </c>
-      <c r="D22" s="183">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="183">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="183">
-        <f>IF(ig&gt;ng,0,Acyl+2*Aend)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="183">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="183">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="183">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="183">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="183">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="183">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="183">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="183">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="184">
-        <f>IF(ig&gt;ng,0,C22)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="142" t="s">
-        <v>78</v>
-      </c>
-      <c r="R22" s="139">
-        <f>C18</f>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="185">
-        <v>10</v>
-      </c>
-      <c r="C23" s="186">
-        <v>0</v>
-      </c>
-      <c r="D23" s="187">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="187">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="187">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="187">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="187">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="187">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="187">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="187">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="187">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="187">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="187">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="188">
-        <f>IF(ig&gt;ng,0,C23)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="143" t="s">
+      <c r="Q23" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="R23" s="140">
-        <f>C19</f>
+      <c r="R23" s="68">
+        <f t="shared" si="14"/>
         <v>4.3</v>
       </c>
     </row>
@@ -21225,6 +21225,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B11:D11"/>
@@ -21241,16 +21251,6 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21261,8 +21261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V1007"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21277,15 +21277,15 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="226" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="227"/>
-      <c r="F2" s="198" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="221">
+      <c r="B2" s="233" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="234"/>
+      <c r="F2" s="229" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="230"/>
+      <c r="H2" s="121">
         <v>1.26</v>
       </c>
       <c r="I2" s="3"/>
@@ -21298,191 +21298,191 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="168">
+      <c r="B4" s="207" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="208"/>
+      <c r="D4" s="84">
         <v>9.1</v>
       </c>
-      <c r="F4" s="216" t="s">
+      <c r="F4" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="217"/>
-      <c r="H4" s="218"/>
-      <c r="J4" s="122" t="s">
+      <c r="G4" s="227"/>
+      <c r="H4" s="228"/>
+      <c r="J4" s="214" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="222">
+      <c r="K4" s="215"/>
+      <c r="L4" s="122">
         <f>MAX(D14:D43)</f>
         <v>745.97934257540339</v>
       </c>
-      <c r="M4" s="166"/>
+      <c r="M4" s="82"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="132" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="169">
+      <c r="B5" s="205" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="206"/>
+      <c r="D5" s="85">
         <v>13.43</v>
       </c>
-      <c r="F5" s="124" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="215">
+      <c r="F5" s="216" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="217"/>
+      <c r="H5" s="118">
         <v>1.4109999999999999E-2</v>
       </c>
-      <c r="J5" s="124" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" s="125"/>
-      <c r="L5" s="231">
+      <c r="J5" s="216" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="217"/>
+      <c r="L5" s="129">
         <f>AVERAGE(D14:D43)</f>
         <v>698.39506261096119</v>
       </c>
-      <c r="M5" s="166"/>
+      <c r="M5" s="82"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="132" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="152"/>
-      <c r="D6" s="169">
+      <c r="B6" s="205" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="206"/>
+      <c r="D6" s="85">
         <f>(('Bates Grain Kn Calculator'!D11^2)/4)/((Nozzle_Throat_Diameter^2)/4)</f>
         <v>15.858720338319371</v>
       </c>
-      <c r="F6" s="124" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="215">
+      <c r="F6" s="216" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="217"/>
+      <c r="H6" s="118">
         <v>0.44005699999999998</v>
       </c>
-      <c r="J6" s="124" t="s">
+      <c r="J6" s="216" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="125"/>
-      <c r="L6" s="223">
+      <c r="K6" s="217"/>
+      <c r="L6" s="123">
         <f>MAX(L14:L43)</f>
         <v>4622.4000880041103</v>
       </c>
-      <c r="M6" s="166" t="s">
+      <c r="M6" s="82" t="s">
         <v>56</v>
       </c>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="2:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="132" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="169">
+      <c r="B7" s="205" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="206"/>
+      <c r="D7" s="85">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F7" s="196"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="195"/>
-      <c r="J7" s="124" t="s">
+      <c r="F7" s="231"/>
+      <c r="G7" s="232"/>
+      <c r="H7" s="102"/>
+      <c r="J7" s="216" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="125"/>
-      <c r="L7" s="223">
+      <c r="K7" s="217"/>
+      <c r="L7" s="123">
         <f>AVERAGE(L14:L43)</f>
         <v>4301.6910884659092</v>
       </c>
-      <c r="M7" s="166" t="s">
+      <c r="M7" s="82" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="132" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="169">
+      <c r="B8" s="205" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="206"/>
+      <c r="D8" s="85">
         <f>6*2300</f>
         <v>13800</v>
       </c>
-      <c r="F8" s="216" t="s">
+      <c r="F8" s="226" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="217"/>
-      <c r="H8" s="218"/>
-      <c r="J8" s="124" t="s">
+      <c r="G8" s="227"/>
+      <c r="H8" s="228"/>
+      <c r="J8" s="216" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="125"/>
-      <c r="L8" s="224">
+      <c r="K8" s="217"/>
+      <c r="L8" s="124">
         <f>K43</f>
         <v>7.5002918665422884</v>
       </c>
-      <c r="M8" s="166" t="s">
+      <c r="M8" s="82" t="s">
         <v>57</v>
       </c>
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="132" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="169">
+      <c r="B9" s="205" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="206"/>
+      <c r="D9" s="85">
         <f>AVERAGE(D14:D43)</f>
         <v>698.39506261096119</v>
       </c>
-      <c r="F9" s="124" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="125"/>
-      <c r="H9" s="219">
+      <c r="F9" s="216" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="217"/>
+      <c r="H9" s="119">
         <v>75.234999999999999</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="124" t="s">
+      <c r="J9" s="216" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="125"/>
-      <c r="L9" s="223">
+      <c r="K9" s="217"/>
+      <c r="L9" s="123">
         <f>MAX(M14:M43)</f>
         <v>32181.177321244992</v>
       </c>
-      <c r="M9" s="166" t="s">
-        <v>113</v>
+      <c r="M9" s="82" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="134" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="170">
+      <c r="B10" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="134"/>
+      <c r="D10" s="86">
         <f>AVERAGE(I14:I43)</f>
         <v>0.25165922323104589</v>
       </c>
-      <c r="F10" s="126" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="127"/>
-      <c r="H10" s="220">
+      <c r="F10" s="224" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="225"/>
+      <c r="H10" s="120">
         <v>6.4099999999999999E-3</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="126" t="s">
-        <v>127</v>
-      </c>
-      <c r="K10" s="127"/>
-      <c r="L10" s="225">
+      <c r="J10" s="224" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="225"/>
+      <c r="L10" s="125">
         <f>L9/'Erosive Burning'!S9</f>
         <v>217.81643934534523</v>
       </c>
-      <c r="M10" s="166" t="s">
+      <c r="M10" s="82" t="s">
         <v>57</v>
       </c>
       <c r="Q10" s="3"/>
@@ -21502,1551 +21502,1551 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="I13" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="116" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="117" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="116" t="s">
+      <c r="J13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="L13" s="116" t="s">
+      <c r="K13" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="116" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="14" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="232">
+      <c r="B14" s="130">
         <v>0</v>
       </c>
-      <c r="C14" s="200">
+      <c r="C14" s="103">
         <f>'Bates Grain Kn Calculator'!Q16</f>
         <v>317.30939153909469</v>
       </c>
-      <c r="D14" s="212">
-        <f>($H$9*EXP(C14*$H$10))</f>
+      <c r="D14" s="115">
+        <f t="shared" ref="D14:D43" si="0">($H$9*EXP(C14*$H$10))</f>
         <v>575.1148430950891</v>
       </c>
-      <c r="E14" s="201">
+      <c r="E14" s="104">
         <f>'Bates Grain Kn Calculator'!P16</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F14" s="178">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D14)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D14)))</f>
+      <c r="F14" s="90">
+        <f t="shared" ref="F14:F43" si="1">SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D14)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D14)))</f>
         <v>1.5190706976187018</v>
       </c>
-      <c r="G14" s="178">
-        <f t="shared" ref="G14:G43" si="0">(D14*E14)*F14</f>
+      <c r="G14" s="90">
+        <f t="shared" ref="G14:G43" si="2">(D14*E14)*F14</f>
         <v>3473.6613816813619</v>
       </c>
-      <c r="H14" s="202">
+      <c r="H14" s="105">
         <f>'Bates Grain Kn Calculator'!N16-'Bates Grain Kn Calculator'!N17</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I14" s="212">
-        <f>$H$5*(D14^$H$6)</f>
+      <c r="I14" s="115">
+        <f t="shared" ref="I14:I43" si="3">$H$5*(D14^$H$6)</f>
         <v>0.23119387990529261</v>
       </c>
-      <c r="J14" s="178">
-        <f t="shared" ref="J14:J43" si="1">H14/I14</f>
+      <c r="J14" s="90">
+        <f t="shared" ref="J14:J43" si="4">H14/I14</f>
         <v>0.27185224253509732</v>
       </c>
-      <c r="K14" s="178">
+      <c r="K14" s="90">
         <f>J14</f>
         <v>0.27185224253509732</v>
       </c>
-      <c r="L14" s="178">
-        <f t="shared" ref="L14:L43" si="2">G14</f>
+      <c r="L14" s="90">
+        <f t="shared" ref="L14:L43" si="5">G14</f>
         <v>3473.6613816813619</v>
       </c>
-      <c r="M14" s="203">
+      <c r="M14" s="106">
         <f>G14*J14</f>
         <v>944.32263641764291</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="233">
+      <c r="B15" s="131">
         <v>1</v>
       </c>
-      <c r="C15" s="204">
+      <c r="C15" s="107">
         <f>'Bates Grain Kn Calculator'!Q17</f>
         <v>321.46776579259461</v>
       </c>
-      <c r="D15" s="213">
-        <f>($H$9*EXP(C15*$H$10))</f>
+      <c r="D15" s="116">
+        <f t="shared" si="0"/>
         <v>590.65076875914372</v>
       </c>
-      <c r="E15" s="205">
+      <c r="E15" s="108">
         <f>'Bates Grain Kn Calculator'!P17</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F15" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D15)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D15)))</f>
+      <c r="F15" s="94">
+        <f t="shared" si="1"/>
         <v>1.523337563141598</v>
       </c>
-      <c r="G15" s="182">
-        <f t="shared" si="0"/>
+      <c r="G15" s="94">
+        <f t="shared" si="2"/>
         <v>3577.5181221814914</v>
       </c>
-      <c r="H15" s="206">
+      <c r="H15" s="109">
         <f>'Bates Grain Kn Calculator'!N17-'Bates Grain Kn Calculator'!N18</f>
         <v>6.2850574712643548E-2</v>
       </c>
-      <c r="I15" s="213">
-        <f>$H$5*(D15^$H$6)</f>
+      <c r="I15" s="116">
+        <f t="shared" si="3"/>
         <v>0.23392170457618591</v>
       </c>
-      <c r="J15" s="182">
-        <f t="shared" si="1"/>
+      <c r="J15" s="94">
+        <f t="shared" si="4"/>
         <v>0.26868209953631628</v>
       </c>
-      <c r="K15" s="182">
-        <f t="shared" ref="K15:K43" si="3">J15+K14</f>
+      <c r="K15" s="94">
+        <f t="shared" ref="K15:K43" si="6">J15+K14</f>
         <v>0.5405343420714136</v>
       </c>
-      <c r="L15" s="182">
-        <f t="shared" si="2"/>
+      <c r="L15" s="94">
+        <f t="shared" si="5"/>
         <v>3577.5181221814914</v>
       </c>
-      <c r="M15" s="207">
-        <f t="shared" ref="M15:M43" si="4">(G15*J15)+M14</f>
+      <c r="M15" s="110">
+        <f t="shared" ref="M15:M43" si="7">(G15*J15)+M14</f>
         <v>1905.5377166145856</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="233">
+      <c r="B16" s="131">
         <v>2</v>
       </c>
-      <c r="C16" s="204">
+      <c r="C16" s="107">
         <f>'Bates Grain Kn Calculator'!Q18</f>
         <v>325.40141785634387</v>
       </c>
-      <c r="D16" s="213">
-        <f>($H$9*EXP(C16*$H$10))</f>
+      <c r="D16" s="116">
+        <f t="shared" si="0"/>
         <v>605.73320700939644</v>
       </c>
-      <c r="E16" s="205">
+      <c r="E16" s="108">
         <f>'Bates Grain Kn Calculator'!P18</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F16" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D16)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D16)))</f>
+      <c r="F16" s="94">
+        <f t="shared" si="1"/>
         <v>1.5273217045572653</v>
       </c>
-      <c r="G16" s="182">
-        <f t="shared" si="0"/>
+      <c r="G16" s="94">
+        <f t="shared" si="2"/>
         <v>3678.4666582882714</v>
       </c>
-      <c r="H16" s="206">
+      <c r="H16" s="109">
         <f>'Bates Grain Kn Calculator'!N18-'Bates Grain Kn Calculator'!N19</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I16" s="213">
-        <f>$H$5*(D16^$H$6)</f>
+      <c r="I16" s="116">
+        <f t="shared" si="3"/>
         <v>0.23653173218112311</v>
       </c>
-      <c r="J16" s="182">
-        <f t="shared" si="1"/>
+      <c r="J16" s="94">
+        <f t="shared" si="4"/>
         <v>0.26571730622813949</v>
       </c>
-      <c r="K16" s="182">
-        <f t="shared" si="3"/>
+      <c r="K16" s="94">
+        <f t="shared" si="6"/>
         <v>0.80625164829955309</v>
       </c>
-      <c r="L16" s="182">
-        <f t="shared" si="2"/>
+      <c r="L16" s="94">
+        <f t="shared" si="5"/>
         <v>3678.4666582882714</v>
       </c>
-      <c r="M16" s="207">
-        <f t="shared" si="4"/>
+      <c r="M16" s="110">
+        <f t="shared" si="7"/>
         <v>2882.9699681049715</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="233">
+      <c r="B17" s="131">
         <v>3</v>
       </c>
-      <c r="C17" s="204">
+      <c r="C17" s="107">
         <f>'Bates Grain Kn Calculator'!Q19</f>
         <v>329.11034773034254</v>
       </c>
-      <c r="D17" s="213">
-        <f>($H$9*EXP(C17*$H$10))</f>
+      <c r="D17" s="116">
+        <f t="shared" si="0"/>
         <v>620.30660324232576</v>
       </c>
-      <c r="E17" s="205">
+      <c r="E17" s="108">
         <f>'Bates Grain Kn Calculator'!P19</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F17" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D17)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D17)))</f>
+      <c r="F17" s="94">
+        <f t="shared" si="1"/>
         <v>1.5310327980556258</v>
       </c>
-      <c r="G17" s="182">
-        <f t="shared" si="0"/>
+      <c r="G17" s="94">
+        <f t="shared" si="2"/>
         <v>3776.1202529437273</v>
       </c>
-      <c r="H17" s="206">
+      <c r="H17" s="109">
         <f>'Bates Grain Kn Calculator'!N19-'Bates Grain Kn Calculator'!N20</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I17" s="213">
-        <f>$H$5*(D17^$H$6)</f>
+      <c r="I17" s="116">
+        <f t="shared" si="3"/>
         <v>0.23901932203708376</v>
       </c>
-      <c r="J17" s="182">
-        <f t="shared" si="1"/>
+      <c r="J17" s="94">
+        <f t="shared" si="4"/>
         <v>0.26295185751925332</v>
       </c>
-      <c r="K17" s="182">
-        <f t="shared" si="3"/>
+      <c r="K17" s="94">
+        <f t="shared" si="6"/>
         <v>1.0692035058188063</v>
       </c>
-      <c r="L17" s="182">
-        <f t="shared" si="2"/>
+      <c r="L17" s="94">
+        <f t="shared" si="5"/>
         <v>3776.1202529437273</v>
       </c>
-      <c r="M17" s="207">
-        <f t="shared" si="4"/>
+      <c r="M17" s="110">
+        <f t="shared" si="7"/>
         <v>3875.9078028325976</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="233">
+      <c r="B18" s="131">
         <v>4</v>
       </c>
-      <c r="C18" s="204">
+      <c r="C18" s="107">
         <f>'Bates Grain Kn Calculator'!Q20</f>
         <v>332.59455541459073</v>
       </c>
-      <c r="D18" s="213">
-        <f>($H$9*EXP(C18*$H$10))</f>
+      <c r="D18" s="116">
+        <f t="shared" si="0"/>
         <v>634.3162508336834</v>
       </c>
-      <c r="E18" s="205">
+      <c r="E18" s="108">
         <f>'Bates Grain Kn Calculator'!P20</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F18" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D18)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D18)))</f>
+      <c r="F18" s="94">
+        <f t="shared" si="1"/>
         <v>1.5344796614247713</v>
       </c>
-      <c r="G18" s="182">
-        <f t="shared" si="0"/>
+      <c r="G18" s="94">
+        <f t="shared" si="2"/>
         <v>3870.0973717525544</v>
       </c>
-      <c r="H18" s="206">
+      <c r="H18" s="109">
         <f>'Bates Grain Kn Calculator'!N20-'Bates Grain Kn Calculator'!N21</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I18" s="213">
-        <f>$H$5*(D18^$H$6)</f>
+      <c r="I18" s="116">
+        <f t="shared" si="3"/>
         <v>0.24138001718505264</v>
       </c>
-      <c r="J18" s="182">
-        <f t="shared" si="1"/>
+      <c r="J18" s="94">
+        <f t="shared" si="4"/>
         <v>0.26038018989972866</v>
       </c>
-      <c r="K18" s="182">
-        <f t="shared" si="3"/>
+      <c r="K18" s="94">
+        <f t="shared" si="6"/>
         <v>1.329583695718535</v>
       </c>
-      <c r="L18" s="182">
-        <f t="shared" si="2"/>
+      <c r="L18" s="94">
+        <f t="shared" si="5"/>
         <v>3870.0973717525544</v>
       </c>
-      <c r="M18" s="207">
-        <f t="shared" si="4"/>
+      <c r="M18" s="110">
+        <f t="shared" si="7"/>
         <v>4883.6044914199683</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="233">
+      <c r="B19" s="131">
         <v>5</v>
       </c>
-      <c r="C19" s="204">
+      <c r="C19" s="107">
         <f>'Bates Grain Kn Calculator'!Q21</f>
         <v>335.85404090908833</v>
       </c>
-      <c r="D19" s="213">
-        <f>($H$9*EXP(C19*$H$10))</f>
+      <c r="D19" s="116">
+        <f t="shared" si="0"/>
         <v>647.70863017371903</v>
       </c>
-      <c r="E19" s="205">
+      <c r="E19" s="108">
         <f>'Bates Grain Kn Calculator'!P21</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F19" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D19)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D19)))</f>
+      <c r="F19" s="94">
+        <f t="shared" si="1"/>
         <v>1.5376703181440567</v>
       </c>
-      <c r="G19" s="182">
-        <f t="shared" si="0"/>
+      <c r="G19" s="94">
+        <f t="shared" si="2"/>
         <v>3960.0241320906525</v>
       </c>
-      <c r="H19" s="206">
+      <c r="H19" s="109">
         <f>'Bates Grain Kn Calculator'!N21-'Bates Grain Kn Calculator'!N22</f>
         <v>6.2850574712643326E-2</v>
       </c>
-      <c r="I19" s="213">
-        <f>$H$5*(D19^$H$6)</f>
+      <c r="I19" s="116">
+        <f t="shared" si="3"/>
         <v>0.24360955767659515</v>
       </c>
-      <c r="J19" s="182">
-        <f t="shared" si="1"/>
+      <c r="J19" s="94">
+        <f t="shared" si="4"/>
         <v>0.25799716280459267</v>
       </c>
-      <c r="K19" s="182">
-        <f t="shared" si="3"/>
+      <c r="K19" s="94">
+        <f t="shared" si="6"/>
         <v>1.5875808585231277</v>
       </c>
-      <c r="L19" s="182">
-        <f t="shared" si="2"/>
+      <c r="L19" s="94">
+        <f t="shared" si="5"/>
         <v>3960.0241320906525</v>
       </c>
-      <c r="M19" s="207">
-        <f t="shared" si="4"/>
+      <c r="M19" s="110">
+        <f t="shared" si="7"/>
         <v>5905.2794821370762</v>
       </c>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="233">
+      <c r="B20" s="131">
         <v>6</v>
       </c>
-      <c r="C20" s="204">
+      <c r="C20" s="107">
         <f>'Bates Grain Kn Calculator'!Q22</f>
         <v>338.88880421383521</v>
       </c>
-      <c r="D20" s="213">
-        <f>($H$9*EXP(C20*$H$10))</f>
+      <c r="D20" s="116">
+        <f t="shared" si="0"/>
         <v>660.43174696738538</v>
       </c>
-      <c r="E20" s="205">
+      <c r="E20" s="108">
         <f>'Bates Grain Kn Calculator'!P22</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F20" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D20)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D20)))</f>
+      <c r="F20" s="94">
+        <f t="shared" si="1"/>
         <v>1.540612054165736</v>
       </c>
-      <c r="G20" s="182">
-        <f t="shared" si="0"/>
+      <c r="G20" s="94">
+        <f t="shared" si="2"/>
         <v>4045.5367510012306</v>
       </c>
-      <c r="H20" s="206">
+      <c r="H20" s="109">
         <f>'Bates Grain Kn Calculator'!N22-'Bates Grain Kn Calculator'!N23</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I20" s="213">
-        <f>$H$5*(D20^$H$6)</f>
+      <c r="I20" s="116">
+        <f t="shared" si="3"/>
         <v>0.24570389336864973</v>
       </c>
-      <c r="J20" s="182">
-        <f t="shared" si="1"/>
+      <c r="J20" s="94">
+        <f t="shared" si="4"/>
         <v>0.25579804150007462</v>
       </c>
-      <c r="K20" s="182">
-        <f t="shared" si="3"/>
+      <c r="K20" s="94">
+        <f t="shared" si="6"/>
         <v>1.8433789000232024</v>
       </c>
-      <c r="L20" s="182">
-        <f t="shared" si="2"/>
+      <c r="L20" s="94">
+        <f t="shared" si="5"/>
         <v>4045.5367510012306</v>
       </c>
-      <c r="M20" s="207">
-        <f t="shared" si="4"/>
+      <c r="M20" s="110">
+        <f t="shared" si="7"/>
         <v>6940.1198598597657</v>
       </c>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="233">
+      <c r="B21" s="131">
         <v>7</v>
       </c>
-      <c r="C21" s="204">
+      <c r="C21" s="107">
         <f>'Bates Grain Kn Calculator'!Q23</f>
         <v>341.69884532883157</v>
       </c>
-      <c r="D21" s="213">
-        <f>($H$9*EXP(C21*$H$10))</f>
+      <c r="D21" s="116">
+        <f t="shared" si="0"/>
         <v>672.43546683081513</v>
       </c>
-      <c r="E21" s="205">
+      <c r="E21" s="108">
         <f>'Bates Grain Kn Calculator'!P23</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F21" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D21)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D21)))</f>
+      <c r="F21" s="94">
+        <f t="shared" si="1"/>
         <v>1.5433114681910689</v>
       </c>
-      <c r="G21" s="182">
-        <f t="shared" si="0"/>
+      <c r="G21" s="94">
+        <f t="shared" si="2"/>
         <v>4126.2839699645874</v>
       </c>
-      <c r="H21" s="206">
+      <c r="H21" s="109">
         <f>'Bates Grain Kn Calculator'!N23-'Bates Grain Kn Calculator'!N24</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I21" s="213">
-        <f>$H$5*(D21^$H$6)</f>
+      <c r="I21" s="116">
+        <f t="shared" si="3"/>
         <v>0.24765919617281326</v>
       </c>
-      <c r="J21" s="182">
-        <f t="shared" si="1"/>
+      <c r="J21" s="94">
+        <f t="shared" si="4"/>
         <v>0.25377848141276965</v>
       </c>
-      <c r="K21" s="182">
-        <f t="shared" si="3"/>
+      <c r="K21" s="94">
+        <f t="shared" si="6"/>
         <v>2.0971573814359719</v>
       </c>
-      <c r="L21" s="182">
-        <f t="shared" si="2"/>
+      <c r="L21" s="94">
+        <f t="shared" si="5"/>
         <v>4126.2839699645874</v>
       </c>
-      <c r="M21" s="207">
-        <f t="shared" si="4"/>
+      <c r="M21" s="110">
+        <f t="shared" si="7"/>
         <v>7987.2819396352334</v>
       </c>
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="233">
+      <c r="B22" s="131">
         <v>8</v>
       </c>
-      <c r="C22" s="204">
+      <c r="C22" s="107">
         <f>'Bates Grain Kn Calculator'!Q24</f>
         <v>344.28416425407738</v>
       </c>
-      <c r="D22" s="213">
-        <f>($H$9*EXP(C22*$H$10))</f>
+      <c r="D22" s="116">
+        <f t="shared" si="0"/>
         <v>683.67184318821376</v>
       </c>
-      <c r="E22" s="205">
+      <c r="E22" s="108">
         <f>'Bates Grain Kn Calculator'!P24</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F22" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D22)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D22)))</f>
+      <c r="F22" s="94">
+        <f t="shared" si="1"/>
         <v>1.545774516134687</v>
       </c>
-      <c r="G22" s="182">
-        <f t="shared" si="0"/>
+      <c r="G22" s="94">
+        <f t="shared" si="2"/>
         <v>4201.9294343753118</v>
       </c>
-      <c r="H22" s="206">
+      <c r="H22" s="109">
         <f>'Bates Grain Kn Calculator'!N24-'Bates Grain Kn Calculator'!N25</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I22" s="213">
-        <f>$H$5*(D22^$H$6)</f>
+      <c r="I22" s="116">
+        <f t="shared" si="3"/>
         <v>0.24947187170730903</v>
       </c>
-      <c r="J22" s="182">
-        <f t="shared" si="1"/>
+      <c r="J22" s="94">
+        <f t="shared" si="4"/>
         <v>0.25193451382920928</v>
       </c>
-      <c r="K22" s="182">
-        <f t="shared" si="3"/>
+      <c r="K22" s="94">
+        <f t="shared" si="6"/>
         <v>2.3490918952651811</v>
       </c>
-      <c r="L22" s="182">
-        <f t="shared" si="2"/>
+      <c r="L22" s="94">
+        <f t="shared" si="5"/>
         <v>4201.9294343753118</v>
       </c>
-      <c r="M22" s="207">
-        <f t="shared" si="4"/>
+      <c r="M22" s="110">
+        <f t="shared" si="7"/>
         <v>9045.8929888292223</v>
       </c>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="233">
+      <c r="B23" s="131">
         <v>9</v>
       </c>
-      <c r="C23" s="204">
+      <c r="C23" s="107">
         <f>'Bates Grain Kn Calculator'!Q25</f>
         <v>346.64476098957255</v>
       </c>
-      <c r="D23" s="213">
-        <f>($H$9*EXP(C23*$H$10))</f>
+      <c r="D23" s="116">
+        <f t="shared" si="0"/>
         <v>694.09543548046304</v>
       </c>
-      <c r="E23" s="205">
+      <c r="E23" s="108">
         <f>'Bates Grain Kn Calculator'!P25</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F23" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D23)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D23)))</f>
+      <c r="F23" s="94">
+        <f t="shared" si="1"/>
         <v>1.5480065503747182</v>
       </c>
-      <c r="G23" s="182">
-        <f t="shared" si="0"/>
+      <c r="G23" s="94">
+        <f t="shared" si="2"/>
         <v>4272.1540055689065</v>
       </c>
-      <c r="H23" s="206">
+      <c r="H23" s="109">
         <f>'Bates Grain Kn Calculator'!N25-'Bates Grain Kn Calculator'!N26</f>
         <v>6.2850574712643326E-2</v>
       </c>
-      <c r="I23" s="213">
-        <f>$H$5*(D23^$H$6)</f>
+      <c r="I23" s="116">
+        <f t="shared" si="3"/>
         <v>0.25113857030203091</v>
       </c>
-      <c r="J23" s="182">
-        <f t="shared" si="1"/>
+      <c r="J23" s="94">
+        <f t="shared" si="4"/>
         <v>0.25026253289988992</v>
       </c>
-      <c r="K23" s="182">
-        <f t="shared" si="3"/>
+      <c r="K23" s="94">
+        <f t="shared" si="6"/>
         <v>2.5993544281650709</v>
       </c>
-      <c r="L23" s="182">
-        <f t="shared" si="2"/>
+      <c r="L23" s="94">
+        <f t="shared" si="5"/>
         <v>4272.1540055689065</v>
       </c>
-      <c r="M23" s="207">
-        <f t="shared" si="4"/>
+      <c r="M23" s="110">
+        <f t="shared" si="7"/>
         <v>10115.053071201308</v>
       </c>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="233">
+      <c r="B24" s="131">
         <v>10</v>
       </c>
-      <c r="C24" s="204">
+      <c r="C24" s="107">
         <f>'Bates Grain Kn Calculator'!Q26</f>
         <v>348.78063553531712</v>
       </c>
-      <c r="D24" s="213">
-        <f>($H$9*EXP(C24*$H$10))</f>
+      <c r="D24" s="116">
+        <f t="shared" si="0"/>
         <v>703.66361473867153</v>
       </c>
-      <c r="E24" s="205">
+      <c r="E24" s="108">
         <f>'Bates Grain Kn Calculator'!P26</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F24" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D24)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D24)))</f>
+      <c r="F24" s="94">
+        <f t="shared" si="1"/>
         <v>1.5500123543031232</v>
       </c>
-      <c r="G24" s="182">
-        <f t="shared" si="0"/>
+      <c r="G24" s="94">
+        <f t="shared" si="2"/>
         <v>4336.6579835129041</v>
       </c>
-      <c r="H24" s="206">
+      <c r="H24" s="109">
         <f>'Bates Grain Kn Calculator'!N26-'Bates Grain Kn Calculator'!N27</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I24" s="213">
-        <f>$H$5*(D24^$H$6)</f>
+      <c r="I24" s="116">
+        <f t="shared" si="3"/>
         <v>0.25265619730952327</v>
       </c>
-      <c r="J24" s="182">
-        <f t="shared" si="1"/>
+      <c r="J24" s="94">
+        <f t="shared" si="4"/>
         <v>0.24875928388824353</v>
       </c>
-      <c r="K24" s="182">
-        <f t="shared" si="3"/>
+      <c r="K24" s="94">
+        <f t="shared" si="6"/>
         <v>2.8481137120533147</v>
       </c>
-      <c r="L24" s="182">
-        <f t="shared" si="2"/>
+      <c r="L24" s="94">
+        <f t="shared" si="5"/>
         <v>4336.6579835129041</v>
       </c>
-      <c r="M24" s="207">
-        <f t="shared" si="4"/>
+      <c r="M24" s="110">
+        <f t="shared" si="7"/>
         <v>11193.837005648213</v>
       </c>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="233">
+      <c r="B25" s="131">
         <v>11</v>
       </c>
-      <c r="C25" s="204">
+      <c r="C25" s="107">
         <f>'Bates Grain Kn Calculator'!Q27</f>
         <v>350.69178789131109</v>
       </c>
-      <c r="D25" s="213">
-        <f>($H$9*EXP(C25*$H$10))</f>
+      <c r="D25" s="116">
+        <f t="shared" si="0"/>
         <v>712.33685365283884</v>
       </c>
-      <c r="E25" s="205">
+      <c r="E25" s="108">
         <f>'Bates Grain Kn Calculator'!P27</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F25" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D25)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D25)))</f>
+      <c r="F25" s="94">
+        <f t="shared" si="1"/>
         <v>1.5517961726186635</v>
       </c>
-      <c r="G25" s="182">
-        <f t="shared" si="0"/>
+      <c r="G25" s="94">
+        <f t="shared" si="2"/>
         <v>4395.1632188168414</v>
       </c>
-      <c r="H25" s="206">
+      <c r="H25" s="109">
         <f>'Bates Grain Kn Calculator'!N27-'Bates Grain Kn Calculator'!N28</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I25" s="213">
-        <f>$H$5*(D25^$H$6)</f>
+      <c r="I25" s="116">
+        <f t="shared" si="3"/>
         <v>0.25402192267748364</v>
       </c>
-      <c r="J25" s="182">
-        <f t="shared" si="1"/>
+      <c r="J25" s="94">
+        <f t="shared" si="4"/>
         <v>0.24742185261089203</v>
       </c>
-      <c r="K25" s="182">
-        <f t="shared" si="3"/>
+      <c r="K25" s="94">
+        <f t="shared" si="6"/>
         <v>3.0955355646642069</v>
       </c>
-      <c r="L25" s="182">
-        <f t="shared" si="2"/>
+      <c r="L25" s="94">
+        <f t="shared" si="5"/>
         <v>4395.1632188168414</v>
       </c>
-      <c r="M25" s="207">
-        <f t="shared" si="4"/>
+      <c r="M25" s="110">
+        <f t="shared" si="7"/>
         <v>12281.296431775127</v>
       </c>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="233">
+      <c r="B26" s="131">
         <v>12</v>
       </c>
-      <c r="C26" s="204">
+      <c r="C26" s="107">
         <f>'Bates Grain Kn Calculator'!Q28</f>
         <v>352.37821805755448</v>
       </c>
-      <c r="D26" s="213">
-        <f>($H$9*EXP(C26*$H$10))</f>
+      <c r="D26" s="116">
+        <f t="shared" si="0"/>
         <v>720.07899837729121</v>
       </c>
-      <c r="E26" s="205">
+      <c r="E26" s="108">
         <f>'Bates Grain Kn Calculator'!P28</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F26" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D26)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D26)))</f>
+      <c r="F26" s="94">
+        <f t="shared" si="1"/>
         <v>1.5533617377421216</v>
       </c>
-      <c r="G26" s="182">
-        <f t="shared" si="0"/>
+      <c r="G26" s="94">
+        <f t="shared" si="2"/>
         <v>4447.4150935180487</v>
       </c>
-      <c r="H26" s="206">
+      <c r="H26" s="109">
         <f>'Bates Grain Kn Calculator'!N28-'Bates Grain Kn Calculator'!N29</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I26" s="213">
-        <f>$H$5*(D26^$H$6)</f>
+      <c r="I26" s="116">
+        <f t="shared" si="3"/>
         <v>0.25523318974135434</v>
       </c>
-      <c r="J26" s="182">
-        <f t="shared" si="1"/>
+      <c r="J26" s="94">
+        <f t="shared" si="4"/>
         <v>0.24624765602128257</v>
       </c>
-      <c r="K26" s="182">
-        <f t="shared" si="3"/>
+      <c r="K26" s="94">
+        <f t="shared" si="6"/>
         <v>3.3417832206854894</v>
       </c>
-      <c r="L26" s="182">
-        <f t="shared" si="2"/>
+      <c r="L26" s="94">
+        <f t="shared" si="5"/>
         <v>4447.4150935180487</v>
       </c>
-      <c r="M26" s="207">
-        <f t="shared" si="4"/>
+      <c r="M26" s="110">
+        <f t="shared" si="7"/>
         <v>13376.461973907619</v>
       </c>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="233">
+      <c r="B27" s="131">
         <v>13</v>
       </c>
-      <c r="C27" s="204">
+      <c r="C27" s="107">
         <f>'Bates Grain Kn Calculator'!Q29</f>
         <v>353.83992603404727</v>
       </c>
-      <c r="D27" s="213">
-        <f>($H$9*EXP(C27*$H$10))</f>
+      <c r="D27" s="116">
+        <f t="shared" si="0"/>
         <v>726.85751945969025</v>
       </c>
-      <c r="E27" s="205">
+      <c r="E27" s="108">
         <f>'Bates Grain Kn Calculator'!P29</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F27" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D27)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D27)))</f>
+      <c r="F27" s="94">
+        <f t="shared" si="1"/>
         <v>1.5547122926782908</v>
       </c>
-      <c r="G27" s="182">
-        <f t="shared" si="0"/>
+      <c r="G27" s="94">
+        <f t="shared" si="2"/>
         <v>4493.1843511593233</v>
       </c>
-      <c r="H27" s="206">
+      <c r="H27" s="109">
         <f>'Bates Grain Kn Calculator'!N29-'Bates Grain Kn Calculator'!N30</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I27" s="213">
-        <f>$H$5*(D27^$H$6)</f>
+      <c r="I27" s="116">
+        <f t="shared" si="3"/>
         <v>0.25628772319877358</v>
       </c>
-      <c r="J27" s="182">
-        <f t="shared" si="1"/>
+      <c r="J27" s="94">
+        <f t="shared" si="4"/>
         <v>0.24523443389404043</v>
       </c>
-      <c r="K27" s="182">
-        <f t="shared" si="3"/>
+      <c r="K27" s="94">
+        <f t="shared" si="6"/>
         <v>3.5870176545795296</v>
       </c>
-      <c r="L27" s="182">
-        <f t="shared" si="2"/>
+      <c r="L27" s="94">
+        <f t="shared" si="5"/>
         <v>4493.1843511593233</v>
       </c>
-      <c r="M27" s="207">
-        <f t="shared" si="4"/>
+      <c r="M27" s="110">
+        <f t="shared" si="7"/>
         <v>14478.345494645737</v>
       </c>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="233">
+      <c r="B28" s="131">
         <v>14</v>
       </c>
-      <c r="C28" s="204">
+      <c r="C28" s="107">
         <f>'Bates Grain Kn Calculator'!Q30</f>
         <v>355.07691182078952</v>
       </c>
-      <c r="D28" s="213">
-        <f>($H$9*EXP(C28*$H$10))</f>
+      <c r="D28" s="116">
+        <f t="shared" si="0"/>
         <v>732.64373945781813</v>
       </c>
-      <c r="E28" s="205">
+      <c r="E28" s="108">
         <f>'Bates Grain Kn Calculator'!P30</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F28" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D28)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D28)))</f>
+      <c r="F28" s="94">
+        <f t="shared" si="1"/>
         <v>1.555850610600569</v>
       </c>
-      <c r="G28" s="182">
-        <f t="shared" si="0"/>
+      <c r="G28" s="94">
+        <f t="shared" si="2"/>
         <v>4532.2687579796493</v>
       </c>
-      <c r="H28" s="206">
+      <c r="H28" s="109">
         <f>'Bates Grain Kn Calculator'!N30-'Bates Grain Kn Calculator'!N31</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I28" s="213">
-        <f>$H$5*(D28^$H$6)</f>
+      <c r="I28" s="116">
+        <f t="shared" si="3"/>
         <v>0.25718353623107082</v>
       </c>
-      <c r="J28" s="182">
-        <f t="shared" si="1"/>
+      <c r="J28" s="94">
+        <f t="shared" si="4"/>
         <v>0.24438024157259672</v>
       </c>
-      <c r="K28" s="182">
-        <f t="shared" si="3"/>
+      <c r="K28" s="94">
+        <f t="shared" si="6"/>
         <v>3.8313978961521262</v>
       </c>
-      <c r="L28" s="182">
-        <f t="shared" si="2"/>
+      <c r="L28" s="94">
+        <f t="shared" si="5"/>
         <v>4532.2687579796493</v>
       </c>
-      <c r="M28" s="207">
-        <f t="shared" si="4"/>
+      <c r="M28" s="110">
+        <f t="shared" si="7"/>
         <v>15585.942428592736</v>
       </c>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="233">
+      <c r="B29" s="131">
         <v>15</v>
       </c>
-      <c r="C29" s="204">
+      <c r="C29" s="107">
         <f>'Bates Grain Kn Calculator'!Q31</f>
         <v>356.08917541778112</v>
       </c>
-      <c r="D29" s="213">
-        <f>($H$9*EXP(C29*$H$10))</f>
+      <c r="D29" s="116">
+        <f t="shared" si="0"/>
         <v>737.41303501612072</v>
       </c>
-      <c r="E29" s="205">
+      <c r="E29" s="108">
         <f>'Bates Grain Kn Calculator'!P31</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F29" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D29)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D29)))</f>
+      <c r="F29" s="94">
+        <f t="shared" si="1"/>
         <v>1.5567790113906383</v>
       </c>
-      <c r="G29" s="182">
-        <f t="shared" si="0"/>
+      <c r="G29" s="94">
+        <f t="shared" si="2"/>
         <v>4564.4945785760347</v>
       </c>
-      <c r="H29" s="206">
+      <c r="H29" s="109">
         <f>'Bates Grain Kn Calculator'!N31-'Bates Grain Kn Calculator'!N32</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I29" s="213">
-        <f>$H$5*(D29^$H$6)</f>
+      <c r="I29" s="116">
+        <f t="shared" si="3"/>
         <v>0.25791893674061223</v>
       </c>
-      <c r="J29" s="182">
-        <f t="shared" si="1"/>
+      <c r="J29" s="94">
+        <f t="shared" si="4"/>
         <v>0.2436834437474914</v>
       </c>
-      <c r="K29" s="182">
-        <f t="shared" si="3"/>
+      <c r="K29" s="94">
+        <f t="shared" si="6"/>
         <v>4.0750813398996177</v>
       </c>
-      <c r="L29" s="182">
-        <f t="shared" si="2"/>
+      <c r="L29" s="94">
+        <f t="shared" si="5"/>
         <v>4564.4945785760347</v>
       </c>
-      <c r="M29" s="207">
-        <f t="shared" si="4"/>
+      <c r="M29" s="110">
+        <f t="shared" si="7"/>
         <v>16698.2341864669</v>
       </c>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="233">
+      <c r="B30" s="131">
         <v>16</v>
       </c>
-      <c r="C30" s="204">
+      <c r="C30" s="107">
         <f>'Bates Grain Kn Calculator'!Q32</f>
         <v>356.87671682502224</v>
       </c>
-      <c r="D30" s="213">
-        <f>($H$9*EXP(C30*$H$10))</f>
+      <c r="D30" s="116">
+        <f t="shared" si="0"/>
         <v>741.14501140978359</v>
       </c>
-      <c r="E30" s="205">
+      <c r="E30" s="108">
         <f>'Bates Grain Kn Calculator'!P32</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F30" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D30)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D30)))</f>
+      <c r="F30" s="94">
+        <f t="shared" si="1"/>
         <v>1.5574993753267825</v>
       </c>
-      <c r="G30" s="182">
-        <f t="shared" si="0"/>
+      <c r="G30" s="94">
+        <f t="shared" si="2"/>
         <v>4589.7178511452885</v>
       </c>
-      <c r="H30" s="206">
+      <c r="H30" s="109">
         <f>'Bates Grain Kn Calculator'!N32-'Bates Grain Kn Calculator'!N33</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I30" s="213">
-        <f>$H$5*(D30^$H$6)</f>
+      <c r="I30" s="116">
+        <f t="shared" si="3"/>
         <v>0.25849253267658923</v>
       </c>
-      <c r="J30" s="182">
-        <f t="shared" si="1"/>
+      <c r="J30" s="94">
+        <f t="shared" si="4"/>
         <v>0.24314270923748016</v>
       </c>
-      <c r="K30" s="182">
-        <f t="shared" si="3"/>
+      <c r="K30" s="94">
+        <f t="shared" si="6"/>
         <v>4.3182240491370978</v>
       </c>
-      <c r="L30" s="182">
-        <f t="shared" si="2"/>
+      <c r="L30" s="94">
+        <f t="shared" si="5"/>
         <v>4589.7178511452885</v>
       </c>
-      <c r="M30" s="207">
-        <f t="shared" si="4"/>
+      <c r="M30" s="110">
+        <f t="shared" si="7"/>
         <v>17814.190619429992</v>
       </c>
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="233">
+      <c r="B31" s="131">
         <v>17</v>
       </c>
-      <c r="C31" s="204">
+      <c r="C31" s="107">
         <f>'Bates Grain Kn Calculator'!Q33</f>
         <v>357.4395360425126</v>
       </c>
-      <c r="D31" s="213">
-        <f>($H$9*EXP(C31*$H$10))</f>
+      <c r="D31" s="116">
+        <f t="shared" si="0"/>
         <v>743.82364782513105</v>
       </c>
-      <c r="E31" s="205">
+      <c r="E31" s="108">
         <f>'Bates Grain Kn Calculator'!P33</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F31" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D31)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D31)))</f>
+      <c r="F31" s="94">
+        <f t="shared" si="1"/>
         <v>1.5580131540790343</v>
       </c>
-      <c r="G31" s="182">
-        <f t="shared" si="0"/>
+      <c r="G31" s="94">
+        <f t="shared" si="2"/>
         <v>4607.8254493580098</v>
       </c>
-      <c r="H31" s="206">
+      <c r="H31" s="109">
         <f>'Bates Grain Kn Calculator'!N33-'Bates Grain Kn Calculator'!N34</f>
         <v>6.2850574712643326E-2</v>
       </c>
-      <c r="I31" s="213">
-        <f>$H$5*(D31^$H$6)</f>
+      <c r="I31" s="116">
+        <f t="shared" si="3"/>
         <v>0.25890323642578478</v>
       </c>
-      <c r="J31" s="182">
-        <f t="shared" si="1"/>
+      <c r="J31" s="94">
+        <f t="shared" si="4"/>
         <v>0.24275700675012454</v>
       </c>
-      <c r="K31" s="182">
-        <f t="shared" si="3"/>
+      <c r="K31" s="94">
+        <f t="shared" si="6"/>
         <v>4.5609810558872219</v>
       </c>
-      <c r="L31" s="182">
-        <f t="shared" si="2"/>
+      <c r="L31" s="94">
+        <f t="shared" si="5"/>
         <v>4607.8254493580098</v>
       </c>
-      <c r="M31" s="207">
-        <f t="shared" si="4"/>
+      <c r="M31" s="110">
+        <f t="shared" si="7"/>
         <v>18932.77253314319</v>
       </c>
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="233">
+      <c r="B32" s="131">
         <v>18</v>
       </c>
-      <c r="C32" s="204">
+      <c r="C32" s="107">
         <f>'Bates Grain Kn Calculator'!Q34</f>
         <v>357.77763307025248</v>
       </c>
-      <c r="D32" s="213">
-        <f>($H$9*EXP(C32*$H$10))</f>
+      <c r="D32" s="116">
+        <f t="shared" si="0"/>
         <v>745.43741192825814</v>
       </c>
-      <c r="E32" s="205">
+      <c r="E32" s="108">
         <f>'Bates Grain Kn Calculator'!P34</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F32" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D32)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D32)))</f>
+      <c r="F32" s="94">
+        <f t="shared" si="1"/>
         <v>1.5583213791369208</v>
       </c>
-      <c r="G32" s="182">
-        <f t="shared" si="0"/>
+      <c r="G32" s="94">
+        <f t="shared" si="2"/>
         <v>4618.7359200292767</v>
       </c>
-      <c r="H32" s="206">
+      <c r="H32" s="109">
         <f>'Bates Grain Kn Calculator'!N34-'Bates Grain Kn Calculator'!N35</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I32" s="213">
-        <f>$H$5*(D32^$H$6)</f>
+      <c r="I32" s="116">
+        <f t="shared" si="3"/>
         <v>0.25915026824893683</v>
       </c>
-      <c r="J32" s="182">
-        <f t="shared" si="1"/>
+      <c r="J32" s="94">
+        <f t="shared" si="4"/>
         <v>0.24252560160296732</v>
       </c>
-      <c r="K32" s="182">
-        <f t="shared" si="3"/>
+      <c r="K32" s="94">
+        <f t="shared" si="6"/>
         <v>4.803506657490189</v>
       </c>
-      <c r="L32" s="182">
-        <f t="shared" si="2"/>
+      <c r="L32" s="94">
+        <f t="shared" si="5"/>
         <v>4618.7359200292767</v>
       </c>
-      <c r="M32" s="207">
-        <f t="shared" si="4"/>
+      <c r="M32" s="110">
+        <f t="shared" si="7"/>
         <v>20052.934240793526</v>
       </c>
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="233">
+      <c r="B33" s="131">
         <v>19</v>
       </c>
-      <c r="C33" s="204">
+      <c r="C33" s="107">
         <f>'Bates Grain Kn Calculator'!Q35</f>
         <v>357.8910079082417</v>
       </c>
-      <c r="D33" s="213">
-        <f>($H$9*EXP(C33*$H$10))</f>
+      <c r="D33" s="116">
+        <f t="shared" si="0"/>
         <v>745.97934257540339</v>
       </c>
-      <c r="E33" s="205">
+      <c r="E33" s="108">
         <f>'Bates Grain Kn Calculator'!P35</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F33" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D33)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D33)))</f>
+      <c r="F33" s="94">
+        <f t="shared" si="1"/>
         <v>1.5584246677653868</v>
       </c>
-      <c r="G33" s="182">
-        <f t="shared" si="0"/>
+      <c r="G33" s="94">
+        <f t="shared" si="2"/>
         <v>4622.4000880041103</v>
       </c>
-      <c r="H33" s="206">
+      <c r="H33" s="109">
         <f>'Bates Grain Kn Calculator'!N35-'Bates Grain Kn Calculator'!N36</f>
         <v>6.2850574712643326E-2</v>
       </c>
-      <c r="I33" s="213">
-        <f>$H$5*(D33^$H$6)</f>
+      <c r="I33" s="116">
+        <f t="shared" si="3"/>
         <v>0.25923315874749753</v>
       </c>
-      <c r="J33" s="182">
-        <f t="shared" si="1"/>
+      <c r="J33" s="94">
+        <f t="shared" si="4"/>
         <v>0.24244805339066233</v>
       </c>
-      <c r="K33" s="182">
-        <f t="shared" si="3"/>
+      <c r="K33" s="94">
+        <f t="shared" si="6"/>
         <v>5.0459547108808511</v>
       </c>
-      <c r="L33" s="182">
-        <f t="shared" si="2"/>
+      <c r="L33" s="94">
+        <f t="shared" si="5"/>
         <v>4622.4000880041103</v>
       </c>
-      <c r="M33" s="207">
-        <f t="shared" si="4"/>
+      <c r="M33" s="110">
+        <f t="shared" si="7"/>
         <v>21173.626144122947</v>
       </c>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="233">
+      <c r="B34" s="131">
         <v>20</v>
       </c>
-      <c r="C34" s="204">
+      <c r="C34" s="107">
         <f>'Bates Grain Kn Calculator'!Q36</f>
         <v>357.77966055648034</v>
       </c>
-      <c r="D34" s="213">
-        <f>($H$9*EXP(C34*$H$10))</f>
+      <c r="D34" s="116">
+        <f t="shared" si="0"/>
         <v>745.44709983500479</v>
       </c>
-      <c r="E34" s="205">
+      <c r="E34" s="108">
         <f>'Bates Grain Kn Calculator'!P36</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F34" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D34)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D34)))</f>
+      <c r="F34" s="94">
+        <f t="shared" si="1"/>
         <v>1.5583232265560274</v>
       </c>
-      <c r="G34" s="182">
-        <f t="shared" si="0"/>
+      <c r="G34" s="94">
+        <f t="shared" si="2"/>
         <v>4618.8014220426421</v>
       </c>
-      <c r="H34" s="206">
+      <c r="H34" s="109">
         <f>'Bates Grain Kn Calculator'!N36-'Bates Grain Kn Calculator'!N37</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I34" s="213">
-        <f>$H$5*(D34^$H$6)</f>
+      <c r="I34" s="116">
+        <f t="shared" si="3"/>
         <v>0.25915175034986992</v>
       </c>
-      <c r="J34" s="182">
-        <f t="shared" si="1"/>
+      <c r="J34" s="94">
+        <f t="shared" si="4"/>
         <v>0.24252421458775347</v>
       </c>
-      <c r="K34" s="182">
-        <f t="shared" si="3"/>
+      <c r="K34" s="94">
+        <f t="shared" si="6"/>
         <v>5.2884789254686044</v>
       </c>
-      <c r="L34" s="182">
-        <f t="shared" si="2"/>
+      <c r="L34" s="94">
+        <f t="shared" si="5"/>
         <v>4618.8014220426421</v>
       </c>
-      <c r="M34" s="207">
-        <f t="shared" si="4"/>
+      <c r="M34" s="110">
+        <f t="shared" si="7"/>
         <v>22293.797331340636</v>
       </c>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="233">
+      <c r="B35" s="131">
         <v>21</v>
       </c>
-      <c r="C35" s="204">
+      <c r="C35" s="107">
         <f>'Bates Grain Kn Calculator'!Q37</f>
         <v>357.44359101496843</v>
       </c>
-      <c r="D35" s="213">
-        <f>($H$9*EXP(C35*$H$10))</f>
+      <c r="D35" s="116">
+        <f t="shared" si="0"/>
         <v>743.84298181842735</v>
       </c>
-      <c r="E35" s="205">
+      <c r="E35" s="108">
         <f>'Bates Grain Kn Calculator'!P37</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F35" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D35)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D35)))</f>
+      <c r="F35" s="94">
+        <f t="shared" si="1"/>
         <v>1.5580168526134832</v>
       </c>
-      <c r="G35" s="182">
-        <f t="shared" si="0"/>
+      <c r="G35" s="94">
+        <f t="shared" si="2"/>
         <v>4607.9561579380115</v>
       </c>
-      <c r="H35" s="206">
+      <c r="H35" s="109">
         <f>'Bates Grain Kn Calculator'!N37-'Bates Grain Kn Calculator'!N38</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I35" s="213">
-        <f>$H$5*(D35^$H$6)</f>
+      <c r="I35" s="116">
+        <f t="shared" si="3"/>
         <v>0.25890619781052993</v>
       </c>
-      <c r="J35" s="182">
-        <f t="shared" si="1"/>
+      <c r="J35" s="94">
+        <f t="shared" si="4"/>
         <v>0.24275423008080491</v>
       </c>
-      <c r="K35" s="182">
-        <f t="shared" si="3"/>
+      <c r="K35" s="94">
+        <f t="shared" si="6"/>
         <v>5.5312331555494092</v>
       </c>
-      <c r="L35" s="182">
-        <f t="shared" si="2"/>
+      <c r="L35" s="94">
+        <f t="shared" si="5"/>
         <v>4607.9561579380115</v>
       </c>
-      <c r="M35" s="207">
-        <f t="shared" si="4"/>
+      <c r="M35" s="110">
+        <f t="shared" si="7"/>
         <v>23412.398180706983</v>
       </c>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="233">
+      <c r="B36" s="131">
         <v>22</v>
       </c>
-      <c r="C36" s="204">
+      <c r="C36" s="107">
         <f>'Bates Grain Kn Calculator'!Q38</f>
         <v>356.88279928370594</v>
       </c>
-      <c r="D36" s="213">
-        <f>($H$9*EXP(C36*$H$10))</f>
+      <c r="D36" s="116">
+        <f t="shared" si="0"/>
         <v>741.17390814996736</v>
       </c>
-      <c r="E36" s="205">
+      <c r="E36" s="108">
         <f>'Bates Grain Kn Calculator'!P38</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F36" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D36)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D36)))</f>
+      <c r="F36" s="94">
+        <f t="shared" si="1"/>
         <v>1.5575049323902785</v>
       </c>
-      <c r="G36" s="182">
-        <f t="shared" si="0"/>
+      <c r="G36" s="94">
+        <f t="shared" si="2"/>
         <v>4589.9131775982951</v>
       </c>
-      <c r="H36" s="206">
+      <c r="H36" s="109">
         <f>'Bates Grain Kn Calculator'!N38-'Bates Grain Kn Calculator'!N39</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I36" s="213">
-        <f>$H$5*(D36^$H$6)</f>
+      <c r="I36" s="116">
+        <f t="shared" si="3"/>
         <v>0.25849696771982705</v>
       </c>
-      <c r="J36" s="182">
-        <f t="shared" si="1"/>
+      <c r="J36" s="94">
+        <f t="shared" si="4"/>
         <v>0.24313853762789439</v>
       </c>
-      <c r="K36" s="182">
-        <f t="shared" si="3"/>
+      <c r="K36" s="94">
+        <f t="shared" si="6"/>
         <v>5.7743716931773035</v>
       </c>
-      <c r="L36" s="182">
-        <f t="shared" si="2"/>
+      <c r="L36" s="94">
+        <f t="shared" si="5"/>
         <v>4589.9131775982951</v>
       </c>
-      <c r="M36" s="207">
-        <f t="shared" si="4"/>
+      <c r="M36" s="110">
+        <f t="shared" si="7"/>
         <v>24528.382958547234</v>
       </c>
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="233">
+      <c r="B37" s="131">
         <v>23</v>
       </c>
-      <c r="C37" s="204">
+      <c r="C37" s="107">
         <f>'Bates Grain Kn Calculator'!Q39</f>
         <v>356.0972853626929</v>
       </c>
-      <c r="D37" s="213">
-        <f>($H$9*EXP(C37*$H$10))</f>
+      <c r="D37" s="116">
+        <f t="shared" si="0"/>
         <v>737.45137024251028</v>
       </c>
-      <c r="E37" s="205">
+      <c r="E37" s="108">
         <f>'Bates Grain Kn Calculator'!P39</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F37" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D37)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D37)))</f>
+      <c r="F37" s="94">
+        <f t="shared" si="1"/>
         <v>1.5567864381570686</v>
       </c>
-      <c r="G37" s="182">
-        <f t="shared" si="0"/>
+      <c r="G37" s="94">
+        <f t="shared" si="2"/>
         <v>4564.7536453385692</v>
       </c>
-      <c r="H37" s="206">
+      <c r="H37" s="109">
         <f>'Bates Grain Kn Calculator'!N39-'Bates Grain Kn Calculator'!N40</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I37" s="213">
-        <f>$H$5*(D37^$H$6)</f>
+      <c r="I37" s="116">
+        <f t="shared" si="3"/>
         <v>0.25792483702663072</v>
       </c>
-      <c r="J37" s="182">
-        <f t="shared" si="1"/>
+      <c r="J37" s="94">
+        <f t="shared" si="4"/>
         <v>0.24367786924744458</v>
       </c>
-      <c r="K37" s="182">
-        <f t="shared" si="3"/>
+      <c r="K37" s="94">
+        <f t="shared" si="6"/>
         <v>6.0180495624247481</v>
       </c>
-      <c r="L37" s="182">
-        <f t="shared" si="2"/>
+      <c r="L37" s="94">
+        <f t="shared" si="5"/>
         <v>4564.7536453385692</v>
       </c>
-      <c r="M37" s="207">
-        <f t="shared" si="4"/>
+      <c r="M37" s="110">
+        <f t="shared" si="7"/>
         <v>25640.712400482844</v>
       </c>
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="233">
+      <c r="B38" s="131">
         <v>24</v>
       </c>
-      <c r="C38" s="204">
+      <c r="C38" s="107">
         <f>'Bates Grain Kn Calculator'!Q40</f>
         <v>355.08704925192916</v>
       </c>
-      <c r="D38" s="213">
-        <f>($H$9*EXP(C38*$H$10))</f>
+      <c r="D38" s="116">
+        <f t="shared" si="0"/>
         <v>732.69134887884354</v>
       </c>
-      <c r="E38" s="205">
+      <c r="E38" s="108">
         <f>'Bates Grain Kn Calculator'!P40</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F38" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D38)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D38)))</f>
+      <c r="F38" s="94">
+        <f t="shared" si="1"/>
         <v>1.5558599220686633</v>
       </c>
-      <c r="G38" s="182">
-        <f t="shared" si="0"/>
+      <c r="G38" s="94">
+        <f t="shared" si="2"/>
         <v>4532.5904051275311</v>
       </c>
-      <c r="H38" s="206">
+      <c r="H38" s="109">
         <f>'Bates Grain Kn Calculator'!N40-'Bates Grain Kn Calculator'!N41</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I38" s="213">
-        <f>$H$5*(D38^$H$6)</f>
+      <c r="I38" s="116">
+        <f t="shared" si="3"/>
         <v>0.25719089058037431</v>
       </c>
-      <c r="J38" s="182">
-        <f t="shared" si="1"/>
+      <c r="J38" s="94">
+        <f t="shared" si="4"/>
         <v>0.24437325354259559</v>
       </c>
-      <c r="K38" s="182">
-        <f t="shared" si="3"/>
+      <c r="K38" s="94">
+        <f t="shared" si="6"/>
         <v>6.2624228159673434</v>
       </c>
-      <c r="L38" s="182">
-        <f t="shared" si="2"/>
+      <c r="L38" s="94">
+        <f t="shared" si="5"/>
         <v>4532.5904051275311</v>
       </c>
-      <c r="M38" s="207">
-        <f t="shared" si="4"/>
+      <c r="M38" s="110">
+        <f t="shared" si="7"/>
         <v>26748.356264759808</v>
       </c>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="233">
+      <c r="B39" s="131">
         <v>25</v>
       </c>
-      <c r="C39" s="204">
+      <c r="C39" s="107">
         <f>'Bates Grain Kn Calculator'!Q41</f>
         <v>353.85209095141494</v>
       </c>
-      <c r="D39" s="213">
-        <f>($H$9*EXP(C39*$H$10))</f>
+      <c r="D39" s="116">
+        <f t="shared" si="0"/>
         <v>726.91419992580643</v>
       </c>
-      <c r="E39" s="205">
+      <c r="E39" s="108">
         <f>'Bates Grain Kn Calculator'!P41</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F39" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D39)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D39)))</f>
+      <c r="F39" s="94">
+        <f t="shared" si="1"/>
         <v>1.5547235077589729</v>
       </c>
-      <c r="G39" s="182">
-        <f t="shared" si="0"/>
+      <c r="G39" s="94">
+        <f t="shared" si="2"/>
         <v>4493.5671449822339</v>
       </c>
-      <c r="H39" s="206">
+      <c r="H39" s="109">
         <f>'Bates Grain Kn Calculator'!N41-'Bates Grain Kn Calculator'!N42</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I39" s="213">
-        <f>$H$5*(D39^$H$6)</f>
+      <c r="I39" s="116">
+        <f t="shared" si="3"/>
         <v>0.25629651770337986</v>
       </c>
-      <c r="J39" s="182">
-        <f t="shared" si="1"/>
+      <c r="J39" s="94">
+        <f t="shared" si="4"/>
         <v>0.24522601897144286</v>
       </c>
-      <c r="K39" s="182">
-        <f t="shared" si="3"/>
+      <c r="K39" s="94">
+        <f t="shared" si="6"/>
         <v>6.5076488349387862</v>
       </c>
-      <c r="L39" s="182">
-        <f t="shared" si="2"/>
+      <c r="L39" s="94">
+        <f t="shared" si="5"/>
         <v>4493.5671449822339</v>
       </c>
-      <c r="M39" s="207">
-        <f t="shared" si="4"/>
+      <c r="M39" s="110">
+        <f t="shared" si="7"/>
         <v>27850.295846704674</v>
       </c>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="233">
+      <c r="B40" s="131">
         <v>26</v>
       </c>
-      <c r="C40" s="204">
+      <c r="C40" s="107">
         <f>'Bates Grain Kn Calculator'!Q42</f>
         <v>352.39241046115001</v>
       </c>
-      <c r="D40" s="213">
-        <f>($H$9*EXP(C40*$H$10))</f>
+      <c r="D40" s="116">
+        <f t="shared" si="0"/>
         <v>720.14450932493742</v>
       </c>
-      <c r="E40" s="205">
+      <c r="E40" s="108">
         <f>'Bates Grain Kn Calculator'!P42</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F40" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D40)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D40)))</f>
+      <c r="F40" s="94">
+        <f t="shared" si="1"/>
         <v>1.5533748793695339</v>
       </c>
-      <c r="G40" s="182">
-        <f t="shared" si="0"/>
+      <c r="G40" s="94">
+        <f t="shared" si="2"/>
         <v>4447.8573370716904</v>
       </c>
-      <c r="H40" s="206">
+      <c r="H40" s="109">
         <f>'Bates Grain Kn Calculator'!N42-'Bates Grain Kn Calculator'!N43</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I40" s="213">
-        <f>$H$5*(D40^$H$6)</f>
+      <c r="I40" s="116">
+        <f t="shared" si="3"/>
         <v>0.25524340780862048</v>
       </c>
-      <c r="J40" s="182">
-        <f t="shared" si="1"/>
+      <c r="J40" s="94">
+        <f t="shared" si="4"/>
         <v>0.24623779807770252</v>
       </c>
-      <c r="K40" s="182">
-        <f t="shared" si="3"/>
+      <c r="K40" s="94">
+        <f t="shared" si="6"/>
         <v>6.7538866330164886</v>
       </c>
-      <c r="L40" s="182">
-        <f t="shared" si="2"/>
+      <c r="L40" s="94">
+        <f t="shared" si="5"/>
         <v>4447.8573370716904</v>
       </c>
-      <c r="M40" s="207">
-        <f t="shared" si="4"/>
+      <c r="M40" s="110">
+        <f t="shared" si="7"/>
         <v>28945.526443548959</v>
       </c>
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="233">
+      <c r="B41" s="131">
         <v>27</v>
       </c>
-      <c r="C41" s="204">
+      <c r="C41" s="107">
         <f>'Bates Grain Kn Calculator'!Q43</f>
         <v>350.7080077811346</v>
       </c>
-      <c r="D41" s="213">
-        <f>($H$9*EXP(C41*$H$10))</f>
+      <c r="D41" s="116">
+        <f t="shared" si="0"/>
         <v>712.41091880509725</v>
       </c>
-      <c r="E41" s="205">
+      <c r="E41" s="108">
         <f>'Bates Grain Kn Calculator'!P43</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F41" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D41)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D41)))</f>
+      <c r="F41" s="94">
+        <f t="shared" si="1"/>
         <v>1.5518112678861506</v>
       </c>
-      <c r="G41" s="182">
-        <f t="shared" si="0"/>
+      <c r="G41" s="94">
+        <f t="shared" si="2"/>
         <v>4395.6629643453643</v>
       </c>
-      <c r="H41" s="206">
+      <c r="H41" s="109">
         <f>'Bates Grain Kn Calculator'!N43-'Bates Grain Kn Calculator'!N44</f>
         <v>6.285057471264377E-2</v>
       </c>
-      <c r="I41" s="213">
-        <f>$H$5*(D41^$H$6)</f>
+      <c r="I41" s="116">
+        <f t="shared" si="3"/>
         <v>0.25403354508226988</v>
       </c>
-      <c r="J41" s="182">
-        <f t="shared" si="1"/>
+      <c r="J41" s="94">
+        <f t="shared" si="4"/>
         <v>0.24741053270066884</v>
       </c>
-      <c r="K41" s="182">
-        <f t="shared" si="3"/>
+      <c r="K41" s="94">
+        <f t="shared" si="6"/>
         <v>7.0012971657171574</v>
       </c>
-      <c r="L41" s="182">
-        <f t="shared" si="2"/>
+      <c r="L41" s="94">
+        <f t="shared" si="5"/>
         <v>4395.6629643453643</v>
       </c>
-      <c r="M41" s="207">
-        <f t="shared" si="4"/>
+      <c r="M41" s="110">
+        <f t="shared" si="7"/>
         <v>30033.059759130247</v>
       </c>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="233">
+      <c r="B42" s="131">
         <v>28</v>
       </c>
-      <c r="C42" s="204">
+      <c r="C42" s="107">
         <f>'Bates Grain Kn Calculator'!Q44</f>
         <v>348.79888291136848</v>
       </c>
-      <c r="D42" s="213">
-        <f>($H$9*EXP(C42*$H$10))</f>
+      <c r="D42" s="116">
+        <f t="shared" si="0"/>
         <v>703.74592404579312</v>
       </c>
-      <c r="E42" s="205">
+      <c r="E42" s="108">
         <f>'Bates Grain Kn Calculator'!P44</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F42" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D42)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D42)))</f>
+      <c r="F42" s="94">
+        <f t="shared" si="1"/>
         <v>1.5500294346257488</v>
       </c>
-      <c r="G42" s="182">
-        <f t="shared" si="0"/>
+      <c r="G42" s="94">
+        <f t="shared" si="2"/>
         <v>4337.2130466157405</v>
       </c>
-      <c r="H42" s="206">
+      <c r="H42" s="109">
         <f>'Bates Grain Kn Calculator'!N44-'Bates Grain Kn Calculator'!N45</f>
         <v>6.2850574712643326E-2</v>
       </c>
-      <c r="I42" s="213">
-        <f>$H$5*(D42^$H$6)</f>
+      <c r="I42" s="116">
+        <f t="shared" si="3"/>
         <v>0.25266920225446404</v>
       </c>
-      <c r="J42" s="182">
-        <f t="shared" si="1"/>
+      <c r="J42" s="94">
+        <f t="shared" si="4"/>
         <v>0.24874648018774481</v>
       </c>
-      <c r="K42" s="182">
-        <f t="shared" si="3"/>
+      <c r="K42" s="94">
+        <f t="shared" si="6"/>
         <v>7.2500436459049027</v>
       </c>
-      <c r="L42" s="182">
-        <f t="shared" si="2"/>
+      <c r="L42" s="94">
+        <f t="shared" si="5"/>
         <v>4337.2130466157405</v>
       </c>
-      <c r="M42" s="207">
-        <f t="shared" si="4"/>
+      <c r="M42" s="110">
+        <f t="shared" si="7"/>
         <v>31111.926238300279</v>
       </c>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="234">
+      <c r="B43" s="132">
         <v>29</v>
       </c>
-      <c r="C43" s="208">
+      <c r="C43" s="111">
         <f>'Bates Grain Kn Calculator'!Q45</f>
         <v>346.66503585185194</v>
       </c>
-      <c r="D43" s="214">
-        <f>($H$9*EXP(C43*$H$10))</f>
+      <c r="D43" s="117">
+        <f t="shared" si="0"/>
         <v>694.18564728120077</v>
       </c>
-      <c r="E43" s="209">
+      <c r="E43" s="112">
         <f>'Bates Grain Kn Calculator'!P45</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F43" s="186">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D43)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D43)))</f>
+      <c r="F43" s="98">
+        <f t="shared" si="1"/>
         <v>1.5480256516802318</v>
       </c>
-      <c r="G43" s="186">
-        <f t="shared" si="0"/>
+      <c r="G43" s="98">
+        <f t="shared" si="2"/>
         <v>4272.761980969598</v>
       </c>
-      <c r="H43" s="210">
+      <c r="H43" s="113">
         <f>H42</f>
         <v>6.2850574712643326E-2</v>
       </c>
-      <c r="I43" s="214">
-        <f>$H$5*(D43^$H$6)</f>
+      <c r="I43" s="117">
+        <f t="shared" si="3"/>
         <v>0.25115293348564882</v>
       </c>
-      <c r="J43" s="186">
-        <f t="shared" si="1"/>
+      <c r="J43" s="98">
+        <f t="shared" si="4"/>
         <v>0.25024822063738578</v>
       </c>
-      <c r="K43" s="186">
-        <f t="shared" si="3"/>
+      <c r="K43" s="98">
+        <f t="shared" si="6"/>
         <v>7.5002918665422884</v>
       </c>
-      <c r="L43" s="186">
-        <f t="shared" si="2"/>
+      <c r="L43" s="98">
+        <f t="shared" si="5"/>
         <v>4272.761980969598</v>
       </c>
-      <c r="M43" s="211">
-        <f t="shared" si="4"/>
+      <c r="M43" s="114">
+        <f t="shared" si="7"/>
         <v>32181.177321244992</v>
       </c>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="167"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="165"/>
-      <c r="F44" s="165"/>
-      <c r="G44" s="165"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="165"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="Q44" s="3"/>
@@ -30734,15 +30734,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F2:G2"/>
@@ -30757,6 +30748,15 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Launches/8-inch-flight/Design/Calculations/trunk/Q-8in-motor_calc.xlsx
+++ b/Launches/8-inch-flight/Design/Calculations/trunk/Q-8in-motor_calc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28680" windowHeight="17460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28680" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Bates Grain Kn Calculator" sheetId="1" r:id="rId1"/>
@@ -1347,7 +1347,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1604,7 +1604,6 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
@@ -1614,6 +1613,132 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
@@ -1629,12 +1754,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1678,18 +1797,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1702,113 +1809,38 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1831,13 +1863,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="2" applyBorder="1">
@@ -1855,53 +1881,11 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
@@ -1915,11 +1899,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="6" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="6" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2035,94 +2034,94 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>317.30939153909469</c:v>
+                  <c:v>309.82888298822689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321.46776579259461</c:v>
+                  <c:v>313.88922435965503</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>325.40141785634387</c:v>
+                  <c:v>317.73014132421201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>329.11034773034254</c:v>
+                  <c:v>321.35163388189795</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>332.59455541459073</c:v>
+                  <c:v>324.75370203271285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>335.85404090908833</c:v>
+                  <c:v>327.93634577665671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>338.88880421383521</c:v>
+                  <c:v>330.8995651137293</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>341.69884532883157</c:v>
+                  <c:v>333.6433600439309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>344.28416425407738</c:v>
+                  <c:v>336.16773056726134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>346.64476098957255</c:v>
+                  <c:v>338.47267668372075</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>348.78063553531712</c:v>
+                  <c:v>340.55819839330906</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>350.69178789131109</c:v>
+                  <c:v>342.42429569602615</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>352.37821805755448</c:v>
+                  <c:v>344.07096859187232</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>353.83992603404727</c:v>
+                  <c:v>345.49821708084727</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>355.07691182078952</c:v>
+                  <c:v>346.70604116295118</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>356.08917541778112</c:v>
+                  <c:v>347.69444083818399</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>356.87671682502224</c:v>
+                  <c:v>348.46341610654576</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>357.4395360425126</c:v>
+                  <c:v>349.01296696803627</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>357.77763307025248</c:v>
+                  <c:v>349.34309342265584</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>357.8910079082417</c:v>
+                  <c:v>349.45379547040426</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>357.77966055648034</c:v>
+                  <c:v>349.34507311128152</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>357.44359101496843</c:v>
+                  <c:v>349.0169263452878</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>356.88279928370594</c:v>
+                  <c:v>348.46935517242292</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>356.0972853626929</c:v>
+                  <c:v>347.702359592687</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>355.08704925192916</c:v>
+                  <c:v>346.71593960607993</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>353.85209095141494</c:v>
+                  <c:v>345.51009521260181</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>352.39241046115001</c:v>
+                  <c:v>344.08482641225254</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>350.7080077811346</c:v>
+                  <c:v>342.44013320503228</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>348.79888291136848</c:v>
+                  <c:v>340.57601559094076</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>346.66503585185194</c:v>
+                  <c:v>338.49247356997836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2350,94 +2349,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.27185224253509732</c:v>
+                  <c:v>0.27764947926904215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5405343420714136</c:v>
+                  <c:v>0.5521371053380687</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80625164829955309</c:v>
+                  <c:v>0.82366689511715907</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0692035058188063</c:v>
+                  <c:v>1.0924370241875541</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.329583695718535</c:v>
+                  <c:v>1.3586402541492331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5875808585231277</c:v>
+                  <c:v>1.6224643422825296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8433789000232024</c:v>
+                  <c:v>1.8840924349604165</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0971573814359719</c:v>
+                  <c:v>2.1437034461742379</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3490918952651811</c:v>
+                  <c:v>2.4014724224684634</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5993544281650709</c:v>
+                  <c:v>2.6575708955188997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8481137120533147</c:v>
+                  <c:v>2.9121672235335754</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0955355646642069</c:v>
+                  <c:v>3.1654269226057146</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3417832206854894</c:v>
+                  <c:v>3.4175129891037308</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5870176545795296</c:v>
+                  <c:v>3.6685862141435415</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8313978961521262</c:v>
+                  <c:v>3.9188054911537016</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0750813398996177</c:v>
+                  <c:v>4.1683281175135498</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.3182240491370978</c:v>
+                  <c:v>4.4173100912186412</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.5609810558872219</c:v>
+                  <c:v>4.6659064035060469</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.803506657490189</c:v>
+                  <c:v>4.9142713283545225</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0459547108808511</c:v>
+                  <c:v>5.1625587097609191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2884789254686044</c:v>
+                  <c:v>5.4109222476846348</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.5312331555494092</c:v>
+                  <c:v>5.6595157835460368</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.7743716931773035</c:v>
+                  <c:v>5.908493586162928</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0180495624247481</c:v>
+                  <c:v>6.1580106390109757</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.2624228159673434</c:v>
+                  <c:v>6.4082229296997966</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.5076488349387862</c:v>
+                  <c:v>6.659287742565998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.7538866330164886</c:v>
+                  <c:v>6.9113639552980173</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.0012971657171574</c:v>
+                  <c:v>7.1646123405251769</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.2500436459049027</c:v>
+                  <c:v>7.4191958733249983</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.5002918665422884</c:v>
+                  <c:v>7.6752800456287389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2449,94 +2448,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>3473.6613816813619</c:v>
+                  <c:v>3373.5090989533583</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3577.5181221814914</c:v>
+                  <c:v>3472.2456574251323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3678.4666582882714</c:v>
+                  <c:v>3568.1570224841826</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3776.1202529437273</c:v>
+                  <c:v>3660.8827818663831</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3870.0973717525544</c:v>
+                  <c:v>3750.0677660317492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3960.0241320906525</c:v>
+                  <c:v>3835.3642852737612</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4045.5367510012306</c:v>
+                  <c:v>3916.4343620014142</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4126.2839699645874</c:v>
+                  <c:v>3992.9519386083794</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4201.9294343753118</c:v>
+                  <c:v>4064.6050411598071</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4272.1540055689065</c:v>
+                  <c:v>4131.0978791713887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4336.6579835129041</c:v>
+                  <c:v>4192.1528620307245</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4395.1632188168414</c:v>
+                  <c:v>4247.5125131181867</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4447.4150935180487</c:v>
+                  <c:v>4296.9412634204273</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4493.1843511593233</c:v>
+                  <c:v>4340.2271073882348</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4532.2687579796493</c:v>
+                  <c:v>4377.1831049620369</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4564.4945785760347</c:v>
+                  <c:v>4407.6487150604153</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4589.7178511452885</c:v>
+                  <c:v>4431.4909473838143</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4607.8254493580098</c:v>
+                  <c:v>4448.6053211089366</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4618.7359200292767</c:v>
+                  <c:v>4458.9166209178957</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4622.4000880041103</c:v>
+                  <c:v>4462.3794427968842</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4618.8014220426421</c:v>
+                  <c:v>4458.978524127232</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4607.9561579380115</c:v>
+                  <c:v>4448.7288547498556</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4589.9131775982951</c:v>
+                  <c:v>4431.6755678853024</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4564.7536453385692</c:v>
+                  <c:v>4407.8936120072949</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4532.5904051275311</c:v>
+                  <c:v>4377.4872069688781</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4493.5671449822339</c:v>
+                  <c:v>4340.5890898392954</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4447.8573370716904</c:v>
+                  <c:v>4297.3595579982602</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4395.6629643453643</c:v>
+                  <c:v>4247.9853190261401</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4337.2130466157405</c:v>
+                  <c:v>4192.6781587983405</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4272.761980969598</c:v>
+                  <c:v>4131.6734409168666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3989,8 +3988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U996"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4020,45 +4019,45 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="146" t="s">
+      <c r="C2" s="149"/>
+      <c r="D2" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="147"/>
+      <c r="E2" s="186"/>
       <c r="G2" s="87"/>
-      <c r="I2" s="135" t="s">
+      <c r="I2" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="137"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="178"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="166" t="s">
+      <c r="R2" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="166"/>
-      <c r="T2" s="180" t="b">
+      <c r="S2" s="167"/>
+      <c r="T2" s="154" t="b">
         <f>AND(ISNUMBER(D5),ISNUMBER(D6),ISNUMBER(D7),ISNUMBER(D8),ISNUMBER(D9),ISNUMBER(D10),ISNUMBER(D11),ISNUMBER(D12),NOT(ISBLANK($D$5:$D$12)))</f>
         <v>1</v>
       </c>
-      <c r="U2" s="180"/>
+      <c r="U2" s="154"/>
     </row>
     <row r="3" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144" t="s">
+      <c r="C3" s="182"/>
+      <c r="D3" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="145"/>
+      <c r="E3" s="184"/>
       <c r="G3" s="52"/>
       <c r="I3" s="51"/>
       <c r="J3" s="5"/>
@@ -4068,17 +4067,17 @@
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
       <c r="P3" s="7"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="181"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="155"/>
+      <c r="U3" s="155"/>
     </row>
     <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G4" s="88"/>
-      <c r="I4" s="162" t="s">
+      <c r="I4" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="163"/>
+      <c r="J4" s="166"/>
       <c r="K4" s="37">
         <f>(($D$6-$D$7))/29</f>
         <v>0.12570114942528737</v>
@@ -4087,72 +4086,72 @@
         <v>58</v>
       </c>
       <c r="M4" s="52"/>
-      <c r="N4" s="154" t="s">
+      <c r="N4" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="155"/>
+      <c r="O4" s="135"/>
       <c r="P4" s="48">
         <f>Estimate!L4</f>
-        <v>745.97934257540339</v>
+        <v>706.70645183248928</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="178" t="s">
+      <c r="B5" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="179"/>
+      <c r="C5" s="151"/>
       <c r="D5" s="42">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="148" t="s">
+      <c r="F5" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="149"/>
-      <c r="I5" s="164" t="s">
+      <c r="G5" s="188"/>
+      <c r="I5" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="165"/>
+      <c r="J5" s="141"/>
       <c r="K5" s="38">
         <f>$M$16</f>
         <v>1261.6469550518068</v>
       </c>
       <c r="L5" s="53"/>
       <c r="M5" s="52"/>
-      <c r="N5" s="174" t="s">
+      <c r="N5" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="175"/>
+      <c r="O5" s="147"/>
       <c r="P5" s="49">
         <f>Estimate!L5</f>
-        <v>698.39506261096119</v>
-      </c>
-      <c r="R5" s="182" t="s">
+        <v>662.61680974492663</v>
+      </c>
+      <c r="R5" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="183"/>
-      <c r="T5" s="183"/>
-      <c r="U5" s="184"/>
+      <c r="S5" s="157"/>
+      <c r="T5" s="157"/>
+      <c r="U5" s="158"/>
     </row>
     <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="139"/>
+      <c r="C6" s="153"/>
       <c r="D6" s="43">
         <v>7.0620000000000003</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="150"/>
-      <c r="G6" s="151"/>
-      <c r="I6" s="164" t="s">
+      <c r="F6" s="189"/>
+      <c r="G6" s="190"/>
+      <c r="I6" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="165"/>
+      <c r="J6" s="141"/>
       <c r="K6" s="39">
         <f>PI()*Nozzle_Throat_Diameter^2/4</f>
         <v>4.0114996593688055</v>
@@ -4161,28 +4160,28 @@
         <v>42</v>
       </c>
       <c r="M6" s="52"/>
-      <c r="N6" s="174" t="s">
+      <c r="N6" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="175"/>
+      <c r="O6" s="147"/>
       <c r="P6" s="49">
         <f>Estimate!L6</f>
-        <v>4622.4000880041103</v>
+        <v>4462.3794427968842</v>
       </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="185" t="str">
+      <c r="R6" s="159" t="str">
         <f>IF(ISNUMBER($D$5:$D$12), "", "Error: Input Values Must be Numerical")</f>
         <v/>
       </c>
-      <c r="S6" s="186"/>
-      <c r="T6" s="186"/>
-      <c r="U6" s="187"/>
+      <c r="S6" s="160"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="161"/>
     </row>
     <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="139"/>
+      <c r="C7" s="153"/>
       <c r="D7" s="64">
         <f>'Erosive Burning'!S5</f>
         <v>3.4166666666666665</v>
@@ -4190,132 +4189,132 @@
       <c r="E7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="152">
+      <c r="F7" s="191">
         <v>3</v>
       </c>
-      <c r="G7" s="153"/>
+      <c r="G7" s="192"/>
       <c r="H7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="164" t="s">
+      <c r="I7" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="165"/>
+      <c r="J7" s="141"/>
       <c r="K7" s="40">
         <f>$Q$16</f>
-        <v>317.30939153909469</v>
+        <v>309.82888298822689</v>
       </c>
       <c r="L7" s="55"/>
       <c r="M7" s="52"/>
-      <c r="N7" s="174" t="s">
+      <c r="N7" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="175"/>
+      <c r="O7" s="147"/>
       <c r="P7" s="49">
         <f>Estimate!L7</f>
-        <v>4301.6910884659092</v>
+        <v>4158.7807687826853</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="168" t="str">
+      <c r="R7" s="162" t="str">
         <f>IF(NOT(ISBLANK($D$5:$D$12)),"", "Error: Must Enter All Input Values")</f>
         <v/>
       </c>
-      <c r="S7" s="169"/>
-      <c r="T7" s="169"/>
-      <c r="U7" s="170"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="163"/>
+      <c r="U7" s="164"/>
     </row>
     <row r="8" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="139"/>
+      <c r="C8" s="153"/>
       <c r="D8" s="43">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="190">
+      <c r="F8" s="136">
         <v>3</v>
       </c>
-      <c r="G8" s="191"/>
+      <c r="G8" s="137"/>
       <c r="H8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="164" t="s">
+      <c r="I8" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="165"/>
+      <c r="J8" s="141"/>
       <c r="K8" s="40">
         <f>MAX(Q17:Q45)</f>
-        <v>357.8910079082417</v>
+        <v>349.45379547040426</v>
       </c>
       <c r="L8" s="55"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="174" t="s">
+      <c r="N8" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="175"/>
+      <c r="O8" s="147"/>
       <c r="P8" s="49">
         <f>Estimate!L8</f>
-        <v>7.5002918665422884</v>
+        <v>7.6752800456287389</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="168" t="str">
+      <c r="R8" s="162" t="str">
         <f>IF(ISNUMBER($F$7:$F$12), "", "Error: Grain Core Diameter Values Must be Numerical")</f>
         <v/>
       </c>
-      <c r="S8" s="169"/>
-      <c r="T8" s="169"/>
-      <c r="U8" s="170"/>
+      <c r="S8" s="163"/>
+      <c r="T8" s="163"/>
+      <c r="U8" s="164"/>
     </row>
     <row r="9" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="139"/>
+      <c r="C9" s="153"/>
       <c r="D9" s="43">
         <v>2.2599999999999998</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="190">
+      <c r="F9" s="136">
         <v>3</v>
       </c>
-      <c r="G9" s="191"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="194" t="s">
+      <c r="I9" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="195"/>
+      <c r="J9" s="143"/>
       <c r="K9" s="41">
         <f>$Q$45</f>
-        <v>346.66503585185194</v>
+        <v>338.49247356997836</v>
       </c>
       <c r="L9" s="55"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="174" t="s">
+      <c r="N9" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="175"/>
+      <c r="O9" s="147"/>
       <c r="P9" s="49">
         <f>Estimate!L9</f>
-        <v>32181.177321244992</v>
+        <v>31841.484924157743</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="168"/>
-      <c r="S9" s="169"/>
-      <c r="T9" s="169"/>
-      <c r="U9" s="170"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="163"/>
+      <c r="T9" s="163"/>
+      <c r="U9" s="164"/>
     </row>
     <row r="10" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="139"/>
+      <c r="C10" s="153"/>
       <c r="D10" s="64">
         <f>Nozzle_Throat_Diameter</f>
         <v>2.2599999999999998</v>
@@ -4323,10 +4322,10 @@
       <c r="E10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="192">
+      <c r="F10" s="138">
         <v>3.4</v>
       </c>
-      <c r="G10" s="193"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="3" t="s">
         <v>54</v>
       </c>
@@ -4335,41 +4334,41 @@
       <c r="K10" s="56"/>
       <c r="L10" s="54"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="156" t="s">
+      <c r="N10" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="157"/>
+      <c r="O10" s="173"/>
       <c r="P10" s="50">
         <f>MAX('Erosive Burning'!L14:L19)</f>
-        <v>1.3003654800962834</v>
-      </c>
-      <c r="R10" s="171"/>
-      <c r="S10" s="172"/>
-      <c r="T10" s="172"/>
-      <c r="U10" s="173"/>
+        <v>1.2706594180959938</v>
+      </c>
+      <c r="R10" s="169"/>
+      <c r="S10" s="170"/>
+      <c r="T10" s="170"/>
+      <c r="U10" s="171"/>
     </row>
     <row r="11" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="139"/>
+      <c r="C11" s="153"/>
       <c r="D11" s="43">
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="190">
+      <c r="F11" s="136">
         <v>3.8</v>
       </c>
-      <c r="G11" s="191"/>
+      <c r="G11" s="137"/>
       <c r="H11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="196" t="s">
+      <c r="I11" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="197"/>
+      <c r="J11" s="145"/>
       <c r="K11" s="44">
         <f>((D6*3)+D7)/2</f>
         <v>12.301333333333334</v>
@@ -4383,20 +4382,20 @@
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="141"/>
+      <c r="C12" s="180"/>
       <c r="D12" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="188">
+      <c r="F12" s="132">
         <v>4.3</v>
       </c>
-      <c r="G12" s="189"/>
+      <c r="G12" s="133"/>
       <c r="H12" s="2" t="s">
         <v>54</v>
       </c>
@@ -4404,20 +4403,20 @@
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
-      <c r="M12" s="154" t="s">
+      <c r="M12" s="134" t="s">
         <v>135</v>
       </c>
-      <c r="N12" s="155"/>
-      <c r="O12" s="158" t="s">
+      <c r="N12" s="135"/>
+      <c r="O12" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="P12" s="159"/>
+      <c r="P12" s="194"/>
     </row>
     <row r="13" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="174" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="134"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="68">
         <f>(D10-D9)/29</f>
         <v>0</v>
@@ -4426,15 +4425,15 @@
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
       <c r="L13" s="58"/>
-      <c r="M13" s="156" t="s">
+      <c r="M13" s="172" t="s">
         <v>136</v>
       </c>
-      <c r="N13" s="157"/>
-      <c r="O13" s="160">
+      <c r="N13" s="173"/>
+      <c r="O13" s="195">
         <f>(36800+18400)/2</f>
         <v>27600</v>
       </c>
-      <c r="P13" s="161"/>
+      <c r="P13" s="196"/>
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L14" s="4"/>
@@ -4550,23 +4549,22 @@
         <v>1.8226666666666669</v>
       </c>
       <c r="O16" s="24">
-        <f t="shared" ref="O16:O45" si="7">Nozzle_Throat_Diameter-boundry_layer*2+B16*$D$13</f>
-        <v>2.25</v>
+        <v>2.2770000000000001</v>
       </c>
       <c r="P16" s="14">
-        <f t="shared" ref="P16:P45" si="8">PI()*O16^2/4</f>
-        <v>3.9760782021995817</v>
+        <f t="shared" ref="P16:P45" si="7">PI()*O16^2/4</f>
+        <v>4.0720766343134889</v>
       </c>
       <c r="Q16" s="15">
-        <f t="shared" ref="Q16:Q45" si="9">M16/(P16)</f>
-        <v>317.30939153909469</v>
+        <f t="shared" ref="Q16:Q45" si="8">M16/(P16)</f>
+        <v>309.82888298822689</v>
       </c>
       <c r="R16" s="16">
-        <f t="shared" ref="R16:R45" si="10">Nozzle_Throat_Diameter+B16*S$6</f>
+        <f t="shared" ref="R16:R45" si="9">Nozzle_Throat_Diameter+B16*S$6</f>
         <v>2.2599999999999998</v>
       </c>
       <c r="S16" s="17">
-        <f t="shared" ref="S16:S45" si="11">PI()*R16^2/4</f>
+        <f t="shared" ref="S16:S45" si="10">PI()*R16^2/4</f>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4623,23 +4621,22 @@
         <v>1.7598160919540231</v>
       </c>
       <c r="O17" s="24">
-        <f t="shared" si="7"/>
-        <v>2.25</v>
+        <v>2.2770000000000001</v>
       </c>
       <c r="P17" s="24">
         <f>PI()*O17^2/4</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="Q17" s="25">
+        <f t="shared" si="8"/>
+        <v>313.88922435965503</v>
+      </c>
+      <c r="R17" s="26">
         <f t="shared" si="9"/>
-        <v>321.46776579259461</v>
-      </c>
-      <c r="R17" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S17" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S17" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4696,23 +4693,22 @@
         <v>1.6969655172413796</v>
       </c>
       <c r="O18" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P18" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P18" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q18" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q18" s="25">
+        <v>317.73014132421201</v>
+      </c>
+      <c r="R18" s="26">
         <f t="shared" si="9"/>
-        <v>325.40141785634387</v>
-      </c>
-      <c r="R18" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S18" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S18" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4769,23 +4765,22 @@
         <v>1.6341149425287358</v>
       </c>
       <c r="O19" s="24">
-        <f t="shared" si="7"/>
-        <v>2.25</v>
+        <v>2.2770000000000001</v>
       </c>
       <c r="P19" s="24">
         <f>PI()*O19^2/4</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="Q19" s="25">
+        <f t="shared" si="8"/>
+        <v>321.35163388189795</v>
+      </c>
+      <c r="R19" s="26">
         <f t="shared" si="9"/>
-        <v>329.11034773034254</v>
-      </c>
-      <c r="R19" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S19" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S19" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4842,23 +4837,22 @@
         <v>1.571264367816092</v>
       </c>
       <c r="O20" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P20" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P20" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q20" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q20" s="25">
+        <v>324.75370203271285</v>
+      </c>
+      <c r="R20" s="26">
         <f t="shared" si="9"/>
-        <v>332.59455541459073</v>
-      </c>
-      <c r="R20" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S20" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S20" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4915,23 +4909,22 @@
         <v>1.5084137931034483</v>
       </c>
       <c r="O21" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P21" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P21" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q21" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q21" s="25">
+        <v>327.93634577665671</v>
+      </c>
+      <c r="R21" s="26">
         <f t="shared" si="9"/>
-        <v>335.85404090908833</v>
-      </c>
-      <c r="R21" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S21" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S21" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4988,23 +4981,22 @@
         <v>1.4455632183908049</v>
       </c>
       <c r="O22" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P22" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P22" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q22" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q22" s="25">
+        <v>330.8995651137293</v>
+      </c>
+      <c r="R22" s="26">
         <f t="shared" si="9"/>
-        <v>338.88880421383521</v>
-      </c>
-      <c r="R22" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S22" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S22" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5061,23 +5053,22 @@
         <v>1.3827126436781612</v>
       </c>
       <c r="O23" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P23" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P23" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q23" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q23" s="25">
+        <v>333.6433600439309</v>
+      </c>
+      <c r="R23" s="26">
         <f t="shared" si="9"/>
-        <v>341.69884532883157</v>
-      </c>
-      <c r="R23" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S23" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S23" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5134,23 +5125,22 @@
         <v>1.3198620689655174</v>
       </c>
       <c r="O24" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P24" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P24" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q24" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q24" s="25">
+        <v>336.16773056726134</v>
+      </c>
+      <c r="R24" s="26">
         <f t="shared" si="9"/>
-        <v>344.28416425407738</v>
-      </c>
-      <c r="R24" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S24" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S24" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5207,23 +5197,22 @@
         <v>1.2570114942528736</v>
       </c>
       <c r="O25" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P25" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P25" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q25" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q25" s="25">
+        <v>338.47267668372075</v>
+      </c>
+      <c r="R25" s="26">
         <f t="shared" si="9"/>
-        <v>346.64476098957255</v>
-      </c>
-      <c r="R25" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S25" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S25" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5280,23 +5269,22 @@
         <v>1.1941609195402303</v>
       </c>
       <c r="O26" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P26" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P26" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q26" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q26" s="25">
+        <v>340.55819839330906</v>
+      </c>
+      <c r="R26" s="26">
         <f t="shared" si="9"/>
-        <v>348.78063553531712</v>
-      </c>
-      <c r="R26" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S26" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S26" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5353,23 +5341,22 @@
         <v>1.1313103448275865</v>
       </c>
       <c r="O27" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P27" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P27" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q27" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q27" s="25">
+        <v>342.42429569602615</v>
+      </c>
+      <c r="R27" s="26">
         <f t="shared" si="9"/>
-        <v>350.69178789131109</v>
-      </c>
-      <c r="R27" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S27" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S27" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5426,23 +5413,22 @@
         <v>1.0684597701149428</v>
       </c>
       <c r="O28" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P28" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P28" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q28" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q28" s="25">
+        <v>344.07096859187232</v>
+      </c>
+      <c r="R28" s="26">
         <f t="shared" si="9"/>
-        <v>352.37821805755448</v>
-      </c>
-      <c r="R28" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S28" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S28" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5499,23 +5485,22 @@
         <v>1.005609195402299</v>
       </c>
       <c r="O29" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P29" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P29" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q29" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q29" s="25">
+        <v>345.49821708084727</v>
+      </c>
+      <c r="R29" s="26">
         <f t="shared" si="9"/>
-        <v>353.83992603404727</v>
-      </c>
-      <c r="R29" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S29" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S29" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5572,23 +5557,22 @@
         <v>0.94275862068965521</v>
       </c>
       <c r="O30" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P30" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P30" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q30" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q30" s="25">
+        <v>346.70604116295118</v>
+      </c>
+      <c r="R30" s="26">
         <f t="shared" si="9"/>
-        <v>355.07691182078952</v>
-      </c>
-      <c r="R30" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S30" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S30" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5645,23 +5629,22 @@
         <v>0.87990804597701144</v>
       </c>
       <c r="O31" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P31" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P31" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q31" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q31" s="25">
+        <v>347.69444083818399</v>
+      </c>
+      <c r="R31" s="26">
         <f t="shared" si="9"/>
-        <v>356.08917541778112</v>
-      </c>
-      <c r="R31" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S31" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S31" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5718,23 +5701,22 @@
         <v>0.81705747126436767</v>
       </c>
       <c r="O32" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P32" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P32" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q32" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q32" s="25">
+        <v>348.46341610654576</v>
+      </c>
+      <c r="R32" s="26">
         <f t="shared" si="9"/>
-        <v>356.87671682502224</v>
-      </c>
-      <c r="R32" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S32" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S32" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5791,23 +5773,22 @@
         <v>0.7542068965517239</v>
       </c>
       <c r="O33" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P33" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P33" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q33" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q33" s="25">
+        <v>349.01296696803627</v>
+      </c>
+      <c r="R33" s="26">
         <f t="shared" si="9"/>
-        <v>357.4395360425126</v>
-      </c>
-      <c r="R33" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S33" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S33" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5864,23 +5845,22 @@
         <v>0.69135632183908058</v>
       </c>
       <c r="O34" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P34" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P34" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q34" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q34" s="25">
+        <v>349.34309342265584</v>
+      </c>
+      <c r="R34" s="26">
         <f t="shared" si="9"/>
-        <v>357.77763307025248</v>
-      </c>
-      <c r="R34" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S34" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S34" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5937,23 +5917,22 @@
         <v>0.62850574712643681</v>
       </c>
       <c r="O35" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P35" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P35" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q35" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q35" s="25">
+        <v>349.45379547040426</v>
+      </c>
+      <c r="R35" s="26">
         <f t="shared" si="9"/>
-        <v>357.8910079082417</v>
-      </c>
-      <c r="R35" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S35" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S35" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6010,23 +5989,22 @@
         <v>0.56565517241379348</v>
       </c>
       <c r="O36" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P36" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P36" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q36" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q36" s="25">
+        <v>349.34507311128152</v>
+      </c>
+      <c r="R36" s="26">
         <f t="shared" si="9"/>
-        <v>357.77966055648034</v>
-      </c>
-      <c r="R36" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S36" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S36" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6083,23 +6061,22 @@
         <v>0.50280459770114971</v>
       </c>
       <c r="O37" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P37" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P37" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q37" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q37" s="25">
+        <v>349.0169263452878</v>
+      </c>
+      <c r="R37" s="26">
         <f t="shared" si="9"/>
-        <v>357.44359101496843</v>
-      </c>
-      <c r="R37" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S37" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S37" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6156,23 +6133,22 @@
         <v>0.43995402298850594</v>
       </c>
       <c r="O38" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P38" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P38" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q38" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q38" s="25">
+        <v>348.46935517242292</v>
+      </c>
+      <c r="R38" s="26">
         <f t="shared" si="9"/>
-        <v>356.88279928370594</v>
-      </c>
-      <c r="R38" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S38" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S38" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6229,23 +6205,22 @@
         <v>0.37710344827586217</v>
       </c>
       <c r="O39" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P39" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P39" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q39" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q39" s="25">
+        <v>347.702359592687</v>
+      </c>
+      <c r="R39" s="26">
         <f t="shared" si="9"/>
-        <v>356.0972853626929</v>
-      </c>
-      <c r="R39" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S39" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S39" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6302,23 +6277,22 @@
         <v>0.3142528735632184</v>
       </c>
       <c r="O40" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P40" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P40" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q40" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q40" s="25">
+        <v>346.71593960607993</v>
+      </c>
+      <c r="R40" s="26">
         <f t="shared" si="9"/>
-        <v>355.08704925192916</v>
-      </c>
-      <c r="R40" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S40" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S40" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6375,23 +6349,22 @@
         <v>0.25140229885057463</v>
       </c>
       <c r="O41" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P41" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P41" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q41" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q41" s="25">
+        <v>345.51009521260181</v>
+      </c>
+      <c r="R41" s="26">
         <f t="shared" si="9"/>
-        <v>353.85209095141494</v>
-      </c>
-      <c r="R41" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S41" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S41" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6448,23 +6421,22 @@
         <v>0.18855172413793087</v>
       </c>
       <c r="O42" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P42" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P42" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q42" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q42" s="25">
+        <v>344.08482641225254</v>
+      </c>
+      <c r="R42" s="26">
         <f t="shared" si="9"/>
-        <v>352.39241046115001</v>
-      </c>
-      <c r="R42" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S42" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S42" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6521,23 +6493,22 @@
         <v>0.1257011494252871</v>
       </c>
       <c r="O43" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P43" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P43" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q43" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q43" s="25">
+        <v>342.44013320503228</v>
+      </c>
+      <c r="R43" s="26">
         <f t="shared" si="9"/>
-        <v>350.7080077811346</v>
-      </c>
-      <c r="R43" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S43" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S43" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6593,24 +6564,23 @@
         <f t="shared" si="6"/>
         <v>6.2850574712643326E-2</v>
       </c>
-      <c r="O44" s="128">
+      <c r="O44" s="24">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P44" s="24">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P44" s="24">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q44" s="25">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q44" s="25">
+        <v>340.57601559094076</v>
+      </c>
+      <c r="R44" s="26">
         <f t="shared" si="9"/>
-        <v>348.79888291136848</v>
-      </c>
-      <c r="R44" s="26">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S44" s="27">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S44" s="27">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6667,23 +6637,22 @@
         <v>0</v>
       </c>
       <c r="O45" s="33">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="P45" s="127">
         <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="P45" s="127">
+        <v>4.0720766343134889</v>
+      </c>
+      <c r="Q45" s="34">
         <f t="shared" si="8"/>
-        <v>3.9760782021995817</v>
-      </c>
-      <c r="Q45" s="34">
+        <v>338.49247356997836</v>
+      </c>
+      <c r="R45" s="35">
         <f t="shared" si="9"/>
-        <v>346.66503585185194</v>
-      </c>
-      <c r="R45" s="35">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S45" s="36">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S45" s="36">
-        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -16172,37 +16141,6 @@
     <row r="996" spans="3:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="T2:U3"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="R8:U8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="B9:C9"/>
@@ -16219,6 +16157,37 @@
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="T2:U3"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="T2:U3">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
@@ -16256,36 +16225,36 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="222"/>
-      <c r="N2" s="198" t="s">
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="199"/>
+      <c r="N2" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="200"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="210"/>
     </row>
     <row r="3" spans="2:34" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144" t="str">
+      <c r="C3" s="182"/>
+      <c r="D3" s="183" t="str">
         <f>'Bates Grain Kn Calculator'!D3</f>
         <v>Q-Motor</v>
       </c>
-      <c r="E3" s="145"/>
-      <c r="N3" s="209" t="s">
+      <c r="E3" s="184"/>
+      <c r="N3" s="217" t="s">
         <v>107</v>
       </c>
-      <c r="O3" s="211" t="s">
+      <c r="O3" s="219" t="s">
         <v>108</v>
       </c>
       <c r="P3" s="52"/>
@@ -16303,8 +16272,8 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="N4" s="209"/>
-      <c r="O4" s="211"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="219"/>
       <c r="P4" s="52"/>
       <c r="Q4" s="52"/>
       <c r="R4" s="52"/>
@@ -16312,11 +16281,11 @@
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="221" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
       <c r="E5" s="66">
         <f>'Bates Grain Kn Calculator'!D6</f>
         <v>7.0620000000000003</v>
@@ -16324,19 +16293,19 @@
       <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="201" t="s">
+      <c r="H5" s="211" t="s">
         <v>125</v>
       </c>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="203"/>
-      <c r="N5" s="210"/>
-      <c r="O5" s="212"/>
+      <c r="I5" s="212"/>
+      <c r="J5" s="212"/>
+      <c r="K5" s="213"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="220"/>
       <c r="P5" s="52"/>
-      <c r="Q5" s="207" t="s">
+      <c r="Q5" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="R5" s="208"/>
+      <c r="R5" s="216"/>
       <c r="S5" s="76">
         <f>SUM(O14+O15+O16+O17+O18+O19+O20+O21+O22+O23)/ng</f>
         <v>3.4166666666666665</v>
@@ -16346,11 +16315,11 @@
       </c>
     </row>
     <row r="6" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="216" t="s">
+      <c r="B6" s="204" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="217"/>
-      <c r="D6" s="217"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="205"/>
       <c r="E6" s="67">
         <f>'Bates Grain Kn Calculator'!D8</f>
         <v>14</v>
@@ -16358,11 +16327,11 @@
       <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="207" t="s">
+      <c r="H6" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="223"/>
-      <c r="J6" s="223"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="201"/>
       <c r="K6" s="65">
         <v>0.57499999999999996</v>
       </c>
@@ -16378,10 +16347,10 @@
         <v>449.40939697173826</v>
       </c>
       <c r="P6" s="52"/>
-      <c r="Q6" s="205" t="s">
+      <c r="Q6" s="202" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="206"/>
+      <c r="R6" s="215"/>
       <c r="S6" s="77">
         <f>AVERAGE(E14:E19)</f>
         <v>29.811235565963457</v>
@@ -16391,22 +16360,22 @@
       </c>
     </row>
     <row r="7" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
       <c r="E7" s="62">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="205" t="s">
+      <c r="H7" s="202" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="213"/>
-      <c r="J7" s="213"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="203"/>
       <c r="K7" s="65">
         <v>0.1</v>
       </c>
@@ -16422,10 +16391,10 @@
         <v>449.40939697173826</v>
       </c>
       <c r="P7" s="52"/>
-      <c r="Q7" s="205" t="s">
+      <c r="Q7" s="202" t="s">
         <v>88</v>
       </c>
-      <c r="R7" s="206"/>
+      <c r="R7" s="215"/>
       <c r="S7" s="77">
         <f>(C14+C15+C16+C17+C18+C19)/ng</f>
         <v>3.4166666666666665</v>
@@ -16435,23 +16404,23 @@
       </c>
     </row>
     <row r="8" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="216" t="s">
+      <c r="B8" s="204" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
       <c r="E8" s="67">
         <f>Estimate!D10</f>
-        <v>0.25165922323104589</v>
+        <v>0.24590951198505437</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="205" t="s">
+      <c r="H8" s="202" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="213"/>
-      <c r="J8" s="213"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
       <c r="K8" s="65">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -16467,10 +16436,10 @@
         <v>449.40939697173826</v>
       </c>
       <c r="P8" s="52"/>
-      <c r="Q8" s="205" t="s">
+      <c r="Q8" s="202" t="s">
         <v>87</v>
       </c>
-      <c r="R8" s="206"/>
+      <c r="R8" s="215"/>
       <c r="S8" s="77">
         <f>SUM(O6:O11)</f>
         <v>2504.1437875409301</v>
@@ -16480,11 +16449,11 @@
       </c>
     </row>
     <row r="9" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="216" t="s">
+      <c r="B9" s="204" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="217"/>
-      <c r="D9" s="217"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="205"/>
       <c r="E9" s="67">
         <f>[0]!Num_Grains</f>
         <v>6</v>
@@ -16492,11 +16461,11 @@
       <c r="F9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="205" t="s">
+      <c r="H9" s="202" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="213"/>
-      <c r="J9" s="213"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
       <c r="K9" s="65">
         <f>PI()/4*ds^2</f>
         <v>0.25967226777328128</v>
@@ -16513,10 +16482,10 @@
         <v>421.26072679557376</v>
       </c>
       <c r="P9" s="52"/>
-      <c r="Q9" s="205" t="s">
+      <c r="Q9" s="202" t="s">
         <v>84</v>
       </c>
-      <c r="R9" s="206"/>
+      <c r="R9" s="215"/>
       <c r="S9" s="77">
         <f>S10*rhop</f>
         <v>147.74448346491488</v>
@@ -16526,11 +16495,11 @@
       </c>
     </row>
     <row r="10" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="218" t="s">
+      <c r="B10" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="207"/>
       <c r="E10" s="75">
         <f>[0]!boundary_layer</f>
         <v>5.0000000000000001E-3</v>
@@ -16538,11 +16507,11 @@
       <c r="F10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="205" t="s">
+      <c r="H10" s="202" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="213"/>
-      <c r="J10" s="213"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="203"/>
       <c r="K10" s="65">
         <f>As*sdots</f>
         <v>2.5967226777328128E-2</v>
@@ -16559,10 +16528,10 @@
         <v>389.59347284738863</v>
       </c>
       <c r="P10" s="52"/>
-      <c r="Q10" s="133" t="s">
+      <c r="Q10" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="134"/>
+      <c r="R10" s="175"/>
       <c r="S10" s="78">
         <f>S8</f>
         <v>2504.1437875409301</v>
@@ -16579,11 +16548,11 @@
       <c r="AH10" s="3"/>
     </row>
     <row r="11" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="204"/>
-      <c r="D11" s="134"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="175"/>
       <c r="E11" s="63">
         <v>1.4</v>
       </c>
@@ -16591,11 +16560,11 @@
         <v>92</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="204"/>
-      <c r="J11" s="204"/>
+      <c r="I11" s="214"/>
+      <c r="J11" s="214"/>
       <c r="K11" s="68">
         <f>Vdots*rhos</f>
         <v>1.8177058744129691E-3</v>
@@ -16718,19 +16687,19 @@
       </c>
       <c r="G14" s="91">
         <f t="shared" ref="G14:G23" si="5">Aseg*sdot</f>
-        <v>49.36251217520087</v>
+        <v>48.234716469006649</v>
       </c>
       <c r="H14" s="91">
         <f t="shared" ref="H14:H23" si="6">Aend*sdot</f>
-        <v>8.0784299824743133</v>
+        <v>7.8938603922012653</v>
       </c>
       <c r="I14" s="91">
         <f>0+Vdot-Vdote</f>
-        <v>41.284082192726558</v>
+        <v>40.34085607680538</v>
       </c>
       <c r="J14" s="91">
         <f t="shared" ref="J14:J23" si="7">IF(ig&gt;ng,0,VdotAbove*rhop+Wdots)</f>
-        <v>2.4375785552452798</v>
+        <v>2.3819282144059306</v>
       </c>
       <c r="K14" s="91">
         <f>PI()/4*dc^2</f>
@@ -16738,7 +16707,7 @@
       </c>
       <c r="L14" s="91">
         <f>WdotAbove/Ac</f>
-        <v>0.34484682332629951</v>
+        <v>0.33697391058911624</v>
       </c>
       <c r="M14" s="91">
         <f>PI()/4*(dc-2*bl)^2</f>
@@ -16746,7 +16715,7 @@
       </c>
       <c r="N14" s="91">
         <f>WdotAbove/M14</f>
-        <v>0.34715734834472717</v>
+        <v>0.33923168592096797</v>
       </c>
       <c r="O14" s="92">
         <f t="shared" ref="O14:O23" si="8">IF(ig&gt;ng,0,C14)</f>
@@ -16777,19 +16746,19 @@
       </c>
       <c r="G15" s="95">
         <f t="shared" si="5"/>
-        <v>49.36251217520087</v>
+        <v>48.234716469006649</v>
       </c>
       <c r="H15" s="95">
         <f t="shared" si="6"/>
-        <v>8.0784299824743133</v>
+        <v>7.8938603922012653</v>
       </c>
       <c r="I15" s="95">
         <f t="shared" ref="I15:I23" si="9">IF(ig&gt;ng,0,I14+H14+Vdot-Vdote)</f>
-        <v>90.64659436792742</v>
+        <v>88.575572545812022</v>
       </c>
       <c r="J15" s="95">
         <f t="shared" si="7"/>
-        <v>5.349966773582131</v>
+        <v>5.2277764860773219</v>
       </c>
       <c r="K15" s="95">
         <f t="shared" ref="K15:K23" si="10">IF(ig&gt;ng,0,PI()/4*dc^2)</f>
@@ -16797,7 +16766,7 @@
       </c>
       <c r="L15" s="95">
         <f t="shared" ref="L15:L23" si="11">IF(ig&gt;ng,0,WdotAbove/Ac)</f>
-        <v>0.75686547323821773</v>
+        <v>0.73957908367891978</v>
       </c>
       <c r="M15" s="95">
         <f t="shared" ref="M15:M23" si="12">IF(ig&gt;ng,0,PI()/4*(dc-2*bl)^2)</f>
@@ -16805,7 +16774,7 @@
       </c>
       <c r="N15" s="95">
         <f t="shared" ref="N15:N23" si="13">IF(ig&gt;ng,0,WdotAbove/M15)</f>
-        <v>0.76193658450620905</v>
+        <v>0.74453437356520369</v>
       </c>
       <c r="O15" s="96">
         <f t="shared" si="8"/>
@@ -16835,19 +16804,19 @@
       </c>
       <c r="G16" s="95">
         <f t="shared" si="5"/>
-        <v>49.36251217520087</v>
+        <v>48.234716469006649</v>
       </c>
       <c r="H16" s="95">
         <f t="shared" si="6"/>
-        <v>8.0784299824743133</v>
+        <v>7.8938603922012653</v>
       </c>
       <c r="I16" s="95">
         <f t="shared" si="9"/>
-        <v>140.0091065431283</v>
+        <v>136.81028901481866</v>
       </c>
       <c r="J16" s="95">
         <f t="shared" si="7"/>
-        <v>8.2623549919189809</v>
+        <v>8.0736247577487124</v>
       </c>
       <c r="K16" s="95">
         <f t="shared" si="10"/>
@@ -16855,7 +16824,7 @@
       </c>
       <c r="L16" s="95">
         <f t="shared" si="11"/>
-        <v>1.1688841231501359</v>
+        <v>1.1421842567687233</v>
       </c>
       <c r="M16" s="95">
         <f t="shared" si="12"/>
@@ -16863,7 +16832,7 @@
       </c>
       <c r="N16" s="95">
         <f t="shared" si="13"/>
-        <v>1.1767158206676906</v>
+        <v>1.1498370612094393</v>
       </c>
       <c r="O16" s="96">
         <f t="shared" si="8"/>
@@ -16893,19 +16862,19 @@
       </c>
       <c r="G17" s="95">
         <f t="shared" si="5"/>
-        <v>52.77795068825538</v>
+        <v>51.572121739423068</v>
       </c>
       <c r="H17" s="95">
         <f t="shared" si="6"/>
-        <v>7.5724390916514235</v>
+        <v>7.3994299817692042</v>
       </c>
       <c r="I17" s="95">
         <f t="shared" si="9"/>
-        <v>193.29304812220656</v>
+        <v>188.87684116467381</v>
       </c>
       <c r="J17" s="95">
         <f t="shared" si="7"/>
-        <v>11.406107545084598</v>
+        <v>11.145551334590166</v>
       </c>
       <c r="K17" s="95">
         <f t="shared" si="10"/>
@@ -16913,7 +16882,7 @@
       </c>
       <c r="L17" s="95">
         <f t="shared" si="11"/>
-        <v>1.2562895482615761</v>
+        <v>1.2275914106467103</v>
       </c>
       <c r="M17" s="95">
         <f t="shared" si="12"/>
@@ -16921,7 +16890,7 @@
       </c>
       <c r="N17" s="95">
         <f t="shared" si="13"/>
-        <v>1.2637122177760218</v>
+        <v>1.2348445198941855</v>
       </c>
       <c r="O17" s="96">
         <f t="shared" si="8"/>
@@ -16957,19 +16926,19 @@
       </c>
       <c r="G18" s="95">
         <f t="shared" si="5"/>
-        <v>56.06689147860417</v>
+        <v>54.785919407231468</v>
       </c>
       <c r="H18" s="95">
         <f t="shared" si="6"/>
-        <v>7.0031993394756702</v>
+        <v>6.843195770033133</v>
       </c>
       <c r="I18" s="95">
         <f t="shared" si="9"/>
-        <v>249.92917935298652</v>
+        <v>244.21899478364134</v>
       </c>
       <c r="J18" s="95">
         <f t="shared" si="7"/>
-        <v>14.747639287700617</v>
+        <v>14.410738398109251</v>
       </c>
       <c r="K18" s="95">
         <f t="shared" si="10"/>
@@ -16977,7 +16946,7 @@
       </c>
       <c r="L18" s="95">
         <f t="shared" si="11"/>
-        <v>1.3003654800962834</v>
+        <v>1.2706594180959938</v>
       </c>
       <c r="M18" s="95">
         <f t="shared" si="12"/>
@@ -16985,7 +16954,7 @@
       </c>
       <c r="N18" s="95">
         <f t="shared" si="13"/>
-        <v>1.3072366199476704</v>
+        <v>1.2773735909180632</v>
       </c>
       <c r="O18" s="96">
         <f t="shared" si="8"/>
@@ -17021,19 +16990,19 @@
       </c>
       <c r="G19" s="95">
         <f t="shared" si="5"/>
-        <v>60.000180043985246</v>
+        <v>58.629343300824466</v>
       </c>
       <c r="H19" s="95">
         <f t="shared" si="6"/>
-        <v>6.2027059379785188</v>
+        <v>6.0609914097792839</v>
       </c>
       <c r="I19" s="95">
         <f t="shared" si="9"/>
-        <v>310.72985279846893</v>
+        <v>303.63054244471965</v>
       </c>
       <c r="J19" s="95">
         <f t="shared" si="7"/>
-        <v>18.334879020984079</v>
+        <v>17.91601971011287</v>
       </c>
       <c r="K19" s="95">
         <f t="shared" si="10"/>
@@ -17041,7 +17010,7 @@
       </c>
       <c r="L19" s="95">
         <f t="shared" si="11"/>
-        <v>1.2625577618957307</v>
+        <v>1.2337146987112124</v>
       </c>
       <c r="M19" s="95">
         <f t="shared" si="12"/>
@@ -17049,7 +17018,7 @@
       </c>
       <c r="N19" s="95">
         <f t="shared" si="13"/>
-        <v>1.2684506722660742</v>
+        <v>1.2394729858656666</v>
       </c>
       <c r="O19" s="96">
         <f t="shared" si="8"/>
@@ -21225,18 +21194,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="H5:K5"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q10:R10"/>
@@ -21251,6 +21208,18 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21261,8 +21230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21277,14 +21246,14 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="233" t="s">
+      <c r="B2" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="234"/>
-      <c r="F2" s="229" t="s">
+      <c r="C2" s="230"/>
+      <c r="F2" s="223" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="230"/>
+      <c r="G2" s="224"/>
       <c r="H2" s="121">
         <v>1.26</v>
       </c>
@@ -21298,80 +21267,80 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="200" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="208"/>
+      <c r="C4" s="216"/>
       <c r="D4" s="84">
         <v>9.1</v>
       </c>
-      <c r="F4" s="226" t="s">
+      <c r="F4" s="231" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="227"/>
-      <c r="H4" s="228"/>
-      <c r="J4" s="214" t="s">
+      <c r="G4" s="232"/>
+      <c r="H4" s="233"/>
+      <c r="J4" s="221" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="215"/>
+      <c r="K4" s="222"/>
       <c r="L4" s="122">
         <f>MAX(D14:D43)</f>
-        <v>745.97934257540339</v>
+        <v>706.70645183248928</v>
       </c>
       <c r="M4" s="82"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="205" t="s">
+      <c r="B5" s="202" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="206"/>
+      <c r="C5" s="215"/>
       <c r="D5" s="85">
         <v>13.43</v>
       </c>
-      <c r="F5" s="216" t="s">
+      <c r="F5" s="204" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="217"/>
+      <c r="G5" s="205"/>
       <c r="H5" s="118">
         <v>1.4109999999999999E-2</v>
       </c>
-      <c r="J5" s="216" t="s">
+      <c r="J5" s="204" t="s">
         <v>127</v>
       </c>
-      <c r="K5" s="217"/>
-      <c r="L5" s="129">
+      <c r="K5" s="205"/>
+      <c r="L5" s="128">
         <f>AVERAGE(D14:D43)</f>
-        <v>698.39506261096119</v>
+        <v>662.61680974492663</v>
       </c>
       <c r="M5" s="82"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="206"/>
+      <c r="C6" s="215"/>
       <c r="D6" s="85">
         <f>(('Bates Grain Kn Calculator'!D11^2)/4)/((Nozzle_Throat_Diameter^2)/4)</f>
         <v>15.858720338319371</v>
       </c>
-      <c r="F6" s="216" t="s">
+      <c r="F6" s="204" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="217"/>
+      <c r="G6" s="205"/>
       <c r="H6" s="118">
         <v>0.44005699999999998</v>
       </c>
-      <c r="J6" s="216" t="s">
+      <c r="J6" s="204" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="217"/>
+      <c r="K6" s="205"/>
       <c r="L6" s="123">
         <f>MAX(L14:L43)</f>
-        <v>4622.4000880041103</v>
+        <v>4462.3794427968842</v>
       </c>
       <c r="M6" s="82" t="s">
         <v>56</v>
@@ -21379,49 +21348,49 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="2:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="205" t="s">
+      <c r="B7" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="206"/>
+      <c r="C7" s="215"/>
       <c r="D7" s="85">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F7" s="231"/>
-      <c r="G7" s="232"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="226"/>
       <c r="H7" s="102"/>
-      <c r="J7" s="216" t="s">
+      <c r="J7" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="217"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="123">
         <f>AVERAGE(L14:L43)</f>
-        <v>4301.6910884659092</v>
+        <v>4158.7807687826853</v>
       </c>
       <c r="M7" s="82" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="202" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="206"/>
+      <c r="C8" s="215"/>
       <c r="D8" s="85">
         <f>6*2300</f>
         <v>13800</v>
       </c>
-      <c r="F8" s="226" t="s">
+      <c r="F8" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="227"/>
-      <c r="H8" s="228"/>
-      <c r="J8" s="216" t="s">
+      <c r="G8" s="232"/>
+      <c r="H8" s="233"/>
+      <c r="J8" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="217"/>
+      <c r="K8" s="205"/>
       <c r="L8" s="124">
         <f>K43</f>
-        <v>7.5002918665422884</v>
+        <v>7.6752800456287389</v>
       </c>
       <c r="M8" s="82" t="s">
         <v>57</v>
@@ -21429,58 +21398,58 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="205" t="s">
+      <c r="B9" s="202" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="206"/>
+      <c r="C9" s="215"/>
       <c r="D9" s="85">
         <f>AVERAGE(D14:D43)</f>
-        <v>698.39506261096119</v>
-      </c>
-      <c r="F9" s="216" t="s">
+        <v>662.61680974492663</v>
+      </c>
+      <c r="F9" s="204" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="217"/>
+      <c r="G9" s="205"/>
       <c r="H9" s="119">
         <v>75.234999999999999</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="216" t="s">
+      <c r="J9" s="204" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="217"/>
+      <c r="K9" s="205"/>
       <c r="L9" s="123">
         <f>MAX(M14:M43)</f>
-        <v>32181.177321244992</v>
+        <v>31841.484924157743</v>
       </c>
       <c r="M9" s="82" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="174" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="134"/>
+      <c r="C10" s="175"/>
       <c r="D10" s="86">
         <f>AVERAGE(I14:I43)</f>
-        <v>0.25165922323104589</v>
-      </c>
-      <c r="F10" s="224" t="s">
+        <v>0.24590951198505437</v>
+      </c>
+      <c r="F10" s="227" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="225"/>
+      <c r="G10" s="228"/>
       <c r="H10" s="120">
         <v>6.4099999999999999E-3</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="224" t="s">
+      <c r="J10" s="227" t="s">
         <v>126</v>
       </c>
-      <c r="K10" s="225"/>
+      <c r="K10" s="228"/>
       <c r="L10" s="125">
         <f>L9/'Erosive Burning'!S9</f>
-        <v>217.81643934534523</v>
+        <v>215.51725098229602</v>
       </c>
       <c r="M10" s="82" t="s">
         <v>57</v>
@@ -21540,28 +21509,28 @@
       </c>
     </row>
     <row r="14" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="130">
+      <c r="B14" s="129">
         <v>0</v>
       </c>
       <c r="C14" s="103">
         <f>'Bates Grain Kn Calculator'!Q16</f>
-        <v>317.30939153909469</v>
+        <v>309.82888298822689</v>
       </c>
       <c r="D14" s="115">
         <f t="shared" ref="D14:D43" si="0">($H$9*EXP(C14*$H$10))</f>
-        <v>575.1148430950891</v>
+        <v>548.18876437058714</v>
       </c>
       <c r="E14" s="104">
         <f>'Bates Grain Kn Calculator'!P16</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F14" s="90">
         <f t="shared" ref="F14:F43" si="1">SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D14)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D14)))</f>
-        <v>1.5190706976187018</v>
+        <v>1.5112482578982209</v>
       </c>
       <c r="G14" s="90">
         <f t="shared" ref="G14:G43" si="2">(D14*E14)*F14</f>
-        <v>3473.6613816813619</v>
+        <v>3373.5090989533583</v>
       </c>
       <c r="H14" s="105">
         <f>'Bates Grain Kn Calculator'!N16-'Bates Grain Kn Calculator'!N17</f>
@@ -21569,49 +21538,49 @@
       </c>
       <c r="I14" s="115">
         <f t="shared" ref="I14:I43" si="3">$H$5*(D14^$H$6)</f>
-        <v>0.23119387990529261</v>
+        <v>0.22636662196561011</v>
       </c>
       <c r="J14" s="90">
         <f t="shared" ref="J14:J43" si="4">H14/I14</f>
-        <v>0.27185224253509732</v>
+        <v>0.27764947926904215</v>
       </c>
       <c r="K14" s="90">
         <f>J14</f>
-        <v>0.27185224253509732</v>
+        <v>0.27764947926904215</v>
       </c>
       <c r="L14" s="90">
         <f t="shared" ref="L14:L43" si="5">G14</f>
-        <v>3473.6613816813619</v>
+        <v>3373.5090989533583</v>
       </c>
       <c r="M14" s="106">
         <f>G14*J14</f>
-        <v>944.32263641764291</v>
+        <v>936.65304463377549</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="131">
+      <c r="B15" s="130">
         <v>1</v>
       </c>
       <c r="C15" s="107">
         <f>'Bates Grain Kn Calculator'!Q17</f>
-        <v>321.46776579259461</v>
+        <v>313.88922435965503</v>
       </c>
       <c r="D15" s="116">
         <f t="shared" si="0"/>
-        <v>590.65076875914372</v>
+        <v>562.64364837015137</v>
       </c>
       <c r="E15" s="108">
         <f>'Bates Grain Kn Calculator'!P17</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F15" s="94">
         <f t="shared" si="1"/>
-        <v>1.523337563141598</v>
+        <v>1.5155179351079908</v>
       </c>
       <c r="G15" s="94">
         <f t="shared" si="2"/>
-        <v>3577.5181221814914</v>
+        <v>3472.2456574251323</v>
       </c>
       <c r="H15" s="109">
         <f>'Bates Grain Kn Calculator'!N17-'Bates Grain Kn Calculator'!N18</f>
@@ -21619,49 +21588,49 @@
       </c>
       <c r="I15" s="116">
         <f t="shared" si="3"/>
-        <v>0.23392170457618591</v>
+        <v>0.22897416401873885</v>
       </c>
       <c r="J15" s="94">
         <f t="shared" si="4"/>
-        <v>0.26868209953631628</v>
+        <v>0.27448762606902655</v>
       </c>
       <c r="K15" s="94">
         <f t="shared" ref="K15:K43" si="6">J15+K14</f>
-        <v>0.5405343420714136</v>
+        <v>0.5521371053380687</v>
       </c>
       <c r="L15" s="94">
         <f t="shared" si="5"/>
-        <v>3577.5181221814914</v>
+        <v>3472.2456574251323</v>
       </c>
       <c r="M15" s="110">
         <f t="shared" ref="M15:M43" si="7">(G15*J15)+M14</f>
-        <v>1905.5377166145856</v>
+        <v>1889.7415122688865</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="131">
+      <c r="B16" s="130">
         <v>2</v>
       </c>
       <c r="C16" s="107">
         <f>'Bates Grain Kn Calculator'!Q18</f>
-        <v>325.40141785634387</v>
+        <v>317.73014132421201</v>
       </c>
       <c r="D16" s="116">
         <f t="shared" si="0"/>
-        <v>605.73320700939644</v>
+        <v>576.66802487703706</v>
       </c>
       <c r="E16" s="108">
         <f>'Bates Grain Kn Calculator'!P18</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F16" s="94">
         <f t="shared" si="1"/>
-        <v>1.5273217045572653</v>
+        <v>1.5195050370123613</v>
       </c>
       <c r="G16" s="94">
         <f t="shared" si="2"/>
-        <v>3678.4666582882714</v>
+        <v>3568.1570224841826</v>
       </c>
       <c r="H16" s="109">
         <f>'Bates Grain Kn Calculator'!N18-'Bates Grain Kn Calculator'!N19</f>
@@ -21669,49 +21638,49 @@
       </c>
       <c r="I16" s="116">
         <f t="shared" si="3"/>
-        <v>0.23653173218112311</v>
+        <v>0.23146843211486062</v>
       </c>
       <c r="J16" s="94">
         <f t="shared" si="4"/>
-        <v>0.26571730622813949</v>
+        <v>0.27152978977909042</v>
       </c>
       <c r="K16" s="94">
         <f t="shared" si="6"/>
-        <v>0.80625164829955309</v>
+        <v>0.82366689511715907</v>
       </c>
       <c r="L16" s="94">
         <f t="shared" si="5"/>
-        <v>3678.4666582882714</v>
+        <v>3568.1570224841826</v>
       </c>
       <c r="M16" s="110">
         <f t="shared" si="7"/>
-        <v>2882.9699681049715</v>
+        <v>2858.6024384828015</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="131">
+      <c r="B17" s="130">
         <v>3</v>
       </c>
       <c r="C17" s="107">
         <f>'Bates Grain Kn Calculator'!Q19</f>
-        <v>329.11034773034254</v>
+        <v>321.35163388189795</v>
       </c>
       <c r="D17" s="116">
         <f t="shared" si="0"/>
-        <v>620.30660324232576</v>
+        <v>590.21124866110131</v>
       </c>
       <c r="E17" s="108">
         <f>'Bates Grain Kn Calculator'!P19</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F17" s="94">
         <f t="shared" si="1"/>
-        <v>1.5310327980556258</v>
+        <v>1.523219175992891</v>
       </c>
       <c r="G17" s="94">
         <f t="shared" si="2"/>
-        <v>3776.1202529437273</v>
+        <v>3660.8827818663831</v>
       </c>
       <c r="H17" s="109">
         <f>'Bates Grain Kn Calculator'!N19-'Bates Grain Kn Calculator'!N20</f>
@@ -21719,49 +21688,49 @@
       </c>
       <c r="I17" s="116">
         <f t="shared" si="3"/>
-        <v>0.23901932203708376</v>
+        <v>0.23384508884981886</v>
       </c>
       <c r="J17" s="94">
         <f t="shared" si="4"/>
-        <v>0.26295185751925332</v>
+        <v>0.26877012907039488</v>
       </c>
       <c r="K17" s="94">
         <f t="shared" si="6"/>
-        <v>1.0692035058188063</v>
+        <v>1.0924370241875541</v>
       </c>
       <c r="L17" s="94">
         <f t="shared" si="5"/>
-        <v>3776.1202529437273</v>
+        <v>3660.8827818663831</v>
       </c>
       <c r="M17" s="110">
         <f t="shared" si="7"/>
-        <v>3875.9078028325976</v>
+        <v>3842.5383762766155</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="131">
+      <c r="B18" s="130">
         <v>4</v>
       </c>
       <c r="C18" s="107">
         <f>'Bates Grain Kn Calculator'!Q20</f>
-        <v>332.59455541459073</v>
+        <v>324.75370203271285</v>
       </c>
       <c r="D18" s="116">
         <f t="shared" si="0"/>
-        <v>634.3162508336834</v>
+        <v>603.2235020628558</v>
       </c>
       <c r="E18" s="108">
         <f>'Bates Grain Kn Calculator'!P20</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F18" s="94">
         <f t="shared" si="1"/>
-        <v>1.5344796614247713</v>
+        <v>1.5266691141469659</v>
       </c>
       <c r="G18" s="94">
         <f t="shared" si="2"/>
-        <v>3870.0973717525544</v>
+        <v>3750.0677660317492</v>
       </c>
       <c r="H18" s="109">
         <f>'Bates Grain Kn Calculator'!N20-'Bates Grain Kn Calculator'!N21</f>
@@ -21769,49 +21738,49 @@
       </c>
       <c r="I18" s="116">
         <f t="shared" si="3"/>
-        <v>0.24138001718505264</v>
+        <v>0.23609997039363995</v>
       </c>
       <c r="J18" s="94">
         <f t="shared" si="4"/>
-        <v>0.26038018989972866</v>
+        <v>0.26620322996167911</v>
       </c>
       <c r="K18" s="94">
         <f t="shared" si="6"/>
-        <v>1.329583695718535</v>
+        <v>1.3586402541492331</v>
       </c>
       <c r="L18" s="94">
         <f t="shared" si="5"/>
-        <v>3870.0973717525544</v>
+        <v>3750.0677660317492</v>
       </c>
       <c r="M18" s="110">
         <f t="shared" si="7"/>
-        <v>4883.6044914199683</v>
+        <v>4840.8185281694459</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="131">
+      <c r="B19" s="130">
         <v>5</v>
       </c>
       <c r="C19" s="107">
         <f>'Bates Grain Kn Calculator'!Q21</f>
-        <v>335.85404090908833</v>
+        <v>327.93634577665671</v>
       </c>
       <c r="D19" s="116">
         <f t="shared" si="0"/>
-        <v>647.70863017371903</v>
+        <v>615.6560976742602</v>
       </c>
       <c r="E19" s="108">
         <f>'Bates Grain Kn Calculator'!P21</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F19" s="94">
         <f t="shared" si="1"/>
-        <v>1.5376703181440567</v>
+        <v>1.5298628263419281</v>
       </c>
       <c r="G19" s="94">
         <f t="shared" si="2"/>
-        <v>3960.0241320906525</v>
+        <v>3835.3642852737612</v>
       </c>
       <c r="H19" s="109">
         <f>'Bates Grain Kn Calculator'!N21-'Bates Grain Kn Calculator'!N22</f>
@@ -21819,49 +21788,49 @@
       </c>
       <c r="I19" s="116">
         <f t="shared" si="3"/>
-        <v>0.24360955767659515</v>
+        <v>0.23822909862911462</v>
       </c>
       <c r="J19" s="94">
         <f t="shared" si="4"/>
-        <v>0.25799716280459267</v>
+        <v>0.2638240881332965</v>
       </c>
       <c r="K19" s="94">
         <f t="shared" si="6"/>
-        <v>1.5875808585231277</v>
+        <v>1.6224643422825296</v>
       </c>
       <c r="L19" s="94">
         <f t="shared" si="5"/>
-        <v>3960.0241320906525</v>
+        <v>3835.3642852737612</v>
       </c>
       <c r="M19" s="110">
         <f t="shared" si="7"/>
-        <v>5905.2794821370762</v>
+        <v>5852.6800133908082</v>
       </c>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="131">
+      <c r="B20" s="130">
         <v>6</v>
       </c>
       <c r="C20" s="107">
         <f>'Bates Grain Kn Calculator'!Q22</f>
-        <v>338.88880421383521</v>
+        <v>330.8995651137293</v>
       </c>
       <c r="D20" s="116">
         <f t="shared" si="0"/>
-        <v>660.43174696738538</v>
+        <v>627.46177987791555</v>
       </c>
       <c r="E20" s="108">
         <f>'Bates Grain Kn Calculator'!P22</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F20" s="94">
         <f t="shared" si="1"/>
-        <v>1.540612054165736</v>
+        <v>1.532807556107562</v>
       </c>
       <c r="G20" s="94">
         <f t="shared" si="2"/>
-        <v>4045.5367510012306</v>
+        <v>3916.4343620014142</v>
       </c>
       <c r="H20" s="109">
         <f>'Bates Grain Kn Calculator'!N22-'Bates Grain Kn Calculator'!N23</f>
@@ -21869,49 +21838,49 @@
       </c>
       <c r="I20" s="116">
         <f t="shared" si="3"/>
-        <v>0.24570389336864973</v>
+        <v>0.24022869283393264</v>
       </c>
       <c r="J20" s="94">
         <f t="shared" si="4"/>
-        <v>0.25579804150007462</v>
+        <v>0.26162809267788695</v>
       </c>
       <c r="K20" s="94">
         <f t="shared" si="6"/>
-        <v>1.8433789000232024</v>
+        <v>1.8840924349604165</v>
       </c>
       <c r="L20" s="94">
         <f t="shared" si="5"/>
-        <v>4045.5367510012306</v>
+        <v>3916.4343620014142</v>
       </c>
       <c r="M20" s="110">
         <f t="shared" si="7"/>
-        <v>6940.1198598597657</v>
+        <v>6877.3292656193753</v>
       </c>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="131">
+      <c r="B21" s="130">
         <v>7</v>
       </c>
       <c r="C21" s="107">
         <f>'Bates Grain Kn Calculator'!Q23</f>
-        <v>341.69884532883157</v>
+        <v>333.6433600439309</v>
       </c>
       <c r="D21" s="116">
         <f t="shared" si="0"/>
-        <v>672.43546683081513</v>
+        <v>638.59502265078504</v>
       </c>
       <c r="E21" s="108">
         <f>'Bates Grain Kn Calculator'!P23</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F21" s="94">
         <f t="shared" si="1"/>
-        <v>1.5433114681910689</v>
+        <v>1.5355098651512691</v>
       </c>
       <c r="G21" s="94">
         <f t="shared" si="2"/>
-        <v>4126.2839699645874</v>
+        <v>3992.9519386083794</v>
       </c>
       <c r="H21" s="109">
         <f>'Bates Grain Kn Calculator'!N23-'Bates Grain Kn Calculator'!N24</f>
@@ -21919,49 +21888,49 @@
       </c>
       <c r="I21" s="116">
         <f t="shared" si="3"/>
-        <v>0.24765919617281326</v>
+        <v>0.24209518085840614</v>
       </c>
       <c r="J21" s="94">
         <f t="shared" si="4"/>
-        <v>0.25377848141276965</v>
+        <v>0.2596110112138213</v>
       </c>
       <c r="K21" s="94">
         <f t="shared" si="6"/>
-        <v>2.0971573814359719</v>
+        <v>2.1437034461742379</v>
       </c>
       <c r="L21" s="94">
         <f t="shared" si="5"/>
-        <v>4126.2839699645874</v>
+        <v>3992.9519386083794</v>
       </c>
       <c r="M21" s="110">
         <f t="shared" si="7"/>
-        <v>7987.2819396352334</v>
+        <v>7913.943556129685</v>
       </c>
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="131">
+      <c r="B22" s="130">
         <v>8</v>
       </c>
       <c r="C22" s="107">
         <f>'Bates Grain Kn Calculator'!Q24</f>
-        <v>344.28416425407738</v>
+        <v>336.16773056726134</v>
       </c>
       <c r="D22" s="116">
         <f t="shared" si="0"/>
-        <v>683.67184318821376</v>
+        <v>649.01232102039353</v>
       </c>
       <c r="E22" s="108">
         <f>'Bates Grain Kn Calculator'!P24</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F22" s="94">
         <f t="shared" si="1"/>
-        <v>1.545774516134687</v>
+        <v>1.5379756771714879</v>
       </c>
       <c r="G22" s="94">
         <f t="shared" si="2"/>
-        <v>4201.9294343753118</v>
+        <v>4064.6050411598071</v>
       </c>
       <c r="H22" s="109">
         <f>'Bates Grain Kn Calculator'!N24-'Bates Grain Kn Calculator'!N25</f>
@@ -21969,49 +21938,49 @@
       </c>
       <c r="I22" s="116">
         <f t="shared" si="3"/>
-        <v>0.24947187170730903</v>
+        <v>0.24382520975256619</v>
       </c>
       <c r="J22" s="94">
         <f t="shared" si="4"/>
-        <v>0.25193451382920928</v>
+        <v>0.2577689762942254</v>
       </c>
       <c r="K22" s="94">
         <f t="shared" si="6"/>
-        <v>2.3490918952651811</v>
+        <v>2.4014724224684634</v>
       </c>
       <c r="L22" s="94">
         <f t="shared" si="5"/>
-        <v>4201.9294343753118</v>
+        <v>4064.6050411598071</v>
       </c>
       <c r="M22" s="110">
         <f t="shared" si="7"/>
-        <v>9045.8929888292223</v>
+        <v>8961.6726366297971</v>
       </c>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="131">
+      <c r="B23" s="130">
         <v>9</v>
       </c>
       <c r="C23" s="107">
         <f>'Bates Grain Kn Calculator'!Q25</f>
-        <v>346.64476098957255</v>
+        <v>338.47267668372075</v>
       </c>
       <c r="D23" s="116">
         <f t="shared" si="0"/>
-        <v>694.09543548046304</v>
+        <v>658.67247357254553</v>
       </c>
       <c r="E23" s="108">
         <f>'Bates Grain Kn Calculator'!P25</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F23" s="94">
         <f t="shared" si="1"/>
-        <v>1.5480065503747182</v>
+        <v>1.5402103165514966</v>
       </c>
       <c r="G23" s="94">
         <f t="shared" si="2"/>
-        <v>4272.1540055689065</v>
+        <v>4131.0978791713887</v>
       </c>
       <c r="H23" s="109">
         <f>'Bates Grain Kn Calculator'!N25-'Bates Grain Kn Calculator'!N26</f>
@@ -22019,49 +21988,49 @@
       </c>
       <c r="I23" s="116">
         <f t="shared" si="3"/>
-        <v>0.25113857030203091</v>
+        <v>0.24541565579840655</v>
       </c>
       <c r="J23" s="94">
         <f t="shared" si="4"/>
-        <v>0.25026253289988992</v>
+        <v>0.25609847305043609</v>
       </c>
       <c r="K23" s="94">
         <f t="shared" si="6"/>
-        <v>2.5993544281650709</v>
+        <v>2.6575708955188997</v>
       </c>
       <c r="L23" s="94">
         <f t="shared" si="5"/>
-        <v>4272.1540055689065</v>
+        <v>4131.0978791713887</v>
       </c>
       <c r="M23" s="110">
         <f t="shared" si="7"/>
-        <v>10115.053071201308</v>
+        <v>10019.640495507485</v>
       </c>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="131">
+      <c r="B24" s="130">
         <v>10</v>
       </c>
       <c r="C24" s="107">
         <f>'Bates Grain Kn Calculator'!Q26</f>
-        <v>348.78063553531712</v>
+        <v>340.55819839330906</v>
       </c>
       <c r="D24" s="116">
         <f t="shared" si="0"/>
-        <v>703.66361473867153</v>
+        <v>667.5368534503865</v>
       </c>
       <c r="E24" s="108">
         <f>'Bates Grain Kn Calculator'!P26</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F24" s="94">
         <f t="shared" si="1"/>
-        <v>1.5500123543031232</v>
+        <v>1.5422185424350678</v>
       </c>
       <c r="G24" s="94">
         <f t="shared" si="2"/>
-        <v>4336.6579835129041</v>
+        <v>4192.1528620307245</v>
       </c>
       <c r="H24" s="109">
         <f>'Bates Grain Kn Calculator'!N26-'Bates Grain Kn Calculator'!N27</f>
@@ -22069,49 +22038,49 @@
       </c>
       <c r="I24" s="116">
         <f t="shared" si="3"/>
-        <v>0.25265619730952327</v>
+        <v>0.24686363390528113</v>
       </c>
       <c r="J24" s="94">
         <f t="shared" si="4"/>
-        <v>0.24875928388824353</v>
+        <v>0.25459632801467569</v>
       </c>
       <c r="K24" s="94">
         <f t="shared" si="6"/>
-        <v>2.8481137120533147</v>
+        <v>2.9121672235335754</v>
       </c>
       <c r="L24" s="94">
         <f t="shared" si="5"/>
-        <v>4336.6579835129041</v>
+        <v>4192.1528620307245</v>
       </c>
       <c r="M24" s="110">
         <f t="shared" si="7"/>
-        <v>11193.837005648213</v>
+        <v>11086.947220656721</v>
       </c>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="131">
+      <c r="B25" s="130">
         <v>11</v>
       </c>
       <c r="C25" s="107">
         <f>'Bates Grain Kn Calculator'!Q27</f>
-        <v>350.69178789131109</v>
+        <v>342.42429569602615</v>
       </c>
       <c r="D25" s="116">
         <f t="shared" si="0"/>
-        <v>712.33685365283884</v>
+        <v>675.56966535513959</v>
       </c>
       <c r="E25" s="108">
         <f>'Bates Grain Kn Calculator'!P27</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F25" s="94">
         <f t="shared" si="1"/>
-        <v>1.5517961726186635</v>
+        <v>1.5440045786154559</v>
       </c>
       <c r="G25" s="94">
         <f t="shared" si="2"/>
-        <v>4395.1632188168414</v>
+        <v>4247.5125131181867</v>
       </c>
       <c r="H25" s="109">
         <f>'Bates Grain Kn Calculator'!N27-'Bates Grain Kn Calculator'!N28</f>
@@ -22119,49 +22088,49 @@
       </c>
       <c r="I25" s="116">
         <f t="shared" si="3"/>
-        <v>0.25402192267748364</v>
+        <v>0.24816650632890969</v>
       </c>
       <c r="J25" s="94">
         <f t="shared" si="4"/>
-        <v>0.24742185261089203</v>
+        <v>0.25325969907213908</v>
       </c>
       <c r="K25" s="94">
         <f t="shared" si="6"/>
-        <v>3.0955355646642069</v>
+        <v>3.1654269226057146</v>
       </c>
       <c r="L25" s="94">
         <f t="shared" si="5"/>
-        <v>4395.1632188168414</v>
+        <v>4247.5125131181867</v>
       </c>
       <c r="M25" s="110">
         <f t="shared" si="7"/>
-        <v>12281.296431775127</v>
+        <v>12162.670961534179</v>
       </c>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="131">
+      <c r="B26" s="130">
         <v>12</v>
       </c>
       <c r="C26" s="107">
         <f>'Bates Grain Kn Calculator'!Q28</f>
-        <v>352.37821805755448</v>
+        <v>344.07096859187232</v>
       </c>
       <c r="D26" s="116">
         <f t="shared" si="0"/>
-        <v>720.07899837729121</v>
+        <v>682.73818615870175</v>
       </c>
       <c r="E26" s="108">
         <f>'Bates Grain Kn Calculator'!P28</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F26" s="94">
         <f t="shared" si="1"/>
-        <v>1.5533617377421216</v>
+        <v>1.5455721396081217</v>
       </c>
       <c r="G26" s="94">
         <f t="shared" si="2"/>
-        <v>4447.4150935180487</v>
+        <v>4296.9412634204273</v>
       </c>
       <c r="H26" s="109">
         <f>'Bates Grain Kn Calculator'!N28-'Bates Grain Kn Calculator'!N29</f>
@@ -22169,49 +22138,49 @@
       </c>
       <c r="I26" s="116">
         <f t="shared" si="3"/>
-        <v>0.25523318974135434</v>
+        <v>0.24932189067712085</v>
       </c>
       <c r="J26" s="94">
         <f t="shared" si="4"/>
-        <v>0.24624765602128257</v>
+        <v>0.25208606649801601</v>
       </c>
       <c r="K26" s="94">
         <f t="shared" si="6"/>
-        <v>3.3417832206854894</v>
+        <v>3.4175129891037308</v>
       </c>
       <c r="L26" s="94">
         <f t="shared" si="5"/>
-        <v>4447.4150935180487</v>
+        <v>4296.9412634204273</v>
       </c>
       <c r="M26" s="110">
         <f t="shared" si="7"/>
-        <v>13376.461973907619</v>
+        <v>13245.86998260285</v>
       </c>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="131">
+      <c r="B27" s="130">
         <v>13</v>
       </c>
       <c r="C27" s="107">
         <f>'Bates Grain Kn Calculator'!Q29</f>
-        <v>353.83992603404727</v>
+        <v>345.49821708084727</v>
       </c>
       <c r="D27" s="116">
         <f t="shared" si="0"/>
-        <v>726.85751945969025</v>
+        <v>689.01298686664256</v>
       </c>
       <c r="E27" s="108">
         <f>'Bates Grain Kn Calculator'!P29</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F27" s="94">
         <f t="shared" si="1"/>
-        <v>1.5547122926782908</v>
+        <v>1.5469244532239801</v>
       </c>
       <c r="G27" s="94">
         <f t="shared" si="2"/>
-        <v>4493.1843511593233</v>
+        <v>4340.2271073882348</v>
       </c>
       <c r="H27" s="109">
         <f>'Bates Grain Kn Calculator'!N29-'Bates Grain Kn Calculator'!N30</f>
@@ -22219,49 +22188,49 @@
       </c>
       <c r="I27" s="116">
         <f t="shared" si="3"/>
-        <v>0.25628772319877358</v>
+        <v>0.25032766716832544</v>
       </c>
       <c r="J27" s="94">
         <f t="shared" si="4"/>
-        <v>0.24523443389404043</v>
+        <v>0.25107322503981055</v>
       </c>
       <c r="K27" s="94">
         <f t="shared" si="6"/>
-        <v>3.5870176545795296</v>
+        <v>3.6685862141435415</v>
       </c>
       <c r="L27" s="94">
         <f t="shared" si="5"/>
-        <v>4493.1843511593233</v>
+        <v>4340.2271073882348</v>
       </c>
       <c r="M27" s="110">
         <f t="shared" si="7"/>
-        <v>14478.345494645737</v>
+        <v>14335.584799860022</v>
       </c>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="131">
+      <c r="B28" s="130">
         <v>14</v>
       </c>
       <c r="C28" s="107">
         <f>'Bates Grain Kn Calculator'!Q30</f>
-        <v>355.07691182078952</v>
+        <v>346.70604116295118</v>
       </c>
       <c r="D28" s="116">
         <f t="shared" si="0"/>
-        <v>732.64373945781813</v>
+        <v>694.36813382582022</v>
       </c>
       <c r="E28" s="108">
         <f>'Bates Grain Kn Calculator'!P30</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F28" s="94">
         <f t="shared" si="1"/>
-        <v>1.555850610600569</v>
+        <v>1.548064279912539</v>
       </c>
       <c r="G28" s="94">
         <f t="shared" si="2"/>
-        <v>4532.2687579796493</v>
+        <v>4377.1831049620369</v>
       </c>
       <c r="H28" s="109">
         <f>'Bates Grain Kn Calculator'!N30-'Bates Grain Kn Calculator'!N31</f>
@@ -22269,49 +22238,49 @@
       </c>
       <c r="I28" s="116">
         <f t="shared" si="3"/>
-        <v>0.25718353623107082</v>
+        <v>0.25118198511176937</v>
       </c>
       <c r="J28" s="94">
         <f t="shared" si="4"/>
-        <v>0.24438024157259672</v>
+        <v>0.25021927701016028</v>
       </c>
       <c r="K28" s="94">
         <f t="shared" si="6"/>
-        <v>3.8313978961521262</v>
+        <v>3.9188054911537016</v>
       </c>
       <c r="L28" s="94">
         <f t="shared" si="5"/>
-        <v>4532.2687579796493</v>
+        <v>4377.1831049620369</v>
       </c>
       <c r="M28" s="110">
         <f t="shared" si="7"/>
-        <v>15585.942428592736</v>
+        <v>15430.840391724712</v>
       </c>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="131">
+      <c r="B29" s="130">
         <v>15</v>
       </c>
       <c r="C29" s="107">
         <f>'Bates Grain Kn Calculator'!Q31</f>
-        <v>356.08917541778112</v>
+        <v>347.69444083818399</v>
       </c>
       <c r="D29" s="116">
         <f t="shared" si="0"/>
-        <v>737.41303501612072</v>
+        <v>698.78136725213653</v>
       </c>
       <c r="E29" s="108">
         <f>'Bates Grain Kn Calculator'!P31</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F29" s="94">
         <f t="shared" si="1"/>
-        <v>1.5567790113906383</v>
+        <v>1.548993929102058</v>
       </c>
       <c r="G29" s="94">
         <f t="shared" si="2"/>
-        <v>4564.4945785760347</v>
+        <v>4407.6487150604153</v>
       </c>
       <c r="H29" s="109">
         <f>'Bates Grain Kn Calculator'!N31-'Bates Grain Kn Calculator'!N32</f>
@@ -22319,49 +22288,49 @@
       </c>
       <c r="I29" s="116">
         <f t="shared" si="3"/>
-        <v>0.25791893674061223</v>
+        <v>0.25188326858184029</v>
       </c>
       <c r="J29" s="94">
         <f t="shared" si="4"/>
-        <v>0.2436834437474914</v>
+        <v>0.24952262635984798</v>
       </c>
       <c r="K29" s="94">
         <f t="shared" si="6"/>
-        <v>4.0750813398996177</v>
+        <v>4.1683281175135498</v>
       </c>
       <c r="L29" s="94">
         <f t="shared" si="5"/>
-        <v>4564.4945785760347</v>
+        <v>4407.6487150604153</v>
       </c>
       <c r="M29" s="110">
         <f t="shared" si="7"/>
-        <v>16698.2341864669</v>
+        <v>16530.648475178197</v>
       </c>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="131">
+      <c r="B30" s="130">
         <v>16</v>
       </c>
       <c r="C30" s="107">
         <f>'Bates Grain Kn Calculator'!Q32</f>
-        <v>356.87671682502224</v>
+        <v>348.46341610654576</v>
       </c>
       <c r="D30" s="116">
         <f t="shared" si="0"/>
-        <v>741.14501140978359</v>
+        <v>702.23425535892125</v>
       </c>
       <c r="E30" s="108">
         <f>'Bates Grain Kn Calculator'!P32</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F30" s="94">
         <f t="shared" si="1"/>
-        <v>1.5574993753267825</v>
+        <v>1.5497152727258658</v>
       </c>
       <c r="G30" s="94">
         <f t="shared" si="2"/>
-        <v>4589.7178511452885</v>
+        <v>4431.4909473838143</v>
       </c>
       <c r="H30" s="109">
         <f>'Bates Grain Kn Calculator'!N32-'Bates Grain Kn Calculator'!N33</f>
@@ -22369,49 +22338,49 @@
       </c>
       <c r="I30" s="116">
         <f t="shared" si="3"/>
-        <v>0.25849253267658923</v>
+        <v>0.25243022126207304</v>
       </c>
       <c r="J30" s="94">
         <f t="shared" si="4"/>
-        <v>0.24314270923748016</v>
+        <v>0.24898197370509098</v>
       </c>
       <c r="K30" s="94">
         <f t="shared" si="6"/>
-        <v>4.3182240491370978</v>
+        <v>4.4173100912186412</v>
       </c>
       <c r="L30" s="94">
         <f t="shared" si="5"/>
-        <v>4589.7178511452885</v>
+        <v>4431.4909473838143</v>
       </c>
       <c r="M30" s="110">
         <f t="shared" si="7"/>
-        <v>17814.190619429992</v>
+        <v>17634.009837714064</v>
       </c>
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="131">
+      <c r="B31" s="130">
         <v>17</v>
       </c>
       <c r="C31" s="107">
         <f>'Bates Grain Kn Calculator'!Q33</f>
-        <v>357.4395360425126</v>
+        <v>349.01296696803627</v>
       </c>
       <c r="D31" s="116">
         <f t="shared" si="0"/>
-        <v>743.82364782513105</v>
+        <v>704.71232259269277</v>
       </c>
       <c r="E31" s="108">
         <f>'Bates Grain Kn Calculator'!P33</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F31" s="94">
         <f t="shared" si="1"/>
-        <v>1.5580131540790343</v>
+        <v>1.5502297560894991</v>
       </c>
       <c r="G31" s="94">
         <f t="shared" si="2"/>
-        <v>4607.8254493580098</v>
+        <v>4448.6053211089366</v>
       </c>
       <c r="H31" s="109">
         <f>'Bates Grain Kn Calculator'!N33-'Bates Grain Kn Calculator'!N34</f>
@@ -22419,49 +22388,49 @@
       </c>
       <c r="I31" s="116">
         <f t="shared" si="3"/>
-        <v>0.25890323642578478</v>
+        <v>0.25282183043801898</v>
       </c>
       <c r="J31" s="94">
         <f t="shared" si="4"/>
-        <v>0.24275700675012454</v>
+        <v>0.24859631228740581</v>
       </c>
       <c r="K31" s="94">
         <f t="shared" si="6"/>
-        <v>4.5609810558872219</v>
+        <v>4.6659064035060469</v>
       </c>
       <c r="L31" s="94">
         <f t="shared" si="5"/>
-        <v>4607.8254493580098</v>
+        <v>4448.6053211089366</v>
       </c>
       <c r="M31" s="110">
         <f t="shared" si="7"/>
-        <v>18932.77253314319</v>
+        <v>18739.916715363877</v>
       </c>
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="131">
+      <c r="B32" s="130">
         <v>18</v>
       </c>
       <c r="C32" s="107">
         <f>'Bates Grain Kn Calculator'!Q34</f>
-        <v>357.77763307025248</v>
+        <v>349.34309342265584</v>
       </c>
       <c r="D32" s="116">
         <f t="shared" si="0"/>
-        <v>745.43741192825814</v>
+        <v>706.20515072787487</v>
       </c>
       <c r="E32" s="108">
         <f>'Bates Grain Kn Calculator'!P34</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F32" s="94">
         <f t="shared" si="1"/>
-        <v>1.5583213791369208</v>
+        <v>1.5505384062016208</v>
       </c>
       <c r="G32" s="94">
         <f t="shared" si="2"/>
-        <v>4618.7359200292767</v>
+        <v>4458.9166209178957</v>
       </c>
       <c r="H32" s="109">
         <f>'Bates Grain Kn Calculator'!N34-'Bates Grain Kn Calculator'!N35</f>
@@ -22469,49 +22438,49 @@
       </c>
       <c r="I32" s="116">
         <f t="shared" si="3"/>
-        <v>0.25915026824893683</v>
+        <v>0.25305737012175961</v>
       </c>
       <c r="J32" s="94">
         <f t="shared" si="4"/>
-        <v>0.24252560160296732</v>
+        <v>0.24836492484847589</v>
       </c>
       <c r="K32" s="94">
         <f t="shared" si="6"/>
-        <v>4.803506657490189</v>
+        <v>4.9142713283545225</v>
       </c>
       <c r="L32" s="94">
         <f t="shared" si="5"/>
-        <v>4618.7359200292767</v>
+        <v>4458.9166209178957</v>
       </c>
       <c r="M32" s="110">
         <f t="shared" si="7"/>
-        <v>20052.934240793526</v>
+        <v>19847.35520682377</v>
       </c>
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="131">
+      <c r="B33" s="130">
         <v>19</v>
       </c>
       <c r="C33" s="107">
         <f>'Bates Grain Kn Calculator'!Q35</f>
-        <v>357.8910079082417</v>
+        <v>349.45379547040426</v>
       </c>
       <c r="D33" s="116">
         <f t="shared" si="0"/>
-        <v>745.97934257540339</v>
+        <v>706.70645183248928</v>
       </c>
       <c r="E33" s="108">
         <f>'Bates Grain Kn Calculator'!P35</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F33" s="94">
         <f t="shared" si="1"/>
-        <v>1.5584246677653868</v>
+        <v>1.5506418376622115</v>
       </c>
       <c r="G33" s="94">
         <f t="shared" si="2"/>
-        <v>4622.4000880041103</v>
+        <v>4462.3794427968842</v>
       </c>
       <c r="H33" s="109">
         <f>'Bates Grain Kn Calculator'!N35-'Bates Grain Kn Calculator'!N36</f>
@@ -22519,49 +22488,49 @@
       </c>
       <c r="I33" s="116">
         <f t="shared" si="3"/>
-        <v>0.25923315874749753</v>
+        <v>0.25313640329457437</v>
       </c>
       <c r="J33" s="94">
         <f t="shared" si="4"/>
-        <v>0.24244805339066233</v>
+        <v>0.24828738140639625</v>
       </c>
       <c r="K33" s="94">
         <f t="shared" si="6"/>
-        <v>5.0459547108808511</v>
+        <v>5.1625587097609191</v>
       </c>
       <c r="L33" s="94">
         <f t="shared" si="5"/>
-        <v>4622.4000880041103</v>
+        <v>4462.3794427968842</v>
       </c>
       <c r="M33" s="110">
         <f t="shared" si="7"/>
-        <v>21173.626144122947</v>
+        <v>20955.307713517541</v>
       </c>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="131">
+      <c r="B34" s="130">
         <v>20</v>
       </c>
       <c r="C34" s="107">
         <f>'Bates Grain Kn Calculator'!Q36</f>
-        <v>357.77966055648034</v>
+        <v>349.34507311128152</v>
       </c>
       <c r="D34" s="116">
         <f t="shared" si="0"/>
-        <v>745.44709983500479</v>
+        <v>706.21411238974611</v>
       </c>
       <c r="E34" s="108">
         <f>'Bates Grain Kn Calculator'!P36</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F34" s="94">
         <f t="shared" si="1"/>
-        <v>1.5583232265560274</v>
+        <v>1.5505402561736885</v>
       </c>
       <c r="G34" s="94">
         <f t="shared" si="2"/>
-        <v>4618.8014220426421</v>
+        <v>4458.978524127232</v>
       </c>
       <c r="H34" s="109">
         <f>'Bates Grain Kn Calculator'!N36-'Bates Grain Kn Calculator'!N37</f>
@@ -22569,49 +22538,49 @@
       </c>
       <c r="I34" s="116">
         <f t="shared" si="3"/>
-        <v>0.25915175034986992</v>
+        <v>0.25305878325806458</v>
       </c>
       <c r="J34" s="94">
         <f t="shared" si="4"/>
-        <v>0.24252421458775347</v>
+        <v>0.24836353792371607</v>
       </c>
       <c r="K34" s="94">
         <f t="shared" si="6"/>
-        <v>5.2884789254686044</v>
+        <v>5.4109222476846348</v>
       </c>
       <c r="L34" s="94">
         <f t="shared" si="5"/>
-        <v>4618.8014220426421</v>
+        <v>4458.978524127232</v>
       </c>
       <c r="M34" s="110">
         <f t="shared" si="7"/>
-        <v>22293.797331340636</v>
+        <v>22062.755395295651</v>
       </c>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="131">
+      <c r="B35" s="130">
         <v>21</v>
       </c>
       <c r="C35" s="107">
         <f>'Bates Grain Kn Calculator'!Q37</f>
-        <v>357.44359101496843</v>
+        <v>349.0169263452878</v>
       </c>
       <c r="D35" s="116">
         <f t="shared" si="0"/>
-        <v>743.84298181842735</v>
+        <v>704.73020814228471</v>
       </c>
       <c r="E35" s="108">
         <f>'Bates Grain Kn Calculator'!P37</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F35" s="94">
         <f t="shared" si="1"/>
-        <v>1.5580168526134832</v>
+        <v>1.5502334597139487</v>
       </c>
       <c r="G35" s="94">
         <f t="shared" si="2"/>
-        <v>4607.9561579380115</v>
+        <v>4448.7288547498556</v>
       </c>
       <c r="H35" s="109">
         <f>'Bates Grain Kn Calculator'!N37-'Bates Grain Kn Calculator'!N38</f>
@@ -22619,49 +22588,49 @@
       </c>
       <c r="I35" s="116">
         <f t="shared" si="3"/>
-        <v>0.25890619781052993</v>
+        <v>0.2528246540878869</v>
       </c>
       <c r="J35" s="94">
         <f t="shared" si="4"/>
-        <v>0.24275423008080491</v>
+        <v>0.2485935358614024</v>
       </c>
       <c r="K35" s="94">
         <f t="shared" si="6"/>
-        <v>5.5312331555494092</v>
+        <v>5.6595157835460368</v>
       </c>
       <c r="L35" s="94">
         <f t="shared" si="5"/>
-        <v>4607.9561579380115</v>
+        <v>4448.7288547498556</v>
       </c>
       <c r="M35" s="110">
         <f t="shared" si="7"/>
-        <v>23412.398180706983</v>
+        <v>23168.680631386564</v>
       </c>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="131">
+      <c r="B36" s="130">
         <v>22</v>
       </c>
       <c r="C36" s="107">
         <f>'Bates Grain Kn Calculator'!Q38</f>
-        <v>356.88279928370594</v>
+        <v>348.46935517242292</v>
       </c>
       <c r="D36" s="116">
         <f t="shared" si="0"/>
-        <v>741.17390814996736</v>
+        <v>702.26098951317397</v>
       </c>
       <c r="E36" s="108">
         <f>'Bates Grain Kn Calculator'!P38</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F36" s="94">
         <f t="shared" si="1"/>
-        <v>1.5575049323902785</v>
+        <v>1.5497208373843219</v>
       </c>
       <c r="G36" s="94">
         <f t="shared" si="2"/>
-        <v>4589.9131775982951</v>
+        <v>4431.6755678853024</v>
       </c>
       <c r="H36" s="109">
         <f>'Bates Grain Kn Calculator'!N38-'Bates Grain Kn Calculator'!N39</f>
@@ -22669,49 +22638,49 @@
       </c>
       <c r="I36" s="116">
         <f t="shared" si="3"/>
-        <v>0.25849696771982705</v>
+        <v>0.25243445018813038</v>
       </c>
       <c r="J36" s="94">
         <f t="shared" si="4"/>
-        <v>0.24313853762789439</v>
+        <v>0.24897780261689118</v>
       </c>
       <c r="K36" s="94">
         <f t="shared" si="6"/>
-        <v>5.7743716931773035</v>
+        <v>5.908493586162928</v>
       </c>
       <c r="L36" s="94">
         <f t="shared" si="5"/>
-        <v>4589.9131775982951</v>
+        <v>4431.6755678853024</v>
       </c>
       <c r="M36" s="110">
         <f t="shared" si="7"/>
-        <v>24528.382958547234</v>
+        <v>24272.069476189608</v>
       </c>
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="131">
+      <c r="B37" s="130">
         <v>23</v>
       </c>
       <c r="C37" s="107">
         <f>'Bates Grain Kn Calculator'!Q39</f>
-        <v>356.0972853626929</v>
+        <v>347.702359592687</v>
       </c>
       <c r="D37" s="116">
         <f t="shared" si="0"/>
-        <v>737.45137024251028</v>
+        <v>698.81683774696785</v>
       </c>
       <c r="E37" s="108">
         <f>'Bates Grain Kn Calculator'!P39</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F37" s="94">
         <f t="shared" si="1"/>
-        <v>1.5567864381570686</v>
+        <v>1.549001365919682</v>
       </c>
       <c r="G37" s="94">
         <f t="shared" si="2"/>
-        <v>4564.7536453385692</v>
+        <v>4407.8936120072949</v>
       </c>
       <c r="H37" s="109">
         <f>'Bates Grain Kn Calculator'!N39-'Bates Grain Kn Calculator'!N40</f>
@@ -22719,49 +22688,49 @@
       </c>
       <c r="I37" s="116">
         <f t="shared" si="3"/>
-        <v>0.25792483702663072</v>
+        <v>0.25188889494827005</v>
       </c>
       <c r="J37" s="94">
         <f t="shared" si="4"/>
-        <v>0.24367786924744458</v>
+        <v>0.24951705284804745</v>
       </c>
       <c r="K37" s="94">
         <f t="shared" si="6"/>
-        <v>6.0180495624247481</v>
+        <v>6.1580106390109757</v>
       </c>
       <c r="L37" s="94">
         <f t="shared" si="5"/>
-        <v>4564.7536453385692</v>
+        <v>4407.8936120072949</v>
       </c>
       <c r="M37" s="110">
         <f t="shared" si="7"/>
-        <v>25640.712400482844</v>
+        <v>25371.914099525402</v>
       </c>
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="131">
+      <c r="B38" s="130">
         <v>24</v>
       </c>
       <c r="C38" s="107">
         <f>'Bates Grain Kn Calculator'!Q40</f>
-        <v>355.08704925192916</v>
+        <v>346.71593960607993</v>
       </c>
       <c r="D38" s="116">
         <f t="shared" si="0"/>
-        <v>732.69134887884354</v>
+        <v>694.41219220146252</v>
       </c>
       <c r="E38" s="108">
         <f>'Bates Grain Kn Calculator'!P40</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F38" s="94">
         <f t="shared" si="1"/>
-        <v>1.5558599220686633</v>
+        <v>1.5480736038219547</v>
       </c>
       <c r="G38" s="94">
         <f t="shared" si="2"/>
-        <v>4532.5904051275311</v>
+        <v>4377.4872069688781</v>
       </c>
       <c r="H38" s="109">
         <f>'Bates Grain Kn Calculator'!N40-'Bates Grain Kn Calculator'!N41</f>
@@ -22769,49 +22738,49 @@
       </c>
       <c r="I38" s="116">
         <f t="shared" si="3"/>
-        <v>0.25719089058037431</v>
+        <v>0.25118899850850446</v>
       </c>
       <c r="J38" s="94">
         <f t="shared" si="4"/>
-        <v>0.24437325354259559</v>
+        <v>0.25021229068882112</v>
       </c>
       <c r="K38" s="94">
         <f t="shared" si="6"/>
-        <v>6.2624228159673434</v>
+        <v>6.4082229296997966</v>
       </c>
       <c r="L38" s="94">
         <f t="shared" si="5"/>
-        <v>4532.5904051275311</v>
+        <v>4377.4872069688781</v>
       </c>
       <c r="M38" s="110">
         <f t="shared" si="7"/>
-        <v>26748.356264759808</v>
+        <v>26467.215201042094</v>
       </c>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="131">
+      <c r="B39" s="130">
         <v>25</v>
       </c>
       <c r="C39" s="107">
         <f>'Bates Grain Kn Calculator'!Q41</f>
-        <v>353.85209095141494</v>
+        <v>345.51009521260181</v>
       </c>
       <c r="D39" s="116">
         <f t="shared" si="0"/>
-        <v>726.91419992580643</v>
+        <v>689.06544950275611</v>
       </c>
       <c r="E39" s="108">
         <f>'Bates Grain Kn Calculator'!P41</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F39" s="94">
         <f t="shared" si="1"/>
-        <v>1.5547235077589729</v>
+        <v>1.5469356830516117</v>
       </c>
       <c r="G39" s="94">
         <f t="shared" si="2"/>
-        <v>4493.5671449822339</v>
+        <v>4340.5890898392954</v>
       </c>
       <c r="H39" s="109">
         <f>'Bates Grain Kn Calculator'!N41-'Bates Grain Kn Calculator'!N42</f>
@@ -22819,49 +22788,49 @@
       </c>
       <c r="I39" s="116">
         <f t="shared" si="3"/>
-        <v>0.25629651770337986</v>
+        <v>0.25033605464314285</v>
       </c>
       <c r="J39" s="94">
         <f t="shared" si="4"/>
-        <v>0.24522601897144286</v>
+        <v>0.25106481286620119</v>
       </c>
       <c r="K39" s="94">
         <f t="shared" si="6"/>
-        <v>6.5076488349387862</v>
+        <v>6.659287742565998</v>
       </c>
       <c r="L39" s="94">
         <f t="shared" si="5"/>
-        <v>4493.5671449822339</v>
+        <v>4340.5890898392954</v>
       </c>
       <c r="M39" s="110">
         <f t="shared" si="7"/>
-        <v>27850.295846704674</v>
+        <v>27556.984388611672</v>
       </c>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="131">
+      <c r="B40" s="130">
         <v>26</v>
       </c>
       <c r="C40" s="107">
         <f>'Bates Grain Kn Calculator'!Q42</f>
-        <v>352.39241046115001</v>
+        <v>344.08482641225254</v>
       </c>
       <c r="D40" s="116">
         <f t="shared" si="0"/>
-        <v>720.14450932493742</v>
+        <v>682.79883554915807</v>
       </c>
       <c r="E40" s="108">
         <f>'Bates Grain Kn Calculator'!P42</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F40" s="94">
         <f t="shared" si="1"/>
-        <v>1.5533748793695339</v>
+        <v>1.5455852981839204</v>
       </c>
       <c r="G40" s="94">
         <f t="shared" si="2"/>
-        <v>4447.8573370716904</v>
+        <v>4297.3595579982602</v>
       </c>
       <c r="H40" s="109">
         <f>'Bates Grain Kn Calculator'!N42-'Bates Grain Kn Calculator'!N43</f>
@@ -22869,49 +22838,49 @@
       </c>
       <c r="I40" s="116">
         <f t="shared" si="3"/>
-        <v>0.25524340780862048</v>
+        <v>0.24933163677550085</v>
       </c>
       <c r="J40" s="94">
         <f t="shared" si="4"/>
-        <v>0.24623779807770252</v>
+        <v>0.25207621273201952</v>
       </c>
       <c r="K40" s="94">
         <f t="shared" si="6"/>
-        <v>6.7538866330164886</v>
+        <v>6.9113639552980173</v>
       </c>
       <c r="L40" s="94">
         <f t="shared" si="5"/>
-        <v>4447.8573370716904</v>
+        <v>4297.3595579982602</v>
       </c>
       <c r="M40" s="110">
         <f t="shared" si="7"/>
-        <v>28945.526443548959</v>
+        <v>28640.24651073962</v>
       </c>
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="131">
+      <c r="B41" s="130">
         <v>27</v>
       </c>
       <c r="C41" s="107">
         <f>'Bates Grain Kn Calculator'!Q43</f>
-        <v>350.7080077811346</v>
+        <v>342.44013320503228</v>
       </c>
       <c r="D41" s="116">
         <f t="shared" si="0"/>
-        <v>712.41091880509725</v>
+        <v>675.63825161009163</v>
       </c>
       <c r="E41" s="108">
         <f>'Bates Grain Kn Calculator'!P43</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F41" s="94">
         <f t="shared" si="1"/>
-        <v>1.5518112678861506</v>
+        <v>1.5440196929072572</v>
       </c>
       <c r="G41" s="94">
         <f t="shared" si="2"/>
-        <v>4395.6629643453643</v>
+        <v>4247.9853190261401</v>
       </c>
       <c r="H41" s="109">
         <f>'Bates Grain Kn Calculator'!N43-'Bates Grain Kn Calculator'!N44</f>
@@ -22919,49 +22888,49 @@
       </c>
       <c r="I41" s="116">
         <f t="shared" si="3"/>
-        <v>0.25403354508226988</v>
+        <v>0.24817759314148397</v>
       </c>
       <c r="J41" s="94">
         <f t="shared" si="4"/>
-        <v>0.24741053270066884</v>
+        <v>0.25324838522715942</v>
       </c>
       <c r="K41" s="94">
         <f t="shared" si="6"/>
-        <v>7.0012971657171574</v>
+        <v>7.1646123405251769</v>
       </c>
       <c r="L41" s="94">
         <f t="shared" si="5"/>
-        <v>4395.6629643453643</v>
+        <v>4247.9853190261401</v>
       </c>
       <c r="M41" s="110">
         <f t="shared" si="7"/>
-        <v>30033.059759130247</v>
+        <v>29716.041933251669</v>
       </c>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="131">
+      <c r="B42" s="130">
         <v>28</v>
       </c>
       <c r="C42" s="107">
         <f>'Bates Grain Kn Calculator'!Q44</f>
-        <v>348.79888291136848</v>
+        <v>340.57601559094076</v>
       </c>
       <c r="D42" s="116">
         <f t="shared" si="0"/>
-        <v>703.74592404579312</v>
+        <v>667.61309601111236</v>
       </c>
       <c r="E42" s="108">
         <f>'Bates Grain Kn Calculator'!P44</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F42" s="94">
         <f t="shared" si="1"/>
-        <v>1.5500294346257488</v>
+        <v>1.5422356437091285</v>
       </c>
       <c r="G42" s="94">
         <f t="shared" si="2"/>
-        <v>4337.2130466157405</v>
+        <v>4192.6781587983405</v>
       </c>
       <c r="H42" s="109">
         <f>'Bates Grain Kn Calculator'!N44-'Bates Grain Kn Calculator'!N45</f>
@@ -22969,49 +22938,49 @@
       </c>
       <c r="I42" s="116">
         <f t="shared" si="3"/>
-        <v>0.25266920225446404</v>
+        <v>0.24687604112267014</v>
       </c>
       <c r="J42" s="94">
         <f t="shared" si="4"/>
-        <v>0.24874648018774481</v>
+        <v>0.25458353279982132</v>
       </c>
       <c r="K42" s="94">
         <f t="shared" si="6"/>
-        <v>7.2500436459049027</v>
+        <v>7.4191958733249983</v>
       </c>
       <c r="L42" s="94">
         <f t="shared" si="5"/>
-        <v>4337.2130466157405</v>
+        <v>4192.6781587983405</v>
       </c>
       <c r="M42" s="110">
         <f t="shared" si="7"/>
-        <v>31111.926238300279</v>
+        <v>30783.428750811199</v>
       </c>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="132">
+      <c r="B43" s="131">
         <v>29</v>
       </c>
       <c r="C43" s="111">
         <f>'Bates Grain Kn Calculator'!Q45</f>
-        <v>346.66503585185194</v>
+        <v>338.49247356997836</v>
       </c>
       <c r="D43" s="117">
         <f t="shared" si="0"/>
-        <v>694.18564728120077</v>
+        <v>658.75606312260697</v>
       </c>
       <c r="E43" s="112">
         <f>'Bates Grain Kn Calculator'!P45</f>
-        <v>3.9760782021995817</v>
+        <v>4.0720766343134889</v>
       </c>
       <c r="F43" s="98">
         <f t="shared" si="1"/>
-        <v>1.5480256516802318</v>
+        <v>1.5402294405610804</v>
       </c>
       <c r="G43" s="98">
         <f t="shared" si="2"/>
-        <v>4272.761980969598</v>
+        <v>4131.6734409168666</v>
       </c>
       <c r="H43" s="113">
         <f>H42</f>
@@ -23019,23 +22988,23 @@
       </c>
       <c r="I43" s="117">
         <f t="shared" si="3"/>
-        <v>0.25115293348564882</v>
+        <v>0.24542936077320893</v>
       </c>
       <c r="J43" s="98">
         <f t="shared" si="4"/>
-        <v>0.25024822063738578</v>
+        <v>0.25608417230374053</v>
       </c>
       <c r="K43" s="98">
         <f t="shared" si="6"/>
-        <v>7.5002918665422884</v>
+        <v>7.6752800456287389</v>
       </c>
       <c r="L43" s="98">
         <f t="shared" si="5"/>
-        <v>4272.761980969598</v>
+        <v>4131.6734409168666</v>
       </c>
       <c r="M43" s="114">
         <f t="shared" si="7"/>
-        <v>32181.177321244992</v>
+        <v>31841.484924157743</v>
       </c>
       <c r="Q43" s="3"/>
     </row>
@@ -30734,6 +30703,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F2:G2"/>
@@ -30748,15 +30726,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Launches/8-inch-flight/Design/Calculations/trunk/Q-8in-motor_calc.xlsx
+++ b/Launches/8-inch-flight/Design/Calculations/trunk/Q-8in-motor_calc.xlsx
@@ -1628,6 +1628,132 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="15" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1642,12 +1768,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1691,173 +1811,17 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
@@ -1892,23 +1856,50 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
@@ -1922,17 +1913,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="6" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="6" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2462,94 +2462,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2612.3641311842121</c:v>
+                  <c:v>2663.2853736274451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2720.2912381771334</c:v>
+                  <c:v>2771.0075317407118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2826.4636514336025</c:v>
+                  <c:v>2876.9904164084619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2930.3934462950788</c:v>
+                  <c:v>2980.7451726586405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3031.5889676843672</c:v>
+                  <c:v>3081.7793177236772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3129.5586250591318</c:v>
+                  <c:v>3179.6005242177857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3223.8148041437935</c:v>
+                  <c:v>3273.7205218416875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3313.8778538534334</c:v>
+                  <c:v>3363.6590757477015</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3399.2801044590219</c:v>
+                  <c:v>3448.9479973859661</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3479.5698713089373</c:v>
+                  <c:v>3529.1351419598327</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3554.3153973611934</c:v>
+                  <c:v>3603.7883455915062</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3623.1086874268481</c:v>
+                  <c:v>3672.4992549721942</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3685.5691873982187</c:v>
+                  <c:v>3734.8870026663849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3741.3472628436607</c:v>
+                  <c:v>3790.6016823662194</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3790.1274331880491</c:v>
+                  <c:v>3839.3275802443941</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3831.6313202452206</c:v>
+                  <c:v>3880.7861211137511</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3865.6202730922046</c:v>
+                  <c:v>3914.738491335916</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3891.8976351290326</c:v>
+                  <c:v>3940.9879042843718</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3910.3106235928403</c:v>
+                  <c:v>3959.3814786001344</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3920.751796721097</c:v>
+                  <c:v>3969.8117044111568</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3923.1600891050684</c:v>
+                  <c:v>3972.2174780390969</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3917.5214014524076</c:v>
+                  <c:v>3966.5846914004251</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3903.8687368907258</c:v>
+                  <c:v>3952.9463682271512</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3882.2818819919044</c:v>
+                  <c:v>3931.3823452854199</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3852.886636775851</c:v>
+                  <c:v>3902.0185028542105</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3815.8536039584455</c:v>
+                  <c:v>3865.02555473757</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3771.3965535388102</c:v>
+                  <c:v>3820.6174139196191</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3719.7703843769095</c:v>
+                  <c:v>3769.0491555332374</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3661.2687096002337</c:v>
+                  <c:v>3710.6146040075237</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3596.2210974122804</c:v>
+                  <c:v>3645.6435760003365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4003,7 +4003,7 @@
   <dimension ref="A1:U996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4033,45 +4033,45 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="146" t="s">
+      <c r="C2" s="150"/>
+      <c r="D2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="147"/>
+      <c r="E2" s="187"/>
       <c r="G2" s="86"/>
-      <c r="I2" s="135" t="s">
+      <c r="I2" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="137"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="179"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="184" t="s">
+      <c r="R2" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="184"/>
-      <c r="T2" s="172" t="b">
+      <c r="S2" s="168"/>
+      <c r="T2" s="155" t="b">
         <f>AND(ISNUMBER(D5),ISNUMBER(D6),ISNUMBER(D7),ISNUMBER(D8),ISNUMBER(D9),ISNUMBER(D10),ISNUMBER(D11),ISNUMBER(D12),NOT(ISBLANK($D$5:$D$12)))</f>
         <v>1</v>
       </c>
-      <c r="U2" s="172"/>
+      <c r="U2" s="155"/>
     </row>
     <row r="3" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144" t="s">
+      <c r="C3" s="183"/>
+      <c r="D3" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="145"/>
+      <c r="E3" s="185"/>
       <c r="G3" s="52"/>
       <c r="I3" s="51"/>
       <c r="J3" s="5"/>
@@ -4081,17 +4081,17 @@
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
       <c r="P3" s="7"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="173"/>
-      <c r="U3" s="173"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="156"/>
+      <c r="U3" s="156"/>
     </row>
     <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G4" s="87"/>
-      <c r="I4" s="180" t="s">
+      <c r="I4" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="181"/>
+      <c r="J4" s="167"/>
       <c r="K4" s="37">
         <f>(($D$6-$D$7))/29</f>
         <v>0.14310344827586208</v>
@@ -4100,72 +4100,72 @@
         <v>58</v>
       </c>
       <c r="M4" s="52"/>
-      <c r="N4" s="154" t="s">
+      <c r="N4" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="155"/>
+      <c r="O4" s="136"/>
       <c r="P4" s="48">
         <f>Estimate!L4</f>
         <v>642.22020614588871</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="171"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="42">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="148" t="s">
+      <c r="F5" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="149"/>
-      <c r="I5" s="182" t="s">
+      <c r="G5" s="189"/>
+      <c r="I5" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="183"/>
+      <c r="J5" s="142"/>
       <c r="K5" s="38">
         <f>$M$16</f>
         <v>1103.146698363154</v>
       </c>
       <c r="L5" s="53"/>
       <c r="M5" s="52"/>
-      <c r="N5" s="166" t="s">
+      <c r="N5" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="167"/>
+      <c r="O5" s="148"/>
       <c r="P5" s="49">
         <f>Estimate!L5</f>
         <v>586.52275088831789</v>
       </c>
-      <c r="R5" s="174" t="s">
+      <c r="R5" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="175"/>
-      <c r="T5" s="175"/>
-      <c r="U5" s="176"/>
+      <c r="S5" s="158"/>
+      <c r="T5" s="158"/>
+      <c r="U5" s="159"/>
     </row>
     <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="139"/>
+      <c r="C6" s="154"/>
       <c r="D6" s="43">
         <v>6.9</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="150"/>
-      <c r="G6" s="151"/>
-      <c r="I6" s="182" t="s">
+      <c r="F6" s="190"/>
+      <c r="G6" s="191"/>
+      <c r="I6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="183"/>
+      <c r="J6" s="142"/>
       <c r="K6" s="39">
         <f>PI()*Nozzle_Throat_Diameter^2/4</f>
         <v>4.0114996593688055</v>
@@ -4174,28 +4174,28 @@
         <v>42</v>
       </c>
       <c r="M6" s="52"/>
-      <c r="N6" s="166" t="s">
+      <c r="N6" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="167"/>
+      <c r="O6" s="148"/>
       <c r="P6" s="49">
         <f>Estimate!L6</f>
-        <v>3923.1600891050684</v>
+        <v>3972.2174780390969</v>
       </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="177" t="str">
+      <c r="R6" s="160" t="str">
         <f>IF(ISNUMBER($D$5:$D$12), "", "Error: Input Values Must be Numerical")</f>
         <v/>
       </c>
-      <c r="S6" s="178"/>
-      <c r="T6" s="178"/>
-      <c r="U6" s="179"/>
+      <c r="S6" s="161"/>
+      <c r="T6" s="161"/>
+      <c r="U6" s="162"/>
     </row>
     <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="139"/>
+      <c r="C7" s="154"/>
       <c r="D7" s="64">
         <f>'Erosive Burning'!S5</f>
         <v>2.75</v>
@@ -4203,132 +4203,132 @@
       <c r="E7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="152">
+      <c r="F7" s="192">
         <v>3</v>
       </c>
-      <c r="G7" s="153"/>
+      <c r="G7" s="193"/>
       <c r="H7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="182" t="s">
+      <c r="I7" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="183"/>
+      <c r="J7" s="142"/>
       <c r="K7" s="40">
         <f>$Q$16</f>
         <v>277.44592592592596</v>
       </c>
       <c r="L7" s="55"/>
       <c r="M7" s="52"/>
-      <c r="N7" s="166" t="s">
+      <c r="N7" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="167"/>
+      <c r="O7" s="148"/>
       <c r="P7" s="49">
         <f>Estimate!L7</f>
-        <v>3550.8703801899906</v>
+        <v>3600.3926776300841</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="160" t="str">
+      <c r="R7" s="163" t="str">
         <f>IF(NOT(ISBLANK($D$5:$D$12)),"", "Error: Must Enter All Input Values")</f>
         <v/>
       </c>
-      <c r="S7" s="161"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="162"/>
+      <c r="S7" s="164"/>
+      <c r="T7" s="164"/>
+      <c r="U7" s="165"/>
     </row>
     <row r="8" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="139"/>
+      <c r="C8" s="154"/>
       <c r="D8" s="43">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="188">
+      <c r="F8" s="137">
         <v>3</v>
       </c>
-      <c r="G8" s="189"/>
+      <c r="G8" s="138"/>
       <c r="H8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="182" t="s">
+      <c r="I8" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="183"/>
+      <c r="J8" s="142"/>
       <c r="K8" s="40">
         <f>MAX(Q17:Q45)</f>
         <v>334.52647377460693</v>
       </c>
       <c r="L8" s="55"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="166" t="s">
+      <c r="N8" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="167"/>
+      <c r="O8" s="148"/>
       <c r="P8" s="49">
         <f>Estimate!L8</f>
         <v>9.2368014748779306</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="160" t="str">
+      <c r="R8" s="163" t="str">
         <f>IF(ISNUMBER($F$7:$F$12), "", "Error: Grain Core Diameter Values Must be Numerical")</f>
         <v/>
       </c>
-      <c r="S8" s="161"/>
-      <c r="T8" s="161"/>
-      <c r="U8" s="162"/>
+      <c r="S8" s="164"/>
+      <c r="T8" s="164"/>
+      <c r="U8" s="165"/>
     </row>
     <row r="9" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="139"/>
+      <c r="C9" s="154"/>
       <c r="D9" s="43">
         <v>2.2599999999999998</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="188">
+      <c r="F9" s="137">
         <v>3</v>
       </c>
-      <c r="G9" s="189"/>
+      <c r="G9" s="138"/>
       <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="192" t="s">
+      <c r="I9" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="193"/>
+      <c r="J9" s="144"/>
       <c r="K9" s="41">
         <f>$Q$45</f>
         <v>322.20444444444445</v>
       </c>
       <c r="L9" s="55"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="166" t="s">
+      <c r="N9" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="167"/>
+      <c r="O9" s="148"/>
       <c r="P9" s="49">
         <f>Estimate!L9</f>
         <v>32626.648861105939</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="161"/>
-      <c r="T9" s="161"/>
-      <c r="U9" s="162"/>
+      <c r="R9" s="163"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="165"/>
     </row>
     <row r="10" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="139"/>
+      <c r="C10" s="154"/>
       <c r="D10" s="64">
         <f>Nozzle_Throat_Diameter</f>
         <v>2.2599999999999998</v>
@@ -4336,10 +4336,10 @@
       <c r="E10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="190">
+      <c r="F10" s="139">
         <v>3.4</v>
       </c>
-      <c r="G10" s="191"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="3" t="s">
         <v>54</v>
       </c>
@@ -4348,41 +4348,41 @@
       <c r="K10" s="56"/>
       <c r="L10" s="54"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="156" t="s">
+      <c r="N10" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="157"/>
+      <c r="O10" s="174"/>
       <c r="P10" s="50">
         <f>MAX('Erosive Burning'!L14:L19)</f>
         <v>1.18406010621894</v>
       </c>
-      <c r="R10" s="163"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
-      <c r="U10" s="165"/>
+      <c r="R10" s="170"/>
+      <c r="S10" s="171"/>
+      <c r="T10" s="171"/>
+      <c r="U10" s="172"/>
     </row>
     <row r="11" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="139"/>
+      <c r="C11" s="154"/>
       <c r="D11" s="43">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="188">
+      <c r="F11" s="137">
         <v>3.8</v>
       </c>
-      <c r="G11" s="189"/>
+      <c r="G11" s="138"/>
       <c r="H11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="194" t="s">
+      <c r="I11" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="195"/>
+      <c r="J11" s="146"/>
       <c r="K11" s="44">
         <f>((D6*3)+D7)/2</f>
         <v>11.725000000000001</v>
@@ -4396,20 +4396,20 @@
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="141"/>
+      <c r="C12" s="181"/>
       <c r="D12" s="100">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="186">
+      <c r="F12" s="133">
         <v>4.3</v>
       </c>
-      <c r="G12" s="187"/>
+      <c r="G12" s="134"/>
       <c r="H12" s="2" t="s">
         <v>54</v>
       </c>
@@ -4417,20 +4417,20 @@
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
-      <c r="M12" s="154" t="s">
+      <c r="M12" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="N12" s="155"/>
-      <c r="O12" s="158" t="s">
+      <c r="N12" s="136"/>
+      <c r="O12" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="P12" s="159"/>
+      <c r="P12" s="195"/>
     </row>
     <row r="13" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="134"/>
+      <c r="C13" s="176"/>
       <c r="D13" s="68">
         <f>(D10-D9)/29</f>
         <v>0</v>
@@ -4439,15 +4439,15 @@
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
       <c r="L13" s="58"/>
-      <c r="M13" s="156" t="s">
+      <c r="M13" s="173" t="s">
         <v>137</v>
       </c>
-      <c r="N13" s="157"/>
-      <c r="O13" s="233">
+      <c r="N13" s="174"/>
+      <c r="O13" s="196">
         <f>(36800+18400)/2</f>
         <v>27600</v>
       </c>
-      <c r="P13" s="234"/>
+      <c r="P13" s="197"/>
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L14" s="4"/>
@@ -16185,37 +16185,6 @@
     <row r="996" spans="3:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="T2:U3"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="R8:U8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="B9:C9"/>
@@ -16232,6 +16201,37 @@
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="T2:U3"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="T2:U3">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
@@ -16269,36 +16269,36 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="218" t="s">
+      <c r="B2" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="220"/>
-      <c r="N2" s="212" t="s">
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="208"/>
+      <c r="N2" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="202"/>
     </row>
     <row r="3" spans="2:34" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144" t="str">
+      <c r="C3" s="183"/>
+      <c r="D3" s="184" t="str">
         <f>'Bates Grain Kn Calculator'!D3</f>
         <v>Q-Motor</v>
       </c>
-      <c r="E3" s="145"/>
-      <c r="N3" s="201" t="s">
+      <c r="E3" s="185"/>
+      <c r="N3" s="218" t="s">
         <v>107</v>
       </c>
-      <c r="O3" s="203" t="s">
+      <c r="O3" s="220" t="s">
         <v>108</v>
       </c>
       <c r="P3" s="52"/>
@@ -16316,8 +16316,8 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="N4" s="201"/>
-      <c r="O4" s="203"/>
+      <c r="N4" s="218"/>
+      <c r="O4" s="220"/>
       <c r="P4" s="52"/>
       <c r="Q4" s="52"/>
       <c r="R4" s="52"/>
@@ -16325,11 +16325,11 @@
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="206" t="s">
+      <c r="B5" s="222" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
       <c r="E5" s="66">
         <f>'Bates Grain Kn Calculator'!D6</f>
         <v>6.9</v>
@@ -16337,19 +16337,19 @@
       <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="215" t="s">
+      <c r="H5" s="203" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="217"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="204"/>
+      <c r="I5" s="204"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="205"/>
+      <c r="N5" s="219"/>
+      <c r="O5" s="221"/>
       <c r="P5" s="52"/>
-      <c r="Q5" s="199" t="s">
+      <c r="Q5" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="R5" s="200"/>
+      <c r="R5" s="217"/>
       <c r="S5" s="132">
         <v>2.75</v>
       </c>
@@ -16358,11 +16358,11 @@
       </c>
     </row>
     <row r="6" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="213" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
       <c r="E6" s="67">
         <f>'Bates Grain Kn Calculator'!D8</f>
         <v>14</v>
@@ -16370,11 +16370,11 @@
       <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="199" t="s">
+      <c r="H6" s="209" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="210"/>
       <c r="K6" s="65">
         <v>0.57499999999999996</v>
       </c>
@@ -16390,10 +16390,10 @@
         <v>424.53912324285676</v>
       </c>
       <c r="P6" s="52"/>
-      <c r="Q6" s="197" t="s">
+      <c r="Q6" s="211" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="198"/>
+      <c r="R6" s="216"/>
       <c r="S6" s="76">
         <f>AVERAGE(E14:E19)</f>
         <v>28.034787442471924</v>
@@ -16403,22 +16403,22 @@
       </c>
     </row>
     <row r="7" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="213" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
       <c r="E7" s="62">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="197" t="s">
+      <c r="H7" s="211" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="205"/>
-      <c r="J7" s="205"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
       <c r="K7" s="65">
         <v>0.1</v>
       </c>
@@ -16434,10 +16434,10 @@
         <v>424.53912324285676</v>
       </c>
       <c r="P7" s="52"/>
-      <c r="Q7" s="197" t="s">
+      <c r="Q7" s="211" t="s">
         <v>88</v>
       </c>
-      <c r="R7" s="198"/>
+      <c r="R7" s="216"/>
       <c r="S7" s="76">
         <f>(C14+C15+C16+C17+C18+C19)/ng</f>
         <v>3.4166666666666665</v>
@@ -16447,11 +16447,11 @@
       </c>
     </row>
     <row r="8" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="208" t="s">
+      <c r="B8" s="213" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="209"/>
-      <c r="D8" s="209"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
       <c r="E8" s="67">
         <f>Estimate!D10</f>
         <v>0.23289725920790463</v>
@@ -16459,11 +16459,11 @@
       <c r="F8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="197" t="s">
+      <c r="H8" s="211" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="205"/>
-      <c r="J8" s="205"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
       <c r="K8" s="65">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -16479,10 +16479,10 @@
         <v>424.53912324285676</v>
       </c>
       <c r="P8" s="52"/>
-      <c r="Q8" s="197" t="s">
+      <c r="Q8" s="211" t="s">
         <v>87</v>
       </c>
-      <c r="R8" s="198"/>
+      <c r="R8" s="216"/>
       <c r="S8" s="76">
         <f>SUM(O6:O11)</f>
         <v>2354.9221451676417</v>
@@ -16492,11 +16492,11 @@
       </c>
     </row>
     <row r="9" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="208" t="s">
+      <c r="B9" s="213" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="209"/>
-      <c r="D9" s="209"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
       <c r="E9" s="67">
         <f>[0]!Num_Grains</f>
         <v>6</v>
@@ -16504,11 +16504,11 @@
       <c r="F9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="197" t="s">
+      <c r="H9" s="211" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="205"/>
-      <c r="J9" s="205"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="212"/>
       <c r="K9" s="65">
         <f>PI()/4*ds^2</f>
         <v>0.25967226777328128</v>
@@ -16525,10 +16525,10 @@
         <v>396.39045306669226</v>
       </c>
       <c r="P9" s="52"/>
-      <c r="Q9" s="197" t="s">
+      <c r="Q9" s="211" t="s">
         <v>84</v>
       </c>
-      <c r="R9" s="198"/>
+      <c r="R9" s="216"/>
       <c r="S9" s="76">
         <f>S10*rhop</f>
         <v>138.94040656489085</v>
@@ -16538,11 +16538,11 @@
       </c>
     </row>
     <row r="10" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="210" t="s">
+      <c r="B10" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="211"/>
-      <c r="D10" s="211"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
       <c r="E10" s="75">
         <f>[0]!boundary_layer</f>
         <v>5.0000000000000001E-3</v>
@@ -16550,11 +16550,11 @@
       <c r="F10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="197" t="s">
+      <c r="H10" s="211" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="205"/>
-      <c r="J10" s="205"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="212"/>
       <c r="K10" s="65">
         <f>As*sdots</f>
         <v>2.5967226777328128E-2</v>
@@ -16571,10 +16571,10 @@
         <v>364.72319911850713</v>
       </c>
       <c r="P10" s="52"/>
-      <c r="Q10" s="133" t="s">
+      <c r="Q10" s="175" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="134"/>
+      <c r="R10" s="176"/>
       <c r="S10" s="77">
         <f>S8</f>
         <v>2354.9221451676417</v>
@@ -16591,11 +16591,11 @@
       <c r="AH10" s="3"/>
     </row>
     <row r="11" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="196"/>
-      <c r="D11" s="134"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="176"/>
       <c r="E11" s="63">
         <v>1.4</v>
       </c>
@@ -16603,11 +16603,11 @@
         <v>92</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="215"/>
       <c r="K11" s="68">
         <f>Vdots*rhos</f>
         <v>1.8177058744129691E-3</v>
@@ -21237,16 +21237,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q10:R10"/>
@@ -21263,6 +21253,16 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21289,14 +21289,14 @@
   <sheetData>
     <row r="1" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="230" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="F2" s="227" t="s">
+      <c r="C2" s="231"/>
+      <c r="F2" s="224" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="228"/>
+      <c r="G2" s="225"/>
       <c r="H2" s="120">
         <v>1.26</v>
       </c>
@@ -21310,22 +21310,22 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="209" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="200"/>
+      <c r="C4" s="217"/>
       <c r="D4" s="83">
         <v>9.1</v>
       </c>
-      <c r="F4" s="224" t="s">
+      <c r="F4" s="232" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="225"/>
-      <c r="H4" s="226"/>
-      <c r="J4" s="206" t="s">
+      <c r="G4" s="233"/>
+      <c r="H4" s="234"/>
+      <c r="J4" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="207"/>
+      <c r="K4" s="223"/>
       <c r="L4" s="121">
         <f>MAX(D14:D43)</f>
         <v>642.22020614588871</v>
@@ -21335,24 +21335,24 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="211" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="198"/>
+      <c r="C5" s="216"/>
       <c r="D5" s="84">
         <v>13.43</v>
       </c>
-      <c r="F5" s="208" t="s">
+      <c r="F5" s="213" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="209"/>
+      <c r="G5" s="214"/>
       <c r="H5" s="117">
         <v>1.4109999999999999E-2</v>
       </c>
-      <c r="J5" s="208" t="s">
+      <c r="J5" s="213" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="209"/>
+      <c r="K5" s="214"/>
       <c r="L5" s="128">
         <f>AVERAGE(D14:D43)</f>
         <v>586.52275088831789</v>
@@ -21362,28 +21362,28 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="197" t="s">
+      <c r="B6" s="211" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="198"/>
+      <c r="C6" s="216"/>
       <c r="D6" s="84">
         <f>(('Bates Grain Kn Calculator'!D11^2)/4)/((Nozzle_Throat_Diameter^2)/4)</f>
-        <v>15.858720338319371</v>
-      </c>
-      <c r="F6" s="208" t="s">
+        <v>7.048320150364165</v>
+      </c>
+      <c r="F6" s="213" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="209"/>
+      <c r="G6" s="214"/>
       <c r="H6" s="117">
         <v>0.44005699999999998</v>
       </c>
-      <c r="J6" s="208" t="s">
+      <c r="J6" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="209"/>
+      <c r="K6" s="214"/>
       <c r="L6" s="122">
         <f>MAX(L14:L43)</f>
-        <v>3923.1600891050684</v>
+        <v>3972.2174780390969</v>
       </c>
       <c r="M6" s="81" t="s">
         <v>56</v>
@@ -21391,46 +21391,46 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="2:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="197" t="s">
+      <c r="B7" s="211" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="198"/>
+      <c r="C7" s="216"/>
       <c r="D7" s="84">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F7" s="229"/>
-      <c r="G7" s="230"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="227"/>
       <c r="H7" s="101"/>
-      <c r="J7" s="208" t="s">
+      <c r="J7" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="209"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="122">
         <f>AVERAGE(L14:L43)</f>
-        <v>3550.8703801899906</v>
+        <v>3600.3926776300841</v>
       </c>
       <c r="M7" s="81" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="197" t="s">
+      <c r="B8" s="211" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="198"/>
+      <c r="C8" s="216"/>
       <c r="D8" s="84">
         <f>6*2300</f>
         <v>13800</v>
       </c>
-      <c r="F8" s="224" t="s">
+      <c r="F8" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="225"/>
-      <c r="H8" s="226"/>
-      <c r="J8" s="208" t="s">
+      <c r="G8" s="233"/>
+      <c r="H8" s="234"/>
+      <c r="J8" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="209"/>
+      <c r="K8" s="214"/>
       <c r="L8" s="123">
         <f>K43</f>
         <v>9.2368014748779306</v>
@@ -21441,26 +21441,26 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="211" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="198"/>
+      <c r="C9" s="216"/>
       <c r="D9" s="84">
         <f>AVERAGE(D14:D43)</f>
         <v>586.52275088831789</v>
       </c>
-      <c r="F9" s="208" t="s">
+      <c r="F9" s="213" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="209"/>
+      <c r="G9" s="214"/>
       <c r="H9" s="118">
         <v>75.234999999999999</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="208" t="s">
+      <c r="J9" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="209"/>
+      <c r="K9" s="214"/>
       <c r="L9" s="122">
         <f>MAX(M14:M43)</f>
         <v>32626.648861105939</v>
@@ -21470,26 +21470,26 @@
       </c>
     </row>
     <row r="10" spans="2:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="175" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="134"/>
+      <c r="C10" s="176"/>
       <c r="D10" s="85">
         <f>AVERAGE(I14:I43)</f>
         <v>0.23289725920790463</v>
       </c>
-      <c r="F10" s="222" t="s">
+      <c r="F10" s="228" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="223"/>
+      <c r="G10" s="229"/>
       <c r="H10" s="119">
         <v>6.4099999999999999E-3</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="222" t="s">
+      <c r="J10" s="228" t="s">
         <v>127</v>
       </c>
-      <c r="K10" s="223"/>
+      <c r="K10" s="229"/>
       <c r="L10" s="124">
         <f>L9/'Erosive Burning'!S9</f>
         <v>234.82476889016414</v>
@@ -21584,11 +21584,11 @@
       </c>
       <c r="F14" s="89">
         <f t="shared" ref="F14:F43" si="0">SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D14)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D14)))</f>
-        <v>1.4750177109747984</v>
+        <v>1.5037693438624242</v>
       </c>
       <c r="G14" s="89">
         <f t="shared" ref="G14:G43" si="1">(D14*E14)*F14</f>
-        <v>2612.3641311842121</v>
+        <v>2663.2853736274451</v>
       </c>
       <c r="H14" s="104">
         <f>'Bates Grain Kn Calculator'!N16-'Bates Grain Kn Calculator'!N17</f>
@@ -21607,7 +21607,7 @@
       </c>
       <c r="L14" s="89">
         <f t="shared" ref="L14:L43" si="4">G14</f>
-        <v>2612.3641311842121</v>
+        <v>2663.2853736274451</v>
       </c>
       <c r="M14" s="105">
         <v>904.71529973261499</v>
@@ -21628,7 +21628,7 @@
         <v>283.06683930065617</v>
       </c>
       <c r="D15" s="115">
-        <f t="shared" ref="D14:D43" si="5">($H$9*EXP(C15*$H$10))</f>
+        <f t="shared" ref="D15:D43" si="5">($H$9*EXP(C15*$H$10))</f>
         <v>461.77372026747497</v>
       </c>
       <c r="E15" s="107">
@@ -21637,11 +21637,11 @@
       </c>
       <c r="F15" s="93">
         <f t="shared" si="0"/>
-        <v>1.4816010315160608</v>
+        <v>1.5092235565618797</v>
       </c>
       <c r="G15" s="93">
         <f t="shared" si="1"/>
-        <v>2720.2912381771334</v>
+        <v>2771.0075317407118</v>
       </c>
       <c r="H15" s="108">
         <f>'Bates Grain Kn Calculator'!N17-'Bates Grain Kn Calculator'!N18</f>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="L15" s="93">
         <f t="shared" si="4"/>
-        <v>2720.2912381771334</v>
+        <v>2771.0075317407118</v>
       </c>
       <c r="M15" s="109">
         <v>1831.9886229695926</v>
@@ -21690,11 +21690,11 @@
       </c>
       <c r="F16" s="93">
         <f t="shared" si="0"/>
-        <v>1.4877241497602827</v>
+        <v>1.5143191807716432</v>
       </c>
       <c r="G16" s="93">
         <f t="shared" si="1"/>
-        <v>2826.4636514336025</v>
+        <v>2876.9904164084619</v>
       </c>
       <c r="H16" s="108">
         <f>'Bates Grain Kn Calculator'!N18-'Bates Grain Kn Calculator'!N19</f>
@@ -21713,7 +21713,7 @@
       </c>
       <c r="L16" s="93">
         <f t="shared" si="4"/>
-        <v>2826.4636514336025</v>
+        <v>2876.9904164084619</v>
       </c>
       <c r="M16" s="109">
         <v>2781.0771058229193</v>
@@ -21743,11 +21743,11 @@
       </c>
       <c r="F17" s="93">
         <f t="shared" si="0"/>
-        <v>1.493409379126277</v>
+        <v>1.5190700085894002</v>
       </c>
       <c r="G17" s="93">
         <f t="shared" si="1"/>
-        <v>2930.3934462950788</v>
+        <v>2980.7451726586405</v>
       </c>
       <c r="H17" s="108">
         <f>'Bates Grain Kn Calculator'!N19-'Bates Grain Kn Calculator'!N20</f>
@@ -21766,7 +21766,7 @@
       </c>
       <c r="L17" s="93">
         <f t="shared" si="4"/>
-        <v>2930.3934462950788</v>
+        <v>2980.7451726586405</v>
       </c>
       <c r="M17" s="109">
         <v>3751.1781309650551</v>
@@ -21796,11 +21796,11 @@
       </c>
       <c r="F18" s="93">
         <f t="shared" si="0"/>
-        <v>1.4986767960031118</v>
+        <v>1.5234885741791759</v>
       </c>
       <c r="G18" s="93">
         <f t="shared" si="1"/>
-        <v>3031.5889676843672</v>
+        <v>3081.7793177236772</v>
       </c>
       <c r="H18" s="108">
         <f>'Bates Grain Kn Calculator'!N20-'Bates Grain Kn Calculator'!N21</f>
@@ -21819,7 +21819,7 @@
       </c>
       <c r="L18" s="93">
         <f t="shared" si="4"/>
-        <v>3031.5889676843672</v>
+        <v>3081.7793177236772</v>
       </c>
       <c r="M18" s="109">
         <v>4741.4304607778377</v>
@@ -21849,11 +21849,11 @@
       </c>
       <c r="F19" s="93">
         <f t="shared" si="0"/>
-        <v>1.5035444601589307</v>
+        <v>1.5275862594252423</v>
       </c>
       <c r="G19" s="93">
         <f t="shared" si="1"/>
-        <v>3129.5586250591318</v>
+        <v>3179.6005242177857</v>
       </c>
       <c r="H19" s="108">
         <f>'Bates Grain Kn Calculator'!N21-'Bates Grain Kn Calculator'!N22</f>
@@ -21872,7 +21872,7 @@
       </c>
       <c r="L19" s="93">
         <f t="shared" si="4"/>
-        <v>3129.5586250591318</v>
+        <v>3179.6005242177857</v>
       </c>
       <c r="M19" s="109">
         <v>5750.9156866625472</v>
@@ -21902,11 +21902,11 @@
       </c>
       <c r="F20" s="93">
         <f t="shared" si="0"/>
-        <v>1.5080286058392234</v>
+        <v>1.531373386620869</v>
       </c>
       <c r="G20" s="93">
         <f t="shared" si="1"/>
-        <v>3223.8148041437935</v>
+        <v>3273.7205218416875</v>
       </c>
       <c r="H20" s="108">
         <f>'Bates Grain Kn Calculator'!N22-'Bates Grain Kn Calculator'!N23</f>
@@ -21925,7 +21925,7 @@
       </c>
       <c r="L20" s="93">
         <f t="shared" si="4"/>
-        <v>3223.8148041437935</v>
+        <v>3273.7205218416875</v>
       </c>
       <c r="M20" s="109">
         <v>6778.6599875226448</v>
@@ -21955,11 +21955,11 @@
       </c>
       <c r="F21" s="93">
         <f t="shared" si="0"/>
-        <v>1.5121438076589107</v>
+        <v>1.5348592998239521</v>
       </c>
       <c r="G21" s="93">
         <f t="shared" si="1"/>
-        <v>3313.8778538534334</v>
+        <v>3363.6590757477015</v>
       </c>
       <c r="H21" s="108">
         <f>'Bates Grain Kn Calculator'!N23-'Bates Grain Kn Calculator'!N24</f>
@@ -21978,7 +21978,7 @@
       </c>
       <c r="L21" s="93">
         <f t="shared" si="4"/>
-        <v>3313.8778538534334</v>
+        <v>3363.6590757477015</v>
       </c>
       <c r="M21" s="109">
         <v>7823.6361889164873</v>
@@ -22008,11 +22008,11 @@
       </c>
       <c r="F22" s="93">
         <f t="shared" si="0"/>
-        <v>1.5159031247113479</v>
+        <v>1.5380524362632317</v>
       </c>
       <c r="G22" s="93">
         <f t="shared" si="1"/>
-        <v>3399.2801044590219</v>
+        <v>3448.9479973859661</v>
       </c>
       <c r="H22" s="108">
         <f>'Bates Grain Kn Calculator'!N24-'Bates Grain Kn Calculator'!N25</f>
@@ -22031,7 +22031,7 @@
       </c>
       <c r="L22" s="93">
         <f t="shared" si="4"/>
-        <v>3399.2801044590219</v>
+        <v>3448.9479973859661</v>
       </c>
       <c r="M22" s="109">
         <v>8884.766112800984</v>
@@ -22061,11 +22061,11 @@
       </c>
       <c r="F23" s="93">
         <f t="shared" si="0"/>
-        <v>1.5193182257576041</v>
+        <v>1.5409603889702042</v>
       </c>
       <c r="G23" s="93">
         <f t="shared" si="1"/>
-        <v>3479.5698713089373</v>
+        <v>3529.1351419598327</v>
       </c>
       <c r="H23" s="108">
         <f>'Bates Grain Kn Calculator'!N25-'Bates Grain Kn Calculator'!N26</f>
@@ -22084,7 +22084,7 @@
       </c>
       <c r="L23" s="93">
         <f t="shared" si="4"/>
-        <v>3479.5698713089373</v>
+        <v>3529.1351419598327</v>
       </c>
       <c r="M23" s="109">
         <v>9960.9232061793537</v>
@@ -22114,11 +22114,11 @@
       </c>
       <c r="F24" s="93">
         <f t="shared" si="0"/>
-        <v>1.5223994978966091</v>
+        <v>1.5435899616357613</v>
       </c>
       <c r="G24" s="93">
         <f t="shared" si="1"/>
-        <v>3554.3153973611934</v>
+        <v>3603.7883455915062</v>
       </c>
       <c r="H24" s="108">
         <f>'Bates Grain Kn Calculator'!N26-'Bates Grain Kn Calculator'!N27</f>
@@ -22137,7 +22137,7 @@
       </c>
       <c r="L24" s="93">
         <f t="shared" si="4"/>
-        <v>3554.3153973611934</v>
+        <v>3603.7883455915062</v>
       </c>
       <c r="M24" s="109">
         <v>11050.935435354861</v>
@@ -22167,11 +22167,11 @@
       </c>
       <c r="F25" s="93">
         <f t="shared" si="0"/>
-        <v>1.5251561407317806</v>
+        <v>1.5459472165411876</v>
       </c>
       <c r="G25" s="93">
         <f t="shared" si="1"/>
-        <v>3623.1086874268481</v>
+        <v>3672.4992549721942</v>
       </c>
       <c r="H25" s="108">
         <f>'Bates Grain Kn Calculator'!N27-'Bates Grain Kn Calculator'!N28</f>
@@ -22190,7 +22190,7 @@
       </c>
       <c r="L25" s="93">
         <f t="shared" si="4"/>
-        <v>3623.1086874268481</v>
+        <v>3672.4992549721942</v>
       </c>
       <c r="M25" s="109">
         <v>12153.588430903163</v>
@@ -22220,11 +22220,11 @@
       </c>
       <c r="F26" s="93">
         <f t="shared" si="0"/>
-        <v>1.5275962477273854</v>
+        <v>1.5480375162856748</v>
       </c>
       <c r="G26" s="93">
         <f t="shared" si="1"/>
-        <v>3685.5691873982187</v>
+        <v>3734.8870026663849</v>
       </c>
       <c r="H26" s="108">
         <f>'Bates Grain Kn Calculator'!N28-'Bates Grain Kn Calculator'!N29</f>
@@ -22243,7 +22243,7 @@
       </c>
       <c r="L26" s="93">
         <f t="shared" si="4"/>
-        <v>3685.5691873982187</v>
+        <v>3734.8870026663849</v>
       </c>
       <c r="M26" s="109">
         <v>13267.628866931094</v>
@@ -22273,11 +22273,11 @@
       </c>
       <c r="F27" s="93">
         <f t="shared" si="0"/>
-        <v>1.5297268761761222</v>
+        <v>1.5498655599231219</v>
       </c>
       <c r="G27" s="93">
         <f t="shared" si="1"/>
-        <v>3741.3472628436607</v>
+        <v>3790.6016823662194</v>
       </c>
       <c r="H27" s="108">
         <f>'Bates Grain Kn Calculator'!N29-'Bates Grain Kn Calculator'!N30</f>
@@ -22296,7 +22296,7 @@
       </c>
       <c r="L27" s="93">
         <f t="shared" si="4"/>
-        <v>3741.3472628436607</v>
+        <v>3790.6016823662194</v>
       </c>
       <c r="M27" s="109">
         <v>14391.768056711462</v>
@@ -22326,11 +22326,11 @@
       </c>
       <c r="F28" s="93">
         <f t="shared" si="0"/>
-        <v>1.5315541069686216</v>
+        <v>1.551435414026475</v>
       </c>
       <c r="G28" s="93">
         <f t="shared" si="1"/>
-        <v>3790.1274331880491</v>
+        <v>3839.3275802443941</v>
       </c>
       <c r="H28" s="108">
         <f>'Bates Grain Kn Calculator'!N30-'Bates Grain Kn Calculator'!N31</f>
@@ -22349,7 +22349,7 @@
       </c>
       <c r="L28" s="93">
         <f t="shared" si="4"/>
-        <v>3790.1274331880491</v>
+        <v>3839.3275802443941</v>
       </c>
       <c r="M28" s="109">
         <v>15524.68574539031</v>
@@ -22379,11 +22379,11 @@
       </c>
       <c r="F29" s="93">
         <f t="shared" si="0"/>
-        <v>1.5330830951579257</v>
+        <v>1.5527505391156016</v>
       </c>
       <c r="G29" s="93">
         <f t="shared" si="1"/>
-        <v>3831.6313202452206</v>
+        <v>3880.7861211137511</v>
       </c>
       <c r="H29" s="108">
         <f>'Bates Grain Kn Calculator'!N31-'Bates Grain Kn Calculator'!N32</f>
@@ -22402,7 +22402,7 @@
       </c>
       <c r="L29" s="93">
         <f t="shared" si="4"/>
-        <v>3831.6313202452206</v>
+        <v>3880.7861211137511</v>
       </c>
       <c r="M29" s="109">
         <v>16665.03407917271</v>
@@ -22432,11 +22432,11 @@
       </c>
       <c r="F30" s="93">
         <f t="shared" si="0"/>
-        <v>1.5343181121412168</v>
+        <v>1.5538138118125007</v>
       </c>
       <c r="G30" s="93">
         <f t="shared" si="1"/>
-        <v>3865.6202730922046</v>
+        <v>3914.738491335916</v>
       </c>
       <c r="H30" s="108">
         <f>'Bates Grain Kn Calculator'!N32-'Bates Grain Kn Calculator'!N33</f>
@@ -22455,7 +22455,7 @@
       </c>
       <c r="L30" s="93">
         <f t="shared" si="4"/>
-        <v>3865.6202730922046</v>
+        <v>3914.738491335916</v>
       </c>
       <c r="M30" s="109">
         <v>17811.441729221737</v>
@@ -22485,11 +22485,11 @@
       </c>
       <c r="F31" s="93">
         <f t="shared" si="0"/>
-        <v>1.5352625801318753</v>
+        <v>1.5546275430236334</v>
       </c>
       <c r="G31" s="93">
         <f t="shared" si="1"/>
-        <v>3891.8976351290326</v>
+        <v>3940.9879042843718</v>
       </c>
       <c r="H31" s="108">
         <f>'Bates Grain Kn Calculator'!N33-'Bates Grain Kn Calculator'!N34</f>
@@ -22508,7 +22508,7 @@
       </c>
       <c r="L31" s="93">
         <f t="shared" si="4"/>
-        <v>3891.8976351290326</v>
+        <v>3940.9879042843718</v>
       </c>
       <c r="M31" s="109">
         <v>18962.51814746625</v>
@@ -22538,11 +22538,11 @@
       </c>
       <c r="F32" s="93">
         <f t="shared" si="0"/>
-        <v>1.5359190994630392</v>
+        <v>1.5551934923918123</v>
       </c>
       <c r="G32" s="93">
         <f t="shared" si="1"/>
-        <v>3910.3106235928403</v>
+        <v>3959.3814786001344</v>
       </c>
       <c r="H32" s="108">
         <f>'Bates Grain Kn Calculator'!N34-'Bates Grain Kn Calculator'!N35</f>
@@ -22561,7 +22561,7 @@
       </c>
       <c r="L32" s="93">
         <f t="shared" si="4"/>
-        <v>3910.3106235928403</v>
+        <v>3959.3814786001344</v>
       </c>
       <c r="M32" s="109">
         <v>20116.857930618917</v>
@@ -22591,11 +22591,11 @@
       </c>
       <c r="F33" s="93">
         <f t="shared" si="0"/>
-        <v>1.5362894691454851</v>
+        <v>1.5555128792079431</v>
       </c>
       <c r="G33" s="93">
         <f t="shared" si="1"/>
-        <v>3920.751796721097</v>
+        <v>3969.8117044111568</v>
       </c>
       <c r="H33" s="108">
         <f>'Bates Grain Kn Calculator'!N35-'Bates Grain Kn Calculator'!N36</f>
@@ -22614,7 +22614,7 @@
       </c>
       <c r="L33" s="93">
         <f t="shared" si="4"/>
-        <v>3920.751796721097</v>
+        <v>3969.8117044111568</v>
       </c>
       <c r="M33" s="109">
         <v>21273.04526796686</v>
@@ -22644,11 +22644,11 @@
       </c>
       <c r="F34" s="93">
         <f t="shared" si="0"/>
-        <v>1.536374700994759</v>
+        <v>1.555586389924918</v>
       </c>
       <c r="G34" s="93">
         <f t="shared" si="1"/>
-        <v>3923.1600891050684</v>
+        <v>3972.2174780390969</v>
       </c>
       <c r="H34" s="108">
         <f>'Bates Grain Kn Calculator'!N36-'Bates Grain Kn Calculator'!N37</f>
@@ -22667,7 +22667,7 @@
       </c>
       <c r="L34" s="93">
         <f t="shared" si="4"/>
-        <v>3923.1600891050684</v>
+        <v>3972.2174780390969</v>
       </c>
       <c r="M34" s="109">
         <v>22429.658447921935</v>
@@ -22697,11 +22697,11 @@
       </c>
       <c r="F35" s="93">
         <f t="shared" si="0"/>
-        <v>1.5361750275422363</v>
+        <v>1.5554141823709158</v>
       </c>
       <c r="G35" s="93">
         <f t="shared" si="1"/>
-        <v>3917.5214014524076</v>
+        <v>3966.5846914004251</v>
       </c>
       <c r="H35" s="108">
         <f>'Bates Grain Kn Calculator'!N37-'Bates Grain Kn Calculator'!N38</f>
@@ -22720,7 +22720,7 @@
       </c>
       <c r="L35" s="93">
         <f t="shared" si="4"/>
-        <v>3917.5214014524076</v>
+        <v>3966.5846914004251</v>
       </c>
       <c r="M35" s="109">
         <v>23585.274397912446</v>
@@ -22750,11 +22750,11 @@
       </c>
       <c r="F36" s="93">
         <f t="shared" si="0"/>
-        <v>1.5356899038496987</v>
+        <v>1.5549958867163853</v>
       </c>
       <c r="G36" s="93">
         <f t="shared" si="1"/>
-        <v>3903.8687368907258</v>
+        <v>3952.9463682271512</v>
       </c>
       <c r="H36" s="108">
         <f>'Bates Grain Kn Calculator'!N38-'Bates Grain Kn Calculator'!N39</f>
@@ -22773,7 +22773,7 @@
       </c>
       <c r="L36" s="93">
         <f t="shared" si="4"/>
-        <v>3903.8687368907258</v>
+        <v>3952.9463682271512</v>
       </c>
       <c r="M36" s="109">
         <v>24738.473231967266</v>
@@ -22803,11 +22803,11 @@
       </c>
       <c r="F37" s="93">
         <f t="shared" si="0"/>
-        <v>1.534918003254798</v>
+        <v>1.5543306032071489</v>
       </c>
       <c r="G37" s="93">
         <f t="shared" si="1"/>
-        <v>3882.2818819919044</v>
+        <v>3931.3823452854199</v>
       </c>
       <c r="H37" s="108">
         <f>'Bates Grain Kn Calculator'!N39-'Bates Grain Kn Calculator'!N40</f>
@@ -22826,7 +22826,7 @@
       </c>
       <c r="L37" s="93">
         <f t="shared" si="4"/>
-        <v>3882.2818819919044</v>
+        <v>3931.3823452854199</v>
       </c>
       <c r="M37" s="109">
         <v>25887.842780290346</v>
@@ -22856,11 +22856,11 @@
       </c>
       <c r="F38" s="93">
         <f t="shared" si="0"/>
-        <v>1.5338572069832028</v>
+        <v>1.5534168966344635</v>
       </c>
       <c r="G38" s="93">
         <f t="shared" si="1"/>
-        <v>3852.886636775851</v>
+        <v>3902.0185028542105</v>
       </c>
       <c r="H38" s="108">
         <f>'Bates Grain Kn Calculator'!N40-'Bates Grain Kn Calculator'!N41</f>
@@ -22879,7 +22879,7 @@
       </c>
       <c r="L38" s="93">
         <f t="shared" si="4"/>
-        <v>3852.886636775851</v>
+        <v>3902.0185028542105</v>
       </c>
       <c r="M38" s="109">
         <v>27031.98307524819</v>
@@ -22909,11 +22909,11 @@
       </c>
       <c r="F39" s="93">
         <f t="shared" si="0"/>
-        <v>1.5325045874701184</v>
+        <v>1.5522527874706873</v>
       </c>
       <c r="G39" s="93">
         <f t="shared" si="1"/>
-        <v>3815.8536039584455</v>
+        <v>3865.02555473757</v>
       </c>
       <c r="H39" s="108">
         <f>'Bates Grain Kn Calculator'!N41-'Bates Grain Kn Calculator'!N42</f>
@@ -22932,7 +22932,7 @@
       </c>
       <c r="L39" s="93">
         <f t="shared" si="4"/>
-        <v>3815.8536039584455</v>
+        <v>3865.02555473757</v>
       </c>
       <c r="M39" s="109">
         <v>28169.510768493841</v>
@@ -22962,11 +22962,11 @@
       </c>
       <c r="F40" s="93">
         <f t="shared" si="0"/>
-        <v>1.5308563851369961</v>
+        <v>1.5508357395555059</v>
       </c>
       <c r="G40" s="93">
         <f t="shared" si="1"/>
-        <v>3771.3965535388102</v>
+        <v>3820.6174139196191</v>
       </c>
       <c r="H40" s="108">
         <f>'Bates Grain Kn Calculator'!N42-'Bates Grain Kn Calculator'!N43</f>
@@ -22985,7 +22985,7 @@
       </c>
       <c r="L40" s="93">
         <f t="shared" si="4"/>
-        <v>3771.3965535388102</v>
+        <v>3820.6174139196191</v>
       </c>
       <c r="M40" s="109">
         <v>29299.063454425461</v>
@@ -23015,11 +23015,11 @@
       </c>
       <c r="F41" s="93">
         <f t="shared" si="0"/>
-        <v>1.5289079782662429</v>
+        <v>1.5491626441715651</v>
       </c>
       <c r="G41" s="93">
         <f t="shared" si="1"/>
-        <v>3719.7703843769095</v>
+        <v>3769.0491555332374</v>
       </c>
       <c r="H41" s="108">
         <f>'Bates Grain Kn Calculator'!N43-'Bates Grain Kn Calculator'!N44</f>
@@ -23038,7 +23038,7 @@
       </c>
       <c r="L41" s="93">
         <f t="shared" si="4"/>
-        <v>3719.7703843769095</v>
+        <v>3769.0491555332374</v>
       </c>
       <c r="M41" s="109">
         <v>30419.3038758195</v>
@@ -23068,11 +23068,11 @@
       </c>
       <c r="F42" s="93">
         <f t="shared" si="0"/>
-        <v>1.5266538455050014</v>
+        <v>1.5472298002988243</v>
       </c>
       <c r="G42" s="93">
         <f t="shared" si="1"/>
-        <v>3661.2687096002337</v>
+        <v>3710.6146040075237</v>
       </c>
       <c r="H42" s="108">
         <f>'Bates Grain Kn Calculator'!N44-'Bates Grain Kn Calculator'!N45</f>
@@ -23091,7 +23091,7 @@
       </c>
       <c r="L42" s="93">
         <f t="shared" si="4"/>
-        <v>3661.2687096002337</v>
+        <v>3710.6146040075237</v>
       </c>
       <c r="M42" s="109">
         <v>31528.923988280818</v>
@@ -23123,11 +23123,11 @@
       </c>
       <c r="F43" s="97">
         <f t="shared" si="0"/>
-        <v>1.5240875204056743</v>
+        <v>1.5450328907828665</v>
       </c>
       <c r="G43" s="97">
         <f t="shared" si="1"/>
-        <v>3596.2210974122804</v>
+        <v>3645.6435760003365</v>
       </c>
       <c r="H43" s="112">
         <f>H42</f>
@@ -23146,7 +23146,7 @@
       </c>
       <c r="L43" s="97">
         <f t="shared" si="4"/>
-        <v>3596.2210974122804</v>
+        <v>3645.6435760003365</v>
       </c>
       <c r="M43" s="113">
         <v>32626.648861105939</v>
@@ -31465,6 +31465,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F2:G2"/>
@@ -31479,15 +31488,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
